--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95FE3B5-13C9-4214-9402-C8ADC0C0A3AE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076FF7F8-5CD3-453B-9B5A-585B782A451D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="30">
   <si>
     <t>GVGAI level</t>
   </si>
@@ -89,6 +89,27 @@
   </si>
   <si>
     <t>With any planner</t>
+  </si>
+  <si>
+    <t>Replanning</t>
+  </si>
+  <si>
+    <t>MPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butteflies </t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Inconsistencias</t>
+  </si>
+  <si>
+    <t>Nº planificaciones</t>
+  </si>
+  <si>
+    <t>(Hasta pasarse el nivel, con Cocoon (multiplicación de mariposas))</t>
   </si>
 </sst>
 </file>
@@ -781,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH57"/>
+  <dimension ref="A1:AH69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2840,6 +2861,46 @@
         <v>5</v>
       </c>
     </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076FF7F8-5CD3-453B-9B5A-585B782A451D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FD1939-CB3C-4952-93DC-479FAD3CDF5A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="v0" sheetId="1" r:id="rId1"/>
+    <sheet name="v1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="40">
   <si>
     <t>GVGAI level</t>
   </si>
@@ -111,6 +112,36 @@
   <si>
     <t>(Hasta pasarse el nivel, con Cocoon (multiplicación de mariposas))</t>
   </si>
+  <si>
+    <t>Any planner</t>
+  </si>
+  <si>
+    <t>Levels fully planned</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Solved within the replanning arquitecture</t>
+  </si>
+  <si>
+    <t>simpBould</t>
+  </si>
+  <si>
+    <t>chips</t>
+  </si>
+  <si>
+    <t>boulder</t>
+  </si>
+  <si>
+    <t>(times planner called)</t>
+  </si>
+  <si>
+    <t>-1 = Timeout</t>
+  </si>
+  <si>
+    <t>Agent victories only</t>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +211,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -443,6 +480,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,6 +541,85 @@
         <a:xfrm>
           <a:off x="9590942" y="139212"/>
           <a:ext cx="1853712" cy="827942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Timeout:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 15 min</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>21982</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>293078</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{309B0E4F-A219-4DBB-846C-3419452911B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8044963" y="2322634"/>
+          <a:ext cx="1172307" cy="315058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -804,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2905,4 +3035,2108 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236E5864-7DE8-4BC8-BF4A-4C02356587BF}">
+  <dimension ref="A1:Z68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="25" width="10.42578125" customWidth="1"/>
+    <col min="26" max="26" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="O1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="O2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="M3" s="4"/>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="48">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48">
+        <v>5</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48">
+        <v>1</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="M4" s="4"/>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48">
+        <v>1</v>
+      </c>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="M5" s="4"/>
+      <c r="O5" s="1">
+        <v>2</v>
+      </c>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="M6" s="4"/>
+      <c r="O6" s="1">
+        <v>3</v>
+      </c>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="X6" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="48"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="M7" s="4"/>
+      <c r="O7" s="1">
+        <v>4</v>
+      </c>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48">
+        <v>3</v>
+      </c>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48">
+        <v>1</v>
+      </c>
+      <c r="X7" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="48"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="M8" s="4"/>
+      <c r="O8" s="1">
+        <v>5</v>
+      </c>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="M9" s="4"/>
+      <c r="O9" s="1">
+        <v>6</v>
+      </c>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="M10" s="4"/>
+      <c r="O10" s="1">
+        <v>7</v>
+      </c>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="M11" s="4"/>
+      <c r="O11" s="1">
+        <v>8</v>
+      </c>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="M12" s="4"/>
+      <c r="O12" s="1">
+        <v>9</v>
+      </c>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48">
+        <v>5</v>
+      </c>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="O16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="O17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="X17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y17" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="49">
+        <v>8.94</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="M18" s="4"/>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="49">
+        <v>65</v>
+      </c>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="M19" s="4"/>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="M20" s="4"/>
+      <c r="O20" s="1">
+        <v>2</v>
+      </c>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="M21" s="4"/>
+      <c r="O21" s="1">
+        <v>3</v>
+      </c>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>4</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="M22" s="4"/>
+      <c r="O22" s="1">
+        <v>4</v>
+      </c>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>5</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="M23" s="4"/>
+      <c r="O23" s="1">
+        <v>5</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>6</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="M24" s="4"/>
+      <c r="O24" s="1">
+        <v>6</v>
+      </c>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>7</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="M25" s="4"/>
+      <c r="O25" s="1">
+        <v>7</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>8</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="M26" s="4"/>
+      <c r="O26" s="1">
+        <v>8</v>
+      </c>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
+        <v>9</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="M27" s="4"/>
+      <c r="O27" s="1">
+        <v>9</v>
+      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="33">
+        <f>AVERAGE(B18:B27)</f>
+        <v>8.94</v>
+      </c>
+      <c r="C28" s="34" t="e">
+        <f>AVERAGE(C18:C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="33" t="e">
+        <f>AVERAGE(D18:D27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="33" t="e">
+        <f>AVERAGE(E18:E27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="33" t="e">
+        <f>AVERAGE(F18:F27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="33" t="e">
+        <f>AVERAGE(G18:G27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="33" t="e">
+        <f>AVERAGE(H18:H27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="33" t="e">
+        <f>AVERAGE(I18:I27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="33" t="e">
+        <f>AVERAGE(J18:J27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="33" t="e">
+        <f>AVERAGE(K18:K27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="21">
+        <f>_xlfn.STDEV.P(B18:B27)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="21" t="e">
+        <f>_xlfn.STDEV.P(C18:C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="21" t="e">
+        <f>_xlfn.STDEV.P(D18:D27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="21" t="e">
+        <f>_xlfn.STDEV.P(E18:E27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="21" t="e">
+        <f>_xlfn.STDEV.P(F18:F27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="21" t="e">
+        <f>_xlfn.STDEV.P(G18:G27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="21" t="e">
+        <f>_xlfn.STDEV.P(H18:H27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="21" t="e">
+        <f>_xlfn.STDEV.P(I18:I27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="21" t="e">
+        <f>_xlfn.STDEV.P(J18:J27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="21" t="e">
+        <f>_xlfn.STDEV.P(K18:K27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="18">
+        <v>1</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0</v>
+      </c>
+      <c r="F30" s="19">
+        <v>0</v>
+      </c>
+      <c r="G30" s="19">
+        <v>0</v>
+      </c>
+      <c r="H30" s="19">
+        <v>0</v>
+      </c>
+      <c r="I30" s="19">
+        <v>0</v>
+      </c>
+      <c r="J30" s="20">
+        <v>0</v>
+      </c>
+      <c r="K30" s="32">
+        <v>0</v>
+      </c>
+      <c r="L30" s="32">
+        <f>SUM(B30:K30)</f>
+        <v>1</v>
+      </c>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="O34" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="P34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="O35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R35" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U35" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V35" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W35" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="X35" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y35" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="M36" s="4"/>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="46"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="M37" s="4"/>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="M38" s="4"/>
+      <c r="O38" s="1">
+        <v>2</v>
+      </c>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="49"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="B39" s="46"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="M39" s="4"/>
+      <c r="O39" s="1">
+        <v>3</v>
+      </c>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="49"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
+        <v>4</v>
+      </c>
+      <c r="B40" s="47"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="M40" s="4"/>
+      <c r="O40" s="1">
+        <v>4</v>
+      </c>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
+        <v>5</v>
+      </c>
+      <c r="B41" s="47"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="M41" s="4"/>
+      <c r="O41" s="1">
+        <v>5</v>
+      </c>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="49"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
+        <v>6</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="M42" s="4"/>
+      <c r="O42" s="1">
+        <v>6</v>
+      </c>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
+        <v>7</v>
+      </c>
+      <c r="B43" s="47"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="M43" s="4"/>
+      <c r="O43" s="1">
+        <v>7</v>
+      </c>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="49"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="24">
+        <v>8</v>
+      </c>
+      <c r="B44" s="47"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="M44" s="4"/>
+      <c r="O44" s="1">
+        <v>8</v>
+      </c>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="49"/>
+      <c r="U44" s="49"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+    </row>
+    <row r="45" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="24">
+        <v>9</v>
+      </c>
+      <c r="B45" s="47"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="M45" s="4"/>
+      <c r="O45" s="1">
+        <v>9</v>
+      </c>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="49"/>
+      <c r="V45" s="49"/>
+      <c r="W45" s="49"/>
+      <c r="X45" s="49"/>
+      <c r="Y45" s="49"/>
+    </row>
+    <row r="46" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="33" t="e">
+        <f>AVERAGE(B36:B45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C46" s="34" t="e">
+        <f>AVERAGE(C36:C45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D46" s="33" t="e">
+        <f>AVERAGE(D36:D45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46" s="33" t="e">
+        <f>AVERAGE(E36:E45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F46" s="33" t="e">
+        <f>AVERAGE(F36:F45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" s="33" t="e">
+        <f>AVERAGE(G36:G45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H46" s="33" t="e">
+        <f>AVERAGE(H36:H45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" s="33" t="e">
+        <f>AVERAGE(I36:I45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J46" s="33" t="e">
+        <f>AVERAGE(J36:J45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K46" s="33" t="e">
+        <f>AVERAGE(K36:K45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="21" t="e">
+        <f>_xlfn.STDEV.P(B36:B45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C47" s="21" t="e">
+        <f>_xlfn.STDEV.P(C36:C45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D47" s="21" t="e">
+        <f>_xlfn.STDEV.P(D36:D45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47" s="21" t="e">
+        <f>_xlfn.STDEV.P(E36:E45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F47" s="21" t="e">
+        <f>_xlfn.STDEV.P(F36:F45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" s="21" t="e">
+        <f>_xlfn.STDEV.P(G36:G45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H47" s="21" t="e">
+        <f>_xlfn.STDEV.P(H36:H45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I47" s="21" t="e">
+        <f>_xlfn.STDEV.P(I36:I45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J47" s="21" t="e">
+        <f>_xlfn.STDEV.P(J36:J45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K47" s="21" t="e">
+        <f>_xlfn.STDEV.P(K36:K45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="18">
+        <v>0</v>
+      </c>
+      <c r="C48" s="19">
+        <v>0</v>
+      </c>
+      <c r="D48" s="19">
+        <v>0</v>
+      </c>
+      <c r="E48" s="19">
+        <v>0</v>
+      </c>
+      <c r="F48" s="19">
+        <v>0</v>
+      </c>
+      <c r="G48" s="19">
+        <v>0</v>
+      </c>
+      <c r="H48" s="19">
+        <v>0</v>
+      </c>
+      <c r="I48" s="19">
+        <v>0</v>
+      </c>
+      <c r="J48" s="20">
+        <v>0</v>
+      </c>
+      <c r="K48" s="32">
+        <f>SUM(B48:J48)</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="32">
+        <f>SUM(B48:K48)</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="M52" s="4"/>
+      <c r="O52" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M53" s="4"/>
+      <c r="O53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P53" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R53" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="S53" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="T53" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U53" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W53" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="X53" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y53" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="M54" s="4"/>
+      <c r="O54" s="1">
+        <v>0</v>
+      </c>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="49"/>
+      <c r="R54" s="49"/>
+      <c r="S54" s="49"/>
+      <c r="T54" s="49"/>
+      <c r="U54" s="49"/>
+      <c r="V54" s="49"/>
+      <c r="W54" s="49"/>
+      <c r="X54" s="49"/>
+      <c r="Y54" s="49"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="50"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="M55" s="4"/>
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="49"/>
+      <c r="S55" s="49"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="49"/>
+      <c r="V55" s="49"/>
+      <c r="W55" s="49"/>
+      <c r="X55" s="49"/>
+      <c r="Y55" s="49"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="M56" s="4"/>
+      <c r="O56" s="1">
+        <v>2</v>
+      </c>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="49"/>
+      <c r="R56" s="49"/>
+      <c r="S56" s="49"/>
+      <c r="T56" s="49"/>
+      <c r="U56" s="49"/>
+      <c r="V56" s="49"/>
+      <c r="W56" s="49"/>
+      <c r="X56" s="49"/>
+      <c r="Y56" s="49"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>3</v>
+      </c>
+      <c r="B57" s="50"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="M57" s="4"/>
+      <c r="O57" s="1">
+        <v>3</v>
+      </c>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="49"/>
+      <c r="R57" s="49"/>
+      <c r="S57" s="49"/>
+      <c r="T57" s="49"/>
+      <c r="U57" s="49"/>
+      <c r="V57" s="49"/>
+      <c r="W57" s="49"/>
+      <c r="X57" s="49"/>
+      <c r="Y57" s="49"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="24">
+        <v>4</v>
+      </c>
+      <c r="B58" s="51"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="M58" s="4"/>
+      <c r="O58" s="1">
+        <v>4</v>
+      </c>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="49"/>
+      <c r="R58" s="49"/>
+      <c r="S58" s="49"/>
+      <c r="T58" s="49"/>
+      <c r="U58" s="49"/>
+      <c r="V58" s="52"/>
+      <c r="W58" s="52"/>
+      <c r="X58" s="52"/>
+      <c r="Y58" s="52"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="24">
+        <v>5</v>
+      </c>
+      <c r="B59" s="51"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="M59" s="4"/>
+      <c r="O59" s="1">
+        <v>5</v>
+      </c>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="49"/>
+      <c r="S59" s="49"/>
+      <c r="T59" s="49"/>
+      <c r="U59" s="49"/>
+      <c r="V59" s="52"/>
+      <c r="W59" s="52"/>
+      <c r="X59" s="52"/>
+      <c r="Y59" s="52"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="24">
+        <v>6</v>
+      </c>
+      <c r="B60" s="51"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="M60" s="4"/>
+      <c r="O60" s="1">
+        <v>6</v>
+      </c>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="49"/>
+      <c r="R60" s="49"/>
+      <c r="S60" s="49"/>
+      <c r="T60" s="49"/>
+      <c r="U60" s="49"/>
+      <c r="V60" s="52"/>
+      <c r="W60" s="52"/>
+      <c r="X60" s="52"/>
+      <c r="Y60" s="52"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="24">
+        <v>7</v>
+      </c>
+      <c r="B61" s="51"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="M61" s="4"/>
+      <c r="O61" s="1">
+        <v>7</v>
+      </c>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
+      <c r="S61" s="49"/>
+      <c r="T61" s="49"/>
+      <c r="U61" s="49"/>
+      <c r="V61" s="52"/>
+      <c r="W61" s="52"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="52"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="24">
+        <v>8</v>
+      </c>
+      <c r="B62" s="51"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="M62" s="4"/>
+      <c r="O62" s="1">
+        <v>8</v>
+      </c>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="52"/>
+      <c r="W62" s="52"/>
+      <c r="X62" s="52"/>
+      <c r="Y62" s="52"/>
+    </row>
+    <row r="63" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="24">
+        <v>9</v>
+      </c>
+      <c r="B63" s="51"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="M63" s="4"/>
+      <c r="O63" s="1">
+        <v>9</v>
+      </c>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="49"/>
+      <c r="T63" s="49"/>
+      <c r="U63" s="49"/>
+      <c r="V63" s="49"/>
+      <c r="W63" s="49"/>
+      <c r="X63" s="49"/>
+      <c r="Y63" s="49"/>
+    </row>
+    <row r="64" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="33" t="e">
+        <f>AVERAGE(B54:B63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C64" s="34" t="e">
+        <f>AVERAGE(C54:C63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D64" s="33" t="e">
+        <f>AVERAGE(D54:D63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E64" s="33" t="e">
+        <f>AVERAGE(E54:E63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F64" s="33" t="e">
+        <f>AVERAGE(F54:F63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G64" s="33" t="e">
+        <f>AVERAGE(G54:G63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H64" s="33" t="e">
+        <f>AVERAGE(H54:H63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I64" s="33" t="e">
+        <f>AVERAGE(I54:I63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J64" s="33" t="e">
+        <f>AVERAGE(J54:J63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K64" s="33" t="e">
+        <f>AVERAGE(K54:K63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="21" t="e">
+        <f>_xlfn.STDEV.P(B54:B63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C65" s="21" t="e">
+        <f>_xlfn.STDEV.P(C54:C63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D65" s="21" t="e">
+        <f>_xlfn.STDEV.P(D54:D63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E65" s="21" t="e">
+        <f>_xlfn.STDEV.P(E54:E63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F65" s="21" t="e">
+        <f>_xlfn.STDEV.P(F54:F63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G65" s="21" t="e">
+        <f>_xlfn.STDEV.P(G54:G63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H65" s="21" t="e">
+        <f>_xlfn.STDEV.P(H54:H63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I65" s="21" t="e">
+        <f>_xlfn.STDEV.P(I54:I63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J65" s="21" t="e">
+        <f>_xlfn.STDEV.P(J54:J63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K65" s="21" t="e">
+        <f>_xlfn.STDEV.P(K54:K63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="18">
+        <v>0</v>
+      </c>
+      <c r="C66" s="19">
+        <v>0</v>
+      </c>
+      <c r="D66" s="19">
+        <v>0</v>
+      </c>
+      <c r="E66" s="19">
+        <v>0</v>
+      </c>
+      <c r="F66" s="19">
+        <v>0</v>
+      </c>
+      <c r="G66" s="19">
+        <v>0</v>
+      </c>
+      <c r="H66" s="19">
+        <v>0</v>
+      </c>
+      <c r="I66" s="19">
+        <v>0</v>
+      </c>
+      <c r="J66" s="20">
+        <v>0</v>
+      </c>
+      <c r="K66" s="32">
+        <f>SUM(B66:J66)</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="32">
+        <f>SUM(B66:K66)</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FD1939-CB3C-4952-93DC-479FAD3CDF5A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFC6A3A-DBD3-4DAC-851E-5EABB3925A00}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +170,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +232,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -369,11 +387,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -484,16 +515,34 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,16 +643,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>21982</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>688732</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>36634</xdr:rowOff>
+      <xdr:rowOff>43961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>293078</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>161192</xdr:rowOff>
+      <xdr:rowOff>168519</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -618,8 +667,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8044963" y="2322634"/>
-          <a:ext cx="1172307" cy="315058"/>
+          <a:off x="7722578" y="2329961"/>
+          <a:ext cx="1194287" cy="315058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -934,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH69"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -3041,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236E5864-7DE8-4BC8-BF4A-4C02356587BF}">
   <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3085,7 +3134,7 @@
       <c r="V1" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="53" t="s">
+      <c r="X1" s="51" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3162,36 +3211,36 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="J3" s="56"/>
       <c r="K3" s="48"/>
       <c r="M3" s="4"/>
       <c r="O3" s="1">
         <v>0</v>
       </c>
-      <c r="P3" s="48">
+      <c r="P3" s="52">
         <v>1</v>
       </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48">
+      <c r="Q3" s="49"/>
+      <c r="R3" s="52">
         <v>5</v>
       </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48">
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="52">
         <v>1</v>
       </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="3">
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3199,34 +3248,34 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="48"/>
       <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="48"/>
       <c r="M4" s="4"/>
       <c r="O4" s="1">
         <v>1</v>
       </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="3">
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="9">
         <v>-1</v>
       </c>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48">
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="52">
         <v>1</v>
       </c>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="3">
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -3234,249 +3283,249 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="48"/>
       <c r="M5" s="4"/>
       <c r="O5" s="1">
         <v>2</v>
       </c>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="3">
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="9">
         <v>-1</v>
       </c>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="48"/>
       <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
+      <c r="J6" s="56"/>
       <c r="K6" s="48"/>
       <c r="M6" s="4"/>
       <c r="O6" s="1">
         <v>3</v>
       </c>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="3">
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="9">
         <v>-1</v>
       </c>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="3">
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="9">
         <v>-1</v>
       </c>
-      <c r="X6" s="48">
+      <c r="X6" s="52">
         <v>1</v>
       </c>
-      <c r="Y6" s="48"/>
+      <c r="Y6" s="49"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="48"/>
       <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="48"/>
       <c r="M7" s="4"/>
       <c r="O7" s="1">
         <v>4</v>
       </c>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48">
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="52">
         <v>3</v>
       </c>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48">
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="52">
         <v>1</v>
       </c>
-      <c r="X7" s="48">
+      <c r="X7" s="52">
         <v>1</v>
       </c>
-      <c r="Y7" s="48"/>
+      <c r="Y7" s="49"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="48"/>
       <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
+      <c r="J8" s="56"/>
       <c r="K8" s="48"/>
       <c r="M8" s="4"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
+      <c r="J9" s="56"/>
       <c r="K9" s="48"/>
       <c r="M9" s="4"/>
       <c r="O9" s="1">
         <v>6</v>
       </c>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="48"/>
       <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
+      <c r="J10" s="56"/>
       <c r="K10" s="48"/>
       <c r="M10" s="4"/>
       <c r="O10" s="1">
         <v>7</v>
       </c>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="48"/>
       <c r="M11" s="4"/>
       <c r="O11" s="1">
         <v>8</v>
       </c>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="48"/>
       <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="48"/>
       <c r="M12" s="4"/>
       <c r="O12" s="1">
         <v>9</v>
       </c>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48">
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="52">
         <v>5</v>
       </c>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M13" s="4"/>
@@ -3589,7 +3638,7 @@
       <c r="W17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="X17" s="16" t="s">
+      <c r="X17" s="59" t="s">
         <v>8</v>
       </c>
       <c r="Y17" s="16" t="s">
@@ -3600,33 +3649,41 @@
       <c r="A18" s="1">
         <v>0</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="52">
         <v>8.94</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="54">
+        <v>505.53</v>
+      </c>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
+      <c r="G18" s="56">
+        <v>295.70999999999998</v>
+      </c>
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="49"/>
       <c r="M18" s="4"/>
       <c r="O18" s="1">
         <v>0</v>
       </c>
-      <c r="P18" s="49">
+      <c r="P18" s="54">
         <v>65</v>
       </c>
       <c r="Q18" s="9"/>
-      <c r="R18" s="49"/>
+      <c r="R18" s="54">
+        <v>163</v>
+      </c>
       <c r="S18" s="49"/>
       <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
+      <c r="U18" s="57">
+        <v>187</v>
+      </c>
       <c r="V18" s="49"/>
       <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
+      <c r="X18" s="13"/>
       <c r="Y18" s="49"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -3635,13 +3692,15 @@
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="49"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
+      <c r="G19" s="56">
+        <v>335.76</v>
+      </c>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="49"/>
       <c r="M19" s="4"/>
       <c r="O19" s="1">
@@ -3649,13 +3708,15 @@
       </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
-      <c r="R19" s="49"/>
+      <c r="R19" s="9"/>
       <c r="S19" s="49"/>
       <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
+      <c r="U19" s="57">
+        <v>262</v>
+      </c>
       <c r="V19" s="49"/>
       <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
+      <c r="X19" s="13"/>
       <c r="Y19" s="49"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -3664,13 +3725,17 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="54">
+        <v>258.99</v>
+      </c>
       <c r="E20" s="49"/>
       <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
+      <c r="G20" s="56">
+        <v>885.99</v>
+      </c>
       <c r="H20" s="49"/>
       <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="49"/>
       <c r="M20" s="4"/>
       <c r="O20" s="1">
@@ -3678,13 +3743,17 @@
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
-      <c r="R20" s="49"/>
+      <c r="R20" s="54">
+        <v>136</v>
+      </c>
       <c r="S20" s="49"/>
       <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
+      <c r="U20" s="57">
+        <v>364</v>
+      </c>
       <c r="V20" s="49"/>
       <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
+      <c r="X20" s="13"/>
       <c r="Y20" s="49"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -3693,13 +3762,15 @@
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="49"/>
       <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="49"/>
       <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="J21" s="56">
+        <v>377.76</v>
+      </c>
       <c r="K21" s="49"/>
       <c r="M21" s="4"/>
       <c r="O21" s="1">
@@ -3707,13 +3778,15 @@
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
-      <c r="R21" s="49"/>
+      <c r="R21" s="55"/>
       <c r="S21" s="49"/>
       <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
+      <c r="U21" s="13"/>
       <c r="V21" s="49"/>
       <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
+      <c r="X21" s="57">
+        <v>153</v>
+      </c>
       <c r="Y21" s="49"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -3722,28 +3795,36 @@
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
+      <c r="D22" s="54">
+        <v>158.88</v>
+      </c>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="56">
+        <v>555.86</v>
+      </c>
+      <c r="K22" s="50"/>
       <c r="M22" s="4"/>
       <c r="O22" s="1">
         <v>4</v>
       </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
-      <c r="R22" s="49"/>
+      <c r="R22" s="54">
+        <v>98</v>
+      </c>
       <c r="S22" s="49"/>
       <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="57">
+        <v>133</v>
+      </c>
+      <c r="Y22" s="50"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
@@ -3751,28 +3832,36 @@
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
+      <c r="D23" s="54">
+        <v>385.23</v>
+      </c>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="56">
+        <v>507.3</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="50"/>
       <c r="M23" s="4"/>
       <c r="O23" s="1">
         <v>5</v>
       </c>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
-      <c r="R23" s="49"/>
+      <c r="R23" s="54">
+        <v>142</v>
+      </c>
       <c r="S23" s="49"/>
       <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
+      <c r="U23" s="57">
+        <v>241</v>
+      </c>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="50"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
@@ -3780,28 +3869,40 @@
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
+      <c r="D24" s="54">
+        <v>266.64</v>
+      </c>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="56">
+        <v>215.17</v>
+      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="56">
+        <v>124.26</v>
+      </c>
+      <c r="K24" s="50"/>
       <c r="M24" s="4"/>
       <c r="O24" s="1">
         <v>6</v>
       </c>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="49"/>
+      <c r="R24" s="54">
+        <v>93</v>
+      </c>
       <c r="S24" s="49"/>
       <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
+      <c r="U24" s="57">
+        <v>154</v>
+      </c>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="57">
+        <v>118</v>
+      </c>
+      <c r="Y24" s="50"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
@@ -3809,28 +3910,40 @@
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
+      <c r="D25" s="54">
+        <v>205.66</v>
+      </c>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="56">
+        <v>366.21</v>
+      </c>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="56">
+        <v>710.67</v>
+      </c>
+      <c r="K25" s="50"/>
       <c r="M25" s="4"/>
       <c r="O25" s="1">
         <v>7</v>
       </c>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
-      <c r="R25" s="49"/>
+      <c r="R25" s="54">
+        <v>111</v>
+      </c>
       <c r="S25" s="49"/>
       <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
+      <c r="U25" s="57">
+        <v>199</v>
+      </c>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="57">
+        <v>148</v>
+      </c>
+      <c r="Y25" s="50"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
@@ -3838,28 +3951,40 @@
       </c>
       <c r="B26" s="47"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
+      <c r="D26" s="54">
+        <v>63.19</v>
+      </c>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="56">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="56">
+        <v>829.02</v>
+      </c>
+      <c r="K26" s="50"/>
       <c r="M26" s="4"/>
       <c r="O26" s="1">
         <v>8</v>
       </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
-      <c r="R26" s="49"/>
+      <c r="R26" s="54">
+        <v>106</v>
+      </c>
       <c r="S26" s="49"/>
       <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
+      <c r="U26" s="57">
+        <v>78</v>
+      </c>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="57">
+        <v>258</v>
+      </c>
+      <c r="Y26" s="50"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
@@ -3867,27 +3992,39 @@
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
+      <c r="D27" s="54">
+        <v>252.04</v>
+      </c>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="56">
+        <v>347.65</v>
+      </c>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="56">
+        <v>850.38</v>
+      </c>
+      <c r="K27" s="50"/>
       <c r="M27" s="4"/>
       <c r="O27" s="1">
         <v>9</v>
       </c>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
-      <c r="R27" s="49"/>
+      <c r="R27" s="54">
+        <v>169</v>
+      </c>
       <c r="S27" s="49"/>
       <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
+      <c r="U27" s="57">
+        <v>187</v>
+      </c>
       <c r="V27" s="49"/>
       <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
+      <c r="X27" s="57">
+        <v>358</v>
+      </c>
       <c r="Y27" s="49"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3895,43 +4032,43 @@
         <v>18</v>
       </c>
       <c r="B28" s="33">
-        <f>AVERAGE(B18:B27)</f>
+        <f t="shared" ref="B28:K28" si="0">AVERAGE(B18:B27)</f>
         <v>8.94</v>
       </c>
       <c r="C28" s="34" t="e">
-        <f>AVERAGE(C18:C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D28" s="33" t="e">
-        <f>AVERAGE(D18:D27)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="53">
+        <f t="shared" si="0"/>
+        <v>262.02000000000004</v>
       </c>
       <c r="E28" s="33" t="e">
-        <f>AVERAGE(E18:E27)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="33" t="e">
-        <f>AVERAGE(F18:F27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="33" t="e">
-        <f>AVERAGE(G18:G27)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="33">
+        <f t="shared" si="0"/>
+        <v>369.76749999999998</v>
       </c>
       <c r="H28" s="33" t="e">
-        <f>AVERAGE(H18:H27)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="33" t="e">
-        <f>AVERAGE(I18:I27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="33" t="e">
-        <f>AVERAGE(J18:J27)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="33">
+        <f t="shared" si="0"/>
+        <v>574.65833333333342</v>
       </c>
       <c r="K28" s="33" t="e">
-        <f>AVERAGE(K18:K27)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="4"/>
@@ -3941,43 +4078,43 @@
         <v>20</v>
       </c>
       <c r="B29" s="21">
-        <f>_xlfn.STDEV.P(B18:B27)</f>
+        <f t="shared" ref="B29:K29" si="1">_xlfn.STDEV.P(B18:B27)</f>
         <v>0</v>
       </c>
       <c r="C29" s="21" t="e">
-        <f>_xlfn.STDEV.P(C18:C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="21" t="e">
-        <f>_xlfn.STDEV.P(D18:D27)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="21">
+        <f t="shared" si="1"/>
+        <v>126.46918004003969</v>
       </c>
       <c r="E29" s="21" t="e">
-        <f>_xlfn.STDEV.P(E18:E27)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="21" t="e">
-        <f>_xlfn.STDEV.P(F18:F27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="21" t="e">
-        <f>_xlfn.STDEV.P(G18:G27)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="21">
+        <f t="shared" si="1"/>
+        <v>237.16398792554915</v>
       </c>
       <c r="H29" s="21" t="e">
-        <f>_xlfn.STDEV.P(H18:H27)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="21" t="e">
-        <f>_xlfn.STDEV.P(I18:I27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="21" t="e">
-        <f>_xlfn.STDEV.P(J18:J27)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="21">
+        <f t="shared" si="1"/>
+        <v>258.58669019735362</v>
       </c>
       <c r="K29" s="21" t="e">
-        <f>_xlfn.STDEV.P(K18:K27)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="4"/>
@@ -3993,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E30" s="19">
         <v>0</v>
@@ -4002,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H30" s="19">
         <v>0</v>
@@ -4011,14 +4148,14 @@
         <v>0</v>
       </c>
       <c r="J30" s="20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K30" s="32">
         <v>0</v>
       </c>
       <c r="L30" s="32">
         <f>SUM(B30:K30)</f>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="M30" s="4"/>
     </row>
@@ -4146,13 +4283,19 @@
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="49"/>
+      <c r="D36" s="56">
+        <v>4.5584199999999999</v>
+      </c>
       <c r="E36" s="49"/>
       <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
+      <c r="G36" s="56">
+        <v>0.12731100000000001</v>
+      </c>
       <c r="H36" s="49"/>
       <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
+      <c r="J36" s="56">
+        <v>0.11088199999999999</v>
+      </c>
       <c r="K36" s="49"/>
       <c r="M36" s="4"/>
       <c r="O36" s="1">
@@ -4160,13 +4303,19 @@
       </c>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
-      <c r="R36" s="49"/>
+      <c r="R36" s="54">
+        <v>142</v>
+      </c>
       <c r="S36" s="49"/>
       <c r="T36" s="49"/>
-      <c r="U36" s="49"/>
+      <c r="U36" s="57">
+        <v>187</v>
+      </c>
       <c r="V36" s="49"/>
       <c r="W36" s="49"/>
-      <c r="X36" s="49"/>
+      <c r="X36" s="57">
+        <v>153</v>
+      </c>
       <c r="Y36" s="49"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -4175,13 +4324,19 @@
       </c>
       <c r="B37" s="46"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="49"/>
+      <c r="D37" s="56">
+        <v>369.37900000000002</v>
+      </c>
       <c r="E37" s="49"/>
       <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
+      <c r="G37" s="56">
+        <v>0.137241</v>
+      </c>
       <c r="H37" s="49"/>
       <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
+      <c r="J37" s="56">
+        <v>0.114484</v>
+      </c>
       <c r="K37" s="49"/>
       <c r="M37" s="4"/>
       <c r="O37" s="1">
@@ -4189,13 +4344,19 @@
       </c>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
-      <c r="R37" s="49"/>
+      <c r="R37" s="54">
+        <v>175</v>
+      </c>
       <c r="S37" s="49"/>
       <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
+      <c r="U37" s="57">
+        <v>238</v>
+      </c>
       <c r="V37" s="49"/>
       <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
+      <c r="X37" s="57">
+        <v>208</v>
+      </c>
       <c r="Y37" s="49"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -4204,13 +4365,19 @@
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="49"/>
+      <c r="D38" s="56">
+        <v>244.98400000000001</v>
+      </c>
       <c r="E38" s="49"/>
       <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
+      <c r="G38" s="56">
+        <v>0.145514</v>
+      </c>
       <c r="H38" s="49"/>
       <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
+      <c r="J38" s="56">
+        <v>0.115649</v>
+      </c>
       <c r="K38" s="49"/>
       <c r="M38" s="4"/>
       <c r="O38" s="1">
@@ -4218,13 +4385,19 @@
       </c>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
-      <c r="R38" s="49"/>
+      <c r="R38" s="54">
+        <v>130</v>
+      </c>
       <c r="S38" s="49"/>
       <c r="T38" s="49"/>
-      <c r="U38" s="49"/>
+      <c r="U38" s="57">
+        <v>256</v>
+      </c>
       <c r="V38" s="49"/>
       <c r="W38" s="49"/>
-      <c r="X38" s="49"/>
+      <c r="X38" s="57">
+        <v>208</v>
+      </c>
       <c r="Y38" s="49"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -4233,13 +4406,19 @@
       </c>
       <c r="B39" s="46"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="49"/>
+      <c r="D39" s="56">
+        <v>88.552000000000007</v>
+      </c>
       <c r="E39" s="49"/>
       <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
+      <c r="G39" s="56">
+        <v>0.13156599999999999</v>
+      </c>
       <c r="H39" s="49"/>
       <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
+      <c r="J39" s="56">
+        <v>8.8751200000000002E-2</v>
+      </c>
       <c r="K39" s="49"/>
       <c r="M39" s="4"/>
       <c r="O39" s="1">
@@ -4247,13 +4426,19 @@
       </c>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
-      <c r="R39" s="49"/>
+      <c r="R39" s="54">
+        <v>134</v>
+      </c>
       <c r="S39" s="49"/>
       <c r="T39" s="49"/>
-      <c r="U39" s="49"/>
+      <c r="U39" s="57">
+        <v>208</v>
+      </c>
       <c r="V39" s="49"/>
       <c r="W39" s="49"/>
-      <c r="X39" s="49"/>
+      <c r="X39" s="57">
+        <v>148</v>
+      </c>
       <c r="Y39" s="49"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -4262,28 +4447,40 @@
       </c>
       <c r="B40" s="47"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
+      <c r="D40" s="56">
+        <v>3.7271200000000002</v>
+      </c>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="56">
+        <v>0.16553699999999999</v>
+      </c>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="56">
+        <v>8.2298700000000002E-2</v>
+      </c>
+      <c r="K40" s="50"/>
       <c r="M40" s="4"/>
       <c r="O40" s="1">
         <v>4</v>
       </c>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
-      <c r="R40" s="49"/>
+      <c r="R40" s="54">
+        <v>89</v>
+      </c>
       <c r="S40" s="49"/>
       <c r="T40" s="49"/>
-      <c r="U40" s="49"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
+      <c r="U40" s="57">
+        <v>379</v>
+      </c>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="57">
+        <v>118</v>
+      </c>
+      <c r="Y40" s="50"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
@@ -4291,28 +4488,40 @@
       </c>
       <c r="B41" s="47"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
+      <c r="D41" s="56">
+        <v>0.64394700000000005</v>
+      </c>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="56">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="56">
+        <v>0.11194</v>
+      </c>
+      <c r="K41" s="50"/>
       <c r="M41" s="4"/>
       <c r="O41" s="1">
         <v>5</v>
       </c>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
-      <c r="R41" s="49"/>
+      <c r="R41" s="54">
+        <v>103</v>
+      </c>
       <c r="S41" s="49"/>
       <c r="T41" s="49"/>
-      <c r="U41" s="49"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
+      <c r="U41" s="57">
+        <v>199</v>
+      </c>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="57">
+        <v>148</v>
+      </c>
+      <c r="Y41" s="50"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
@@ -4320,28 +4529,40 @@
       </c>
       <c r="B42" s="47"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
+      <c r="D42" s="56">
+        <v>0.41857299999999997</v>
+      </c>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="56">
+        <v>0.108722</v>
+      </c>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="56">
+        <v>9.5584500000000003E-2</v>
+      </c>
+      <c r="K42" s="50"/>
       <c r="M42" s="4"/>
       <c r="O42" s="1">
         <v>6</v>
       </c>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
-      <c r="R42" s="49"/>
+      <c r="R42" s="54">
+        <v>93</v>
+      </c>
       <c r="S42" s="49"/>
       <c r="T42" s="49"/>
-      <c r="U42" s="49"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52"/>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="52"/>
+      <c r="U42" s="57">
+        <v>154</v>
+      </c>
+      <c r="V42" s="50"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="57">
+        <v>98</v>
+      </c>
+      <c r="Y42" s="50"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
@@ -4349,28 +4570,40 @@
       </c>
       <c r="B43" s="47"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
+      <c r="D43" s="56">
+        <v>0.33063700000000001</v>
+      </c>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="56">
+        <v>0.106403</v>
+      </c>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="56">
+        <v>0.10772</v>
+      </c>
+      <c r="K43" s="50"/>
       <c r="M43" s="4"/>
       <c r="O43" s="1">
         <v>7</v>
       </c>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
-      <c r="R43" s="49"/>
+      <c r="R43" s="54">
+        <v>99</v>
+      </c>
       <c r="S43" s="49"/>
       <c r="T43" s="49"/>
-      <c r="U43" s="49"/>
-      <c r="V43" s="52"/>
-      <c r="W43" s="52"/>
-      <c r="X43" s="52"/>
-      <c r="Y43" s="52"/>
+      <c r="U43" s="57">
+        <v>199</v>
+      </c>
+      <c r="V43" s="50"/>
+      <c r="W43" s="50"/>
+      <c r="X43" s="57">
+        <v>138</v>
+      </c>
+      <c r="Y43" s="50"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
@@ -4378,28 +4611,40 @@
       </c>
       <c r="B44" s="47"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
+      <c r="D44" s="56">
+        <v>0.33985700000000002</v>
+      </c>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="56">
+        <v>7.9479599999999997E-2</v>
+      </c>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="56">
+        <v>0.11412799999999999</v>
+      </c>
+      <c r="K44" s="50"/>
       <c r="M44" s="4"/>
       <c r="O44" s="1">
         <v>8</v>
       </c>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
-      <c r="R44" s="49"/>
+      <c r="R44" s="54">
+        <v>106</v>
+      </c>
       <c r="S44" s="49"/>
       <c r="T44" s="49"/>
-      <c r="U44" s="49"/>
-      <c r="V44" s="52"/>
-      <c r="W44" s="52"/>
-      <c r="X44" s="52"/>
-      <c r="Y44" s="52"/>
+      <c r="U44" s="57">
+        <v>72</v>
+      </c>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="57">
+        <v>258</v>
+      </c>
+      <c r="Y44" s="50"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
@@ -4407,27 +4652,39 @@
       </c>
       <c r="B45" s="47"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
+      <c r="D45" s="56">
+        <v>0.54566099999999995</v>
+      </c>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="56">
+        <v>7.1677299999999999E-2</v>
+      </c>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="56">
+        <v>0.15307000000000001</v>
+      </c>
+      <c r="K45" s="50"/>
       <c r="M45" s="4"/>
       <c r="O45" s="1">
         <v>9</v>
       </c>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
-      <c r="R45" s="49"/>
+      <c r="R45" s="54">
+        <v>136</v>
+      </c>
       <c r="S45" s="49"/>
       <c r="T45" s="49"/>
-      <c r="U45" s="49"/>
+      <c r="U45" s="57">
+        <v>187</v>
+      </c>
       <c r="V45" s="49"/>
       <c r="W45" s="49"/>
-      <c r="X45" s="49"/>
+      <c r="X45" s="57">
+        <v>358</v>
+      </c>
       <c r="Y45" s="49"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4435,43 +4692,43 @@
         <v>18</v>
       </c>
       <c r="B46" s="33" t="e">
-        <f>AVERAGE(B36:B45)</f>
+        <f t="shared" ref="B46:K46" si="2">AVERAGE(B36:B45)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C46" s="34" t="e">
-        <f>AVERAGE(C36:C45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D46" s="33" t="e">
-        <f>AVERAGE(D36:D45)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D46" s="33">
+        <f t="shared" si="2"/>
+        <v>71.347921500000012</v>
       </c>
       <c r="E46" s="33" t="e">
-        <f>AVERAGE(E36:E45)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F46" s="33" t="e">
-        <f>AVERAGE(F36:F45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G46" s="33" t="e">
-        <f>AVERAGE(G36:G45)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" s="33">
+        <f t="shared" si="2"/>
+        <v>0.11856508999999997</v>
       </c>
       <c r="H46" s="33" t="e">
-        <f>AVERAGE(H36:H45)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I46" s="33" t="e">
-        <f>AVERAGE(I36:I45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" s="33" t="e">
-        <f>AVERAGE(J36:J45)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J46" s="33">
+        <f t="shared" si="2"/>
+        <v>0.10945073999999999</v>
       </c>
       <c r="K46" s="33" t="e">
-        <f>AVERAGE(K36:K45)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M46" s="4"/>
@@ -4481,43 +4738,43 @@
         <v>20</v>
       </c>
       <c r="B47" s="21" t="e">
-        <f>_xlfn.STDEV.P(B36:B45)</f>
+        <f t="shared" ref="B47:K47" si="3">_xlfn.STDEV.P(B36:B45)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C47" s="21" t="e">
-        <f>_xlfn.STDEV.P(C36:C45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D47" s="21" t="e">
-        <f>_xlfn.STDEV.P(D36:D45)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D47" s="21">
+        <f t="shared" si="3"/>
+        <v>123.86685861614376</v>
       </c>
       <c r="E47" s="21" t="e">
-        <f>_xlfn.STDEV.P(E36:E45)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F47" s="21" t="e">
-        <f>_xlfn.STDEV.P(F36:F45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G47" s="21" t="e">
-        <f>_xlfn.STDEV.P(G36:G45)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" s="21">
+        <f t="shared" si="3"/>
+        <v>2.7456084754329136E-2</v>
       </c>
       <c r="H47" s="21" t="e">
-        <f>_xlfn.STDEV.P(H36:H45)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I47" s="21" t="e">
-        <f>_xlfn.STDEV.P(I36:I45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="21" t="e">
-        <f>_xlfn.STDEV.P(J36:J45)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J47" s="21">
+        <f t="shared" si="3"/>
+        <v>1.8323443898197844E-2</v>
       </c>
       <c r="K47" s="21" t="e">
-        <f>_xlfn.STDEV.P(K36:K45)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M47" s="4"/>
@@ -4533,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E48" s="19">
         <v>0</v>
@@ -4542,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H48" s="19">
         <v>0</v>
@@ -4551,15 +4808,14 @@
         <v>0</v>
       </c>
       <c r="J48" s="20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K48" s="32">
-        <f>SUM(B48:J48)</f>
         <v>0</v>
       </c>
       <c r="L48" s="32">
         <f>SUM(B48:K48)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M48" s="4"/>
     </row>
@@ -4685,22 +4941,38 @@
       <c r="A54" s="1">
         <v>0</v>
       </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
+      <c r="B54" s="56">
+        <v>1.12389E-2</v>
+      </c>
+      <c r="C54" s="56">
+        <v>42.491300000000003</v>
+      </c>
+      <c r="D54" s="56">
+        <v>6.0726300000000002</v>
+      </c>
+      <c r="E54" s="56">
+        <v>18.004999999999999</v>
+      </c>
       <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
+      <c r="G54" s="56">
+        <v>0.47940199999999999</v>
+      </c>
       <c r="H54" s="49"/>
       <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
+      <c r="J54" s="49">
+        <v>2.0734300000000001</v>
+      </c>
       <c r="K54" s="49"/>
       <c r="M54" s="4"/>
       <c r="O54" s="1">
         <v>0</v>
       </c>
-      <c r="P54" s="49"/>
-      <c r="Q54" s="49"/>
+      <c r="P54" s="57">
+        <v>21</v>
+      </c>
+      <c r="Q54" s="57">
+        <v>258</v>
+      </c>
       <c r="R54" s="49"/>
       <c r="S54" s="49"/>
       <c r="T54" s="49"/>
@@ -4714,12 +4986,22 @@
       <c r="A55" s="1">
         <v>1</v>
       </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
+      <c r="B55" s="56">
+        <v>6.6536600000000004</v>
+      </c>
+      <c r="C55" s="56">
+        <v>30.741700000000002</v>
+      </c>
+      <c r="D55" s="56">
+        <v>10.238099999999999</v>
+      </c>
+      <c r="E55" s="56">
+        <v>44.814300000000003</v>
+      </c>
       <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
+      <c r="G55" s="56">
+        <v>0.38312600000000002</v>
+      </c>
       <c r="H55" s="49"/>
       <c r="I55" s="49"/>
       <c r="J55" s="49"/>
@@ -4728,8 +5010,12 @@
       <c r="O55" s="1">
         <v>1</v>
       </c>
-      <c r="P55" s="49"/>
-      <c r="Q55" s="49"/>
+      <c r="P55" s="57">
+        <v>121</v>
+      </c>
+      <c r="Q55" s="57">
+        <v>208</v>
+      </c>
       <c r="R55" s="49"/>
       <c r="S55" s="49"/>
       <c r="T55" s="49"/>
@@ -4743,12 +5029,22 @@
       <c r="A56" s="1">
         <v>2</v>
       </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
+      <c r="B56" s="56">
+        <v>0.16361800000000001</v>
+      </c>
+      <c r="C56" s="56">
+        <v>25.808399999999999</v>
+      </c>
+      <c r="D56" s="56">
+        <v>8.8827600000000007E-2</v>
+      </c>
+      <c r="E56" s="56">
+        <v>19.5749</v>
+      </c>
       <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
+      <c r="G56" s="56">
+        <v>0.50300400000000001</v>
+      </c>
       <c r="H56" s="49"/>
       <c r="I56" s="49"/>
       <c r="J56" s="49"/>
@@ -4757,8 +5053,12 @@
       <c r="O56" s="1">
         <v>2</v>
       </c>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="49"/>
+      <c r="P56" s="57">
+        <v>42</v>
+      </c>
+      <c r="Q56" s="57">
+        <v>175</v>
+      </c>
       <c r="R56" s="49"/>
       <c r="S56" s="49"/>
       <c r="T56" s="49"/>
@@ -4772,12 +5072,22 @@
       <c r="A57" s="1">
         <v>3</v>
       </c>
-      <c r="B57" s="50"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
+      <c r="B57" s="56">
+        <v>17.5992</v>
+      </c>
+      <c r="C57" s="56">
+        <v>49.455800000000004</v>
+      </c>
+      <c r="D57" s="56">
+        <v>9.7938299999999998</v>
+      </c>
+      <c r="E57" s="56">
+        <v>18.940899999999999</v>
+      </c>
       <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
+      <c r="G57" s="56">
+        <v>0.54791000000000001</v>
+      </c>
       <c r="H57" s="49"/>
       <c r="I57" s="49"/>
       <c r="J57" s="49"/>
@@ -4786,8 +5096,12 @@
       <c r="O57" s="1">
         <v>3</v>
       </c>
-      <c r="P57" s="49"/>
-      <c r="Q57" s="49"/>
+      <c r="P57" s="57">
+        <v>82</v>
+      </c>
+      <c r="Q57" s="57">
+        <v>349</v>
+      </c>
       <c r="R57" s="49"/>
       <c r="S57" s="49"/>
       <c r="T57" s="49"/>
@@ -4801,167 +5115,251 @@
       <c r="A58" s="24">
         <v>4</v>
       </c>
-      <c r="B58" s="51"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
+      <c r="B58" s="56">
+        <v>29.069099999999999</v>
+      </c>
+      <c r="C58" s="56">
+        <v>2.6156700000000002</v>
+      </c>
+      <c r="D58" s="56">
+        <v>6.22377</v>
+      </c>
+      <c r="E58" s="56">
+        <v>13.1508</v>
+      </c>
+      <c r="F58" s="50"/>
+      <c r="G58" s="56">
+        <v>0.70573300000000005</v>
+      </c>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
       <c r="M58" s="4"/>
       <c r="O58" s="1">
         <v>4</v>
       </c>
-      <c r="P58" s="49"/>
-      <c r="Q58" s="49"/>
+      <c r="P58" s="57">
+        <v>137</v>
+      </c>
+      <c r="Q58" s="57">
+        <v>102</v>
+      </c>
       <c r="R58" s="49"/>
       <c r="S58" s="49"/>
       <c r="T58" s="49"/>
       <c r="U58" s="49"/>
-      <c r="V58" s="52"/>
-      <c r="W58" s="52"/>
-      <c r="X58" s="52"/>
-      <c r="Y58" s="52"/>
+      <c r="V58" s="50"/>
+      <c r="W58" s="50"/>
+      <c r="X58" s="50"/>
+      <c r="Y58" s="50"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>5</v>
       </c>
-      <c r="B59" s="51"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
+      <c r="B59" s="56">
+        <v>0.132461</v>
+      </c>
+      <c r="C59" s="56">
+        <v>15.929600000000001</v>
+      </c>
+      <c r="D59" s="56">
+        <v>4.43478E-2</v>
+      </c>
+      <c r="E59" s="56">
+        <v>35.987299999999998</v>
+      </c>
+      <c r="F59" s="50"/>
+      <c r="G59" s="56">
+        <v>0.43384499999999998</v>
+      </c>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
       <c r="M59" s="4"/>
       <c r="O59" s="1">
         <v>5</v>
       </c>
-      <c r="P59" s="49"/>
-      <c r="Q59" s="49"/>
+      <c r="P59" s="57">
+        <v>77</v>
+      </c>
+      <c r="Q59" s="57">
+        <v>163</v>
+      </c>
       <c r="R59" s="49"/>
       <c r="S59" s="49"/>
       <c r="T59" s="49"/>
       <c r="U59" s="49"/>
-      <c r="V59" s="52"/>
-      <c r="W59" s="52"/>
-      <c r="X59" s="52"/>
-      <c r="Y59" s="52"/>
+      <c r="V59" s="50"/>
+      <c r="W59" s="50"/>
+      <c r="X59" s="50"/>
+      <c r="Y59" s="50"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>6</v>
       </c>
-      <c r="B60" s="51"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
+      <c r="B60" s="56">
+        <v>40.249200000000002</v>
+      </c>
+      <c r="C60" s="56">
+        <v>23.0289</v>
+      </c>
+      <c r="D60" s="56">
+        <v>4.2488100000000001E-2</v>
+      </c>
+      <c r="E60" s="56">
+        <v>21.556999999999999</v>
+      </c>
+      <c r="F60" s="50"/>
+      <c r="G60" s="56">
+        <v>0.44375300000000001</v>
+      </c>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
       <c r="M60" s="4"/>
       <c r="O60" s="1">
         <v>6</v>
       </c>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="49"/>
+      <c r="P60" s="57">
+        <v>327</v>
+      </c>
+      <c r="Q60" s="57">
+        <v>203</v>
+      </c>
       <c r="R60" s="49"/>
       <c r="S60" s="49"/>
       <c r="T60" s="49"/>
       <c r="U60" s="49"/>
-      <c r="V60" s="52"/>
-      <c r="W60" s="52"/>
-      <c r="X60" s="52"/>
-      <c r="Y60" s="52"/>
+      <c r="V60" s="50"/>
+      <c r="W60" s="50"/>
+      <c r="X60" s="50"/>
+      <c r="Y60" s="50"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>7</v>
       </c>
-      <c r="B61" s="51"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
+      <c r="B61" s="56">
+        <v>512.66999999999996</v>
+      </c>
+      <c r="C61" s="56">
+        <v>11.9932</v>
+      </c>
+      <c r="D61" s="56">
+        <v>4.3576899999999998</v>
+      </c>
+      <c r="E61" s="56">
+        <v>24.514700000000001</v>
+      </c>
+      <c r="F61" s="50"/>
+      <c r="G61" s="56">
+        <v>0.37591000000000002</v>
+      </c>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
       <c r="M61" s="4"/>
       <c r="O61" s="1">
         <v>7</v>
       </c>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="49"/>
+      <c r="P61" s="57">
+        <v>336</v>
+      </c>
+      <c r="Q61" s="57">
+        <v>227</v>
+      </c>
       <c r="R61" s="49"/>
       <c r="S61" s="49"/>
       <c r="T61" s="49"/>
       <c r="U61" s="49"/>
-      <c r="V61" s="52"/>
-      <c r="W61" s="52"/>
-      <c r="X61" s="52"/>
-      <c r="Y61" s="52"/>
+      <c r="V61" s="50"/>
+      <c r="W61" s="50"/>
+      <c r="X61" s="50"/>
+      <c r="Y61" s="50"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>8</v>
       </c>
-      <c r="B62" s="51"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
+      <c r="B62" s="56">
+        <v>20.802</v>
+      </c>
+      <c r="C62" s="56">
+        <v>12.725</v>
+      </c>
+      <c r="D62" s="56">
+        <v>3.2014999999999998</v>
+      </c>
+      <c r="E62" s="56">
+        <v>11.315799999999999</v>
+      </c>
+      <c r="F62" s="50"/>
+      <c r="G62" s="56">
+        <v>0.30377300000000002</v>
+      </c>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
       <c r="M62" s="4"/>
       <c r="O62" s="1">
         <v>8</v>
       </c>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="49"/>
+      <c r="P62" s="57">
+        <v>227</v>
+      </c>
+      <c r="Q62" s="57">
+        <v>254</v>
+      </c>
       <c r="R62" s="49"/>
       <c r="S62" s="49"/>
       <c r="T62" s="49"/>
       <c r="U62" s="49"/>
-      <c r="V62" s="52"/>
-      <c r="W62" s="52"/>
-      <c r="X62" s="52"/>
-      <c r="Y62" s="52"/>
+      <c r="V62" s="50"/>
+      <c r="W62" s="50"/>
+      <c r="X62" s="50"/>
+      <c r="Y62" s="50"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>9</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
+      <c r="B63" s="56">
+        <v>565.20100000000002</v>
+      </c>
+      <c r="C63" s="56">
+        <v>14.2669</v>
+      </c>
+      <c r="D63" s="56">
+        <v>4.6919500000000003</v>
+      </c>
+      <c r="E63" s="56">
+        <v>12.3293</v>
+      </c>
+      <c r="F63" s="50"/>
+      <c r="G63" s="56">
+        <v>0.38303500000000001</v>
+      </c>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
       <c r="M63" s="4"/>
       <c r="O63" s="1">
         <v>9</v>
       </c>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="49"/>
+      <c r="P63" s="57">
+        <v>313</v>
+      </c>
+      <c r="Q63" s="57">
+        <v>175</v>
+      </c>
       <c r="R63" s="49"/>
       <c r="S63" s="49"/>
       <c r="T63" s="49"/>
@@ -4975,44 +5373,44 @@
       <c r="A64" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="33" t="e">
-        <f>AVERAGE(B54:B63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C64" s="34" t="e">
-        <f>AVERAGE(C54:C63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D64" s="33" t="e">
-        <f>AVERAGE(D54:D63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E64" s="33" t="e">
-        <f>AVERAGE(E54:E63)</f>
-        <v>#DIV/0!</v>
+      <c r="B64" s="33">
+        <f t="shared" ref="B64:K64" si="4">AVERAGE(B54:B63)</f>
+        <v>119.25514779</v>
+      </c>
+      <c r="C64" s="34">
+        <f t="shared" si="4"/>
+        <v>22.905646999999998</v>
+      </c>
+      <c r="D64" s="33">
+        <f t="shared" si="4"/>
+        <v>4.4755133499999991</v>
+      </c>
+      <c r="E64" s="33">
+        <f t="shared" si="4"/>
+        <v>22.018999999999998</v>
       </c>
       <c r="F64" s="33" t="e">
-        <f>AVERAGE(F54:F63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G64" s="33" t="e">
-        <f>AVERAGE(G54:G63)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G64" s="33">
+        <f t="shared" si="4"/>
+        <v>0.45594909999999994</v>
       </c>
       <c r="H64" s="33" t="e">
-        <f>AVERAGE(H54:H63)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I64" s="33" t="e">
-        <f>AVERAGE(I54:I63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J64" s="33" t="e">
-        <f>AVERAGE(J54:J63)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J64" s="33">
+        <f t="shared" si="4"/>
+        <v>2.0734300000000001</v>
       </c>
       <c r="K64" s="33" t="e">
-        <f>AVERAGE(K54:K63)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M64" s="4"/>
@@ -5021,44 +5419,44 @@
       <c r="A65" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="21" t="e">
-        <f>_xlfn.STDEV.P(B54:B63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C65" s="21" t="e">
-        <f>_xlfn.STDEV.P(C54:C63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D65" s="21" t="e">
-        <f>_xlfn.STDEV.P(D54:D63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E65" s="21" t="e">
-        <f>_xlfn.STDEV.P(E54:E63)</f>
-        <v>#DIV/0!</v>
+      <c r="B65" s="21">
+        <f t="shared" ref="B65:K65" si="5">_xlfn.STDEV.P(B54:B63)</f>
+        <v>210.55084371985251</v>
+      </c>
+      <c r="C65" s="21">
+        <f t="shared" si="5"/>
+        <v>13.842170139334407</v>
+      </c>
+      <c r="D65" s="21">
+        <f t="shared" si="5"/>
+        <v>3.5680929058188222</v>
+      </c>
+      <c r="E65" s="21">
+        <f t="shared" si="5"/>
+        <v>10.197231670703582</v>
       </c>
       <c r="F65" s="21" t="e">
-        <f>_xlfn.STDEV.P(F54:F63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G65" s="21" t="e">
-        <f>_xlfn.STDEV.P(G54:G63)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G65" s="21">
+        <f t="shared" si="5"/>
+        <v>0.10697375139018937</v>
       </c>
       <c r="H65" s="21" t="e">
-        <f>_xlfn.STDEV.P(H54:H63)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I65" s="21" t="e">
-        <f>_xlfn.STDEV.P(I54:I63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J65" s="21" t="e">
-        <f>_xlfn.STDEV.P(J54:J63)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J65" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="K65" s="21" t="e">
-        <f>_xlfn.STDEV.P(K54:K63)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M65" s="4"/>
@@ -5068,22 +5466,22 @@
         <v>13</v>
       </c>
       <c r="B66" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C66" s="19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D66" s="19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E66" s="19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F66" s="19">
         <v>0</v>
       </c>
       <c r="G66" s="19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H66" s="19">
         <v>0</v>
@@ -5095,12 +5493,11 @@
         <v>0</v>
       </c>
       <c r="K66" s="32">
-        <f>SUM(B66:J66)</f>
         <v>0</v>
       </c>
       <c r="L66" s="32">
         <f>SUM(B66:K66)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M66" s="4"/>
     </row>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFC6A3A-DBD3-4DAC-851E-5EABB3925A00}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4833B38-E151-4647-AABB-AB5E567C7096}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3090,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236E5864-7DE8-4BC8-BF4A-4C02356587BF}">
   <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4958,7 +4958,9 @@
         <v>0.47940199999999999</v>
       </c>
       <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
+      <c r="I54" s="49">
+        <v>275.714</v>
+      </c>
       <c r="J54" s="49">
         <v>2.0734300000000001</v>
       </c>
@@ -4976,10 +4978,16 @@
       <c r="R54" s="49"/>
       <c r="S54" s="49"/>
       <c r="T54" s="49"/>
-      <c r="U54" s="49"/>
+      <c r="U54" s="49">
+        <v>187</v>
+      </c>
       <c r="V54" s="49"/>
-      <c r="W54" s="49"/>
-      <c r="X54" s="49"/>
+      <c r="W54" s="49">
+        <v>353</v>
+      </c>
+      <c r="X54" s="49">
+        <v>243</v>
+      </c>
       <c r="Y54" s="49"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
@@ -5003,8 +5011,12 @@
         <v>0.38312600000000002</v>
       </c>
       <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
+      <c r="I55" s="49">
+        <v>69.224100000000007</v>
+      </c>
+      <c r="J55" s="49">
+        <v>2.52434</v>
+      </c>
       <c r="K55" s="49"/>
       <c r="M55" s="4"/>
       <c r="O55" s="1">
@@ -5019,10 +5031,16 @@
       <c r="R55" s="49"/>
       <c r="S55" s="49"/>
       <c r="T55" s="49"/>
-      <c r="U55" s="49"/>
+      <c r="U55" s="49">
+        <v>238</v>
+      </c>
       <c r="V55" s="49"/>
-      <c r="W55" s="49"/>
-      <c r="X55" s="49"/>
+      <c r="W55" s="49">
+        <v>208</v>
+      </c>
+      <c r="X55" s="49">
+        <v>223</v>
+      </c>
       <c r="Y55" s="49"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
@@ -5046,8 +5064,12 @@
         <v>0.50300400000000001</v>
       </c>
       <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
+      <c r="I56" s="49">
+        <v>14.936400000000001</v>
+      </c>
+      <c r="J56" s="49">
+        <v>1.3243</v>
+      </c>
       <c r="K56" s="49"/>
       <c r="M56" s="4"/>
       <c r="O56" s="1">
@@ -5062,10 +5084,16 @@
       <c r="R56" s="49"/>
       <c r="S56" s="49"/>
       <c r="T56" s="49"/>
-      <c r="U56" s="49"/>
+      <c r="U56" s="49">
+        <v>256</v>
+      </c>
       <c r="V56" s="49"/>
-      <c r="W56" s="49"/>
-      <c r="X56" s="49"/>
+      <c r="W56" s="49">
+        <v>148</v>
+      </c>
+      <c r="X56" s="49">
+        <v>258</v>
+      </c>
       <c r="Y56" s="49"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
@@ -5089,8 +5117,12 @@
         <v>0.54791000000000001</v>
       </c>
       <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
+      <c r="I57" s="49">
+        <v>0.18924099999999999</v>
+      </c>
+      <c r="J57" s="49">
+        <v>1.43055</v>
+      </c>
       <c r="K57" s="49"/>
       <c r="M57" s="4"/>
       <c r="O57" s="1">
@@ -5105,10 +5137,16 @@
       <c r="R57" s="49"/>
       <c r="S57" s="49"/>
       <c r="T57" s="49"/>
-      <c r="U57" s="49"/>
+      <c r="U57" s="49">
+        <v>208</v>
+      </c>
       <c r="V57" s="49"/>
-      <c r="W57" s="49"/>
-      <c r="X57" s="49"/>
+      <c r="W57" s="49">
+        <v>57</v>
+      </c>
+      <c r="X57" s="49">
+        <v>253</v>
+      </c>
       <c r="Y57" s="49"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
@@ -5132,8 +5170,12 @@
         <v>0.70573300000000005</v>
       </c>
       <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
+      <c r="I58" s="50">
+        <v>6.9745100000000004E-2</v>
+      </c>
+      <c r="J58" s="50">
+        <v>0.73257499999999998</v>
+      </c>
       <c r="K58" s="50"/>
       <c r="M58" s="4"/>
       <c r="O58" s="1">
@@ -5148,10 +5190,16 @@
       <c r="R58" s="49"/>
       <c r="S58" s="49"/>
       <c r="T58" s="49"/>
-      <c r="U58" s="49"/>
+      <c r="U58" s="49">
+        <v>379</v>
+      </c>
       <c r="V58" s="50"/>
-      <c r="W58" s="50"/>
-      <c r="X58" s="50"/>
+      <c r="W58" s="50">
+        <v>29</v>
+      </c>
+      <c r="X58" s="50">
+        <v>133</v>
+      </c>
       <c r="Y58" s="50"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
@@ -5175,8 +5223,12 @@
         <v>0.43384499999999998</v>
       </c>
       <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
+      <c r="I59" s="50">
+        <v>246.53399999999999</v>
+      </c>
+      <c r="J59" s="50">
+        <v>0.83743500000000004</v>
+      </c>
       <c r="K59" s="50"/>
       <c r="M59" s="4"/>
       <c r="O59" s="1">
@@ -5191,10 +5243,16 @@
       <c r="R59" s="49"/>
       <c r="S59" s="49"/>
       <c r="T59" s="49"/>
-      <c r="U59" s="49"/>
+      <c r="U59" s="49">
+        <v>199</v>
+      </c>
       <c r="V59" s="50"/>
-      <c r="W59" s="50"/>
-      <c r="X59" s="50"/>
+      <c r="W59" s="50">
+        <v>193</v>
+      </c>
+      <c r="X59" s="50">
+        <v>163</v>
+      </c>
       <c r="Y59" s="50"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
@@ -5218,8 +5276,12 @@
         <v>0.44375300000000001</v>
       </c>
       <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
+      <c r="I60" s="50">
+        <v>130.51599999999999</v>
+      </c>
+      <c r="J60" s="50">
+        <v>1.39022</v>
+      </c>
       <c r="K60" s="50"/>
       <c r="M60" s="4"/>
       <c r="O60" s="1">
@@ -5234,10 +5296,16 @@
       <c r="R60" s="49"/>
       <c r="S60" s="49"/>
       <c r="T60" s="49"/>
-      <c r="U60" s="49"/>
+      <c r="U60" s="49">
+        <v>154</v>
+      </c>
       <c r="V60" s="50"/>
-      <c r="W60" s="50"/>
-      <c r="X60" s="50"/>
+      <c r="W60" s="50">
+        <v>308</v>
+      </c>
+      <c r="X60" s="50">
+        <v>128</v>
+      </c>
       <c r="Y60" s="50"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
@@ -5261,8 +5329,12 @@
         <v>0.37591000000000002</v>
       </c>
       <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
+      <c r="I61" s="50">
+        <v>10.2547</v>
+      </c>
+      <c r="J61" s="50">
+        <v>0.81820199999999998</v>
+      </c>
       <c r="K61" s="50"/>
       <c r="M61" s="4"/>
       <c r="O61" s="1">
@@ -5277,10 +5349,16 @@
       <c r="R61" s="49"/>
       <c r="S61" s="49"/>
       <c r="T61" s="49"/>
-      <c r="U61" s="49"/>
+      <c r="U61" s="49">
+        <v>199</v>
+      </c>
       <c r="V61" s="50"/>
-      <c r="W61" s="50"/>
-      <c r="X61" s="50"/>
+      <c r="W61" s="50">
+        <v>212</v>
+      </c>
+      <c r="X61" s="50">
+        <v>148</v>
+      </c>
       <c r="Y61" s="50"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
@@ -5304,8 +5382,12 @@
         <v>0.30377300000000002</v>
       </c>
       <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
+      <c r="I62" s="50">
+        <v>27.8551</v>
+      </c>
+      <c r="J62" s="50">
+        <v>1.5124599999999999</v>
+      </c>
       <c r="K62" s="50"/>
       <c r="M62" s="4"/>
       <c r="O62" s="1">
@@ -5320,10 +5402,16 @@
       <c r="R62" s="49"/>
       <c r="S62" s="49"/>
       <c r="T62" s="49"/>
-      <c r="U62" s="49"/>
+      <c r="U62" s="49">
+        <v>72</v>
+      </c>
       <c r="V62" s="50"/>
-      <c r="W62" s="50"/>
-      <c r="X62" s="50"/>
+      <c r="W62" s="50">
+        <v>207</v>
+      </c>
+      <c r="X62" s="50">
+        <v>288</v>
+      </c>
       <c r="Y62" s="50"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5347,8 +5435,12 @@
         <v>0.38303500000000001</v>
       </c>
       <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
+      <c r="I63" s="50">
+        <v>12.4886</v>
+      </c>
+      <c r="J63" s="50">
+        <v>2.1301299999999999</v>
+      </c>
       <c r="K63" s="50"/>
       <c r="M63" s="4"/>
       <c r="O63" s="1">
@@ -5363,10 +5455,16 @@
       <c r="R63" s="49"/>
       <c r="S63" s="49"/>
       <c r="T63" s="49"/>
-      <c r="U63" s="49"/>
+      <c r="U63" s="49">
+        <v>187</v>
+      </c>
       <c r="V63" s="49"/>
-      <c r="W63" s="49"/>
-      <c r="X63" s="49"/>
+      <c r="W63" s="49">
+        <v>330</v>
+      </c>
+      <c r="X63" s="49">
+        <v>343</v>
+      </c>
       <c r="Y63" s="49"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5401,13 +5499,13 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I64" s="33" t="e">
+      <c r="I64" s="33">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>78.778188609999987</v>
       </c>
       <c r="J64" s="33">
         <f t="shared" si="4"/>
-        <v>2.0734300000000001</v>
+        <v>1.4773641999999998</v>
       </c>
       <c r="K64" s="33" t="e">
         <f t="shared" si="4"/>
@@ -5447,13 +5545,13 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I65" s="21" t="e">
+      <c r="I65" s="21">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>98.905895952484926</v>
       </c>
       <c r="J65" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.57538831567365101</v>
       </c>
       <c r="K65" s="21" t="e">
         <f t="shared" si="5"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4833B38-E151-4647-AABB-AB5E567C7096}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A7F7CF-D072-4CA1-9C51-6363A2EFF550}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="41">
   <si>
     <t>GVGAI level</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Agent victories only</t>
+  </si>
+  <si>
+    <t>FD (A*)</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -511,7 +514,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -541,6 +543,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -644,15 +657,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>688732</xdr:colOff>
+      <xdr:colOff>102578</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>43961</xdr:rowOff>
+      <xdr:rowOff>73268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>168519</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -667,8 +680,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7722578" y="2329961"/>
-          <a:ext cx="1194287" cy="315058"/>
+          <a:off x="7136424" y="2359268"/>
+          <a:ext cx="1970941" cy="315058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -708,7 +721,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> 15 min</a:t>
+            <a:t> 15 min || RAM &gt; 6GB</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -983,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH69"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -3090,8 +3103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236E5864-7DE8-4BC8-BF4A-4C02356587BF}">
   <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3134,7 +3147,7 @@
       <c r="V1" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="51" t="s">
+      <c r="X1" s="50" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3211,35 +3224,35 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="48"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="59"/>
       <c r="M3" s="4"/>
       <c r="O3" s="1">
         <v>0</v>
       </c>
-      <c r="P3" s="52">
+      <c r="P3" s="51">
         <v>1</v>
       </c>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="52">
+      <c r="Q3" s="48"/>
+      <c r="R3" s="51">
         <v>5</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="52">
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="51">
         <v>1</v>
       </c>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
       <c r="Y3" s="9">
         <v>-1</v>
       </c>
@@ -3248,33 +3261,33 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="48"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="59"/>
       <c r="M4" s="4"/>
       <c r="O4" s="1">
         <v>1</v>
       </c>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
       <c r="R4" s="9">
         <v>-1</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="52">
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="51">
         <v>1</v>
       </c>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
       <c r="Y4" s="9">
         <v>-1</v>
       </c>
@@ -3283,249 +3296,251 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="48"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="59"/>
       <c r="M5" s="4"/>
       <c r="O5" s="1">
         <v>2</v>
       </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
       <c r="R5" s="9">
         <v>-1</v>
       </c>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="48"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="59"/>
       <c r="M6" s="4"/>
       <c r="O6" s="1">
         <v>3</v>
       </c>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
       <c r="R6" s="9">
         <v>-1</v>
       </c>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
       <c r="W6" s="9">
         <v>-1</v>
       </c>
-      <c r="X6" s="52">
+      <c r="X6" s="51">
         <v>1</v>
       </c>
-      <c r="Y6" s="49"/>
+      <c r="Y6" s="48"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="48"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="59"/>
       <c r="M7" s="4"/>
       <c r="O7" s="1">
         <v>4</v>
       </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="52">
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="51">
         <v>3</v>
       </c>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="52">
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="51">
         <v>1</v>
       </c>
-      <c r="X7" s="52">
+      <c r="X7" s="51">
         <v>1</v>
       </c>
-      <c r="Y7" s="49"/>
+      <c r="Y7" s="48"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="48"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="59"/>
       <c r="M8" s="4"/>
       <c r="O8" s="1">
         <v>5</v>
       </c>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="48"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="59"/>
       <c r="M9" s="4"/>
       <c r="O9" s="1">
         <v>6</v>
       </c>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="48"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="59"/>
       <c r="M10" s="4"/>
       <c r="O10" s="1">
         <v>7</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="48"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="59"/>
       <c r="M11" s="4"/>
       <c r="O11" s="1">
         <v>8</v>
       </c>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="48"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="59"/>
       <c r="M12" s="4"/>
       <c r="O12" s="1">
         <v>9</v>
       </c>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="52">
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="51">
         <v>5</v>
       </c>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M13" s="4"/>
@@ -3638,7 +3653,7 @@
       <c r="W17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="X17" s="59" t="s">
+      <c r="X17" s="58" t="s">
         <v>8</v>
       </c>
       <c r="Y17" s="16" t="s">
@@ -3649,42 +3664,46 @@
       <c r="A18" s="1">
         <v>0</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="51">
         <v>8.94</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="54">
+      <c r="D18" s="53">
         <v>505.53</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="56">
+      <c r="E18" s="60"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="55">
         <v>295.70999999999998</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="49"/>
+      <c r="K18" s="55">
+        <v>35.049999999999997</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="O18" s="1">
         <v>0</v>
       </c>
-      <c r="P18" s="54">
+      <c r="P18" s="53">
         <v>65</v>
       </c>
       <c r="Q18" s="9"/>
-      <c r="R18" s="54">
+      <c r="R18" s="53">
         <v>163</v>
       </c>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="57">
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="56">
         <v>187</v>
       </c>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="9"/>
       <c r="X18" s="13"/>
-      <c r="Y18" s="49"/>
+      <c r="Y18" s="51">
+        <v>146</v>
+      </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -3693,15 +3712,17 @@
       <c r="B19" s="46"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="56">
+      <c r="E19" s="60"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="55">
         <v>335.76</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="60"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="49"/>
+      <c r="K19" s="55">
+        <v>740.08</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="O19" s="1">
         <v>1</v>
@@ -3709,15 +3730,17 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="57">
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="56">
         <v>262</v>
       </c>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="9"/>
       <c r="X19" s="13"/>
-      <c r="Y19" s="49"/>
+      <c r="Y19" s="51">
+        <v>185</v>
+      </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -3725,36 +3748,36 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="54">
+      <c r="D20" s="53">
         <v>258.99</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="56">
+      <c r="E20" s="60"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="55">
         <v>885.99</v>
       </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="60"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="49"/>
+      <c r="K20" s="60"/>
       <c r="M20" s="4"/>
       <c r="O20" s="1">
         <v>2</v>
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
-      <c r="R20" s="54">
+      <c r="R20" s="53">
         <v>136</v>
       </c>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="57">
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="56">
         <v>364</v>
       </c>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="9"/>
       <c r="X20" s="13"/>
-      <c r="Y20" s="49"/>
+      <c r="Y20" s="9"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -3762,32 +3785,40 @@
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="55">
+        <v>260.88</v>
+      </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="56">
+      <c r="H21" s="48"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="55">
         <v>377.76</v>
       </c>
-      <c r="K21" s="49"/>
+      <c r="K21" s="55">
+        <v>56.53</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="O21" s="1">
         <v>3</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="51">
+        <v>68</v>
+      </c>
       <c r="U21" s="13"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="57">
+      <c r="V21" s="48"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="56">
         <v>153</v>
       </c>
-      <c r="Y21" s="49"/>
+      <c r="Y21" s="51">
+        <v>147</v>
+      </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
@@ -3795,36 +3826,44 @@
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="54">
+      <c r="D22" s="53">
         <v>158.88</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="56">
+      <c r="H22" s="49"/>
+      <c r="I22" s="55">
+        <v>1.22</v>
+      </c>
+      <c r="J22" s="55">
         <v>555.86</v>
       </c>
-      <c r="K22" s="50"/>
+      <c r="K22" s="55">
+        <v>214.47</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="O22" s="1">
         <v>4</v>
       </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
-      <c r="R22" s="54">
+      <c r="R22" s="53">
         <v>98</v>
       </c>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="57">
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="63">
+        <v>38</v>
+      </c>
+      <c r="X22" s="56">
         <v>133</v>
       </c>
-      <c r="Y22" s="50"/>
+      <c r="Y22" s="63">
+        <v>181</v>
+      </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
@@ -3832,36 +3871,36 @@
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="54">
+      <c r="D23" s="53">
         <v>385.23</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="56">
+      <c r="E23" s="60"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="55">
         <v>507.3</v>
       </c>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="50"/>
+      <c r="K23" s="60"/>
       <c r="M23" s="4"/>
       <c r="O23" s="1">
         <v>5</v>
       </c>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
-      <c r="R23" s="54">
+      <c r="R23" s="53">
         <v>142</v>
       </c>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="57">
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="56">
         <v>241</v>
       </c>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="50"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="10"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
@@ -3869,40 +3908,44 @@
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="54">
+      <c r="D24" s="53">
         <v>266.64</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="56">
+      <c r="E24" s="60"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="55">
         <v>215.17</v>
       </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="56">
+      <c r="H24" s="49"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="55">
         <v>124.26</v>
       </c>
-      <c r="K24" s="50"/>
+      <c r="K24" s="55">
+        <v>20.56</v>
+      </c>
       <c r="M24" s="4"/>
       <c r="O24" s="1">
         <v>6</v>
       </c>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="54">
+      <c r="R24" s="53">
         <v>93</v>
       </c>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="57">
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="56">
         <v>154</v>
       </c>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="57">
+      <c r="V24" s="49"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="56">
         <v>118</v>
       </c>
-      <c r="Y24" s="50"/>
+      <c r="Y24" s="63">
+        <v>124</v>
+      </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
@@ -3910,40 +3953,44 @@
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="54">
+      <c r="D25" s="53">
         <v>205.66</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="56">
+      <c r="E25" s="60"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="55">
         <v>366.21</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="56">
+      <c r="H25" s="49"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="55">
         <v>710.67</v>
       </c>
-      <c r="K25" s="50"/>
+      <c r="K25" s="55">
+        <v>1.07</v>
+      </c>
       <c r="M25" s="4"/>
       <c r="O25" s="1">
         <v>7</v>
       </c>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
-      <c r="R25" s="54">
+      <c r="R25" s="53">
         <v>111</v>
       </c>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="57">
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="56">
         <v>199</v>
       </c>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="57">
+      <c r="V25" s="49"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="56">
         <v>148</v>
       </c>
-      <c r="Y25" s="50"/>
+      <c r="Y25" s="63">
+        <v>113</v>
+      </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
@@ -3951,40 +3998,44 @@
       </c>
       <c r="B26" s="47"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="54">
+      <c r="D26" s="53">
         <v>63.19</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="56">
+      <c r="E26" s="60"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="55">
         <v>4.3499999999999996</v>
       </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="56">
+      <c r="H26" s="49"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="55">
         <v>829.02</v>
       </c>
-      <c r="K26" s="50"/>
+      <c r="K26" s="55">
+        <v>69.42</v>
+      </c>
       <c r="M26" s="4"/>
       <c r="O26" s="1">
         <v>8</v>
       </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
-      <c r="R26" s="54">
+      <c r="R26" s="53">
         <v>106</v>
       </c>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="57">
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="56">
         <v>78</v>
       </c>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="57">
+      <c r="V26" s="49"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="56">
         <v>258</v>
       </c>
-      <c r="Y26" s="50"/>
+      <c r="Y26" s="63">
+        <v>94</v>
+      </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
@@ -3992,40 +4043,44 @@
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="54">
+      <c r="D27" s="53">
         <v>252.04</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="56">
+      <c r="E27" s="60"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="55">
         <v>347.65</v>
       </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="56">
+      <c r="H27" s="49"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="55">
         <v>850.38</v>
       </c>
-      <c r="K27" s="50"/>
+      <c r="K27" s="55">
+        <v>60.34</v>
+      </c>
       <c r="M27" s="4"/>
       <c r="O27" s="1">
         <v>9</v>
       </c>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
-      <c r="R27" s="54">
+      <c r="R27" s="53">
         <v>169</v>
       </c>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="57">
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="56">
         <v>187</v>
       </c>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="57">
+      <c r="V27" s="48"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="56">
         <v>358</v>
       </c>
-      <c r="Y27" s="49"/>
+      <c r="Y27" s="51">
+        <v>117</v>
+      </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
@@ -4039,7 +4094,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="52">
         <f t="shared" si="0"/>
         <v>262.02000000000004</v>
       </c>
@@ -4047,9 +4102,9 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="33" t="e">
+      <c r="F28" s="33">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>260.88</v>
       </c>
       <c r="G28" s="33">
         <f t="shared" si="0"/>
@@ -4059,17 +4114,17 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="33" t="e">
+      <c r="I28" s="33">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.22</v>
       </c>
       <c r="J28" s="33">
         <f t="shared" si="0"/>
         <v>574.65833333333342</v>
       </c>
-      <c r="K28" s="33" t="e">
+      <c r="K28" s="33">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>149.68999999999997</v>
       </c>
       <c r="M28" s="4"/>
     </row>
@@ -4093,9 +4148,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="21" t="e">
+      <c r="F29" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G29" s="21">
         <f t="shared" si="1"/>
@@ -4105,17 +4160,17 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="21" t="e">
+      <c r="I29" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" si="1"/>
         <v>258.58669019735362</v>
       </c>
-      <c r="K29" s="21" t="e">
+      <c r="K29" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>231.23772194432291</v>
       </c>
       <c r="M29" s="4"/>
     </row>
@@ -4136,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="19">
         <v>8</v>
@@ -4145,17 +4200,17 @@
         <v>0</v>
       </c>
       <c r="I30" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="20">
         <v>6</v>
       </c>
-      <c r="K30" s="32">
-        <v>0</v>
+      <c r="K30" s="61">
+        <v>8</v>
       </c>
       <c r="L30" s="32">
         <f>SUM(B30:K30)</f>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M30" s="4"/>
     </row>
@@ -4195,14 +4250,14 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="M34" s="4"/>
       <c r="O34" s="17" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="P34" t="s">
         <v>17</v>
@@ -4283,40 +4338,44 @@
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="56">
+      <c r="D36" s="55">
         <v>4.5584199999999999</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="56">
+      <c r="E36" s="55">
+        <v>1.0730500000000001</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="55">
         <v>0.12731100000000001</v>
       </c>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="56">
+      <c r="H36" s="48"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="55">
         <v>0.11088199999999999</v>
       </c>
-      <c r="K36" s="49"/>
+      <c r="K36" s="60"/>
       <c r="M36" s="4"/>
       <c r="O36" s="1">
         <v>0</v>
       </c>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
-      <c r="R36" s="54">
+      <c r="R36" s="53">
         <v>142</v>
       </c>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="57">
+      <c r="S36" s="51">
+        <v>307</v>
+      </c>
+      <c r="T36" s="9"/>
+      <c r="U36" s="56">
         <v>187</v>
       </c>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="57">
+      <c r="V36" s="48"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="56">
         <v>153</v>
       </c>
-      <c r="Y36" s="49"/>
+      <c r="Y36" s="9"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -4324,40 +4383,44 @@
       </c>
       <c r="B37" s="46"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="56">
+      <c r="D37" s="55">
         <v>369.37900000000002</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="56">
+      <c r="E37" s="55">
+        <v>1.17469</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="55">
         <v>0.137241</v>
       </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="56">
+      <c r="H37" s="48"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="55">
         <v>0.114484</v>
       </c>
-      <c r="K37" s="49"/>
+      <c r="K37" s="60"/>
       <c r="M37" s="4"/>
       <c r="O37" s="1">
         <v>1</v>
       </c>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
-      <c r="R37" s="54">
+      <c r="R37" s="53">
         <v>175</v>
       </c>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="57">
+      <c r="S37" s="51">
+        <v>532</v>
+      </c>
+      <c r="T37" s="9"/>
+      <c r="U37" s="56">
         <v>238</v>
       </c>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="57">
+      <c r="V37" s="48"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="56">
         <v>208</v>
       </c>
-      <c r="Y37" s="49"/>
+      <c r="Y37" s="9"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -4365,40 +4428,44 @@
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="56">
+      <c r="D38" s="55">
         <v>244.98400000000001</v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="56">
+      <c r="E38" s="55">
+        <v>1.0177700000000001</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="55">
         <v>0.145514</v>
       </c>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="56">
+      <c r="H38" s="48"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="55">
         <v>0.115649</v>
       </c>
-      <c r="K38" s="49"/>
+      <c r="K38" s="60"/>
       <c r="M38" s="4"/>
       <c r="O38" s="1">
         <v>2</v>
       </c>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
-      <c r="R38" s="54">
+      <c r="R38" s="53">
         <v>130</v>
       </c>
-      <c r="S38" s="49"/>
-      <c r="T38" s="49"/>
-      <c r="U38" s="57">
+      <c r="S38" s="51">
+        <v>346</v>
+      </c>
+      <c r="T38" s="9"/>
+      <c r="U38" s="56">
         <v>256</v>
       </c>
-      <c r="V38" s="49"/>
-      <c r="W38" s="49"/>
-      <c r="X38" s="57">
+      <c r="V38" s="48"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="56">
         <v>208</v>
       </c>
-      <c r="Y38" s="49"/>
+      <c r="Y38" s="9"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -4406,40 +4473,44 @@
       </c>
       <c r="B39" s="46"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="56">
+      <c r="D39" s="55">
         <v>88.552000000000007</v>
       </c>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="56">
+      <c r="E39" s="55">
+        <v>1.0498099999999999</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="55">
         <v>0.13156599999999999</v>
       </c>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="56">
+      <c r="H39" s="48"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="55">
         <v>8.8751200000000002E-2</v>
       </c>
-      <c r="K39" s="49"/>
+      <c r="K39" s="60"/>
       <c r="M39" s="4"/>
       <c r="O39" s="1">
         <v>3</v>
       </c>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
-      <c r="R39" s="54">
+      <c r="R39" s="53">
         <v>134</v>
       </c>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="57">
+      <c r="S39" s="51">
+        <v>493</v>
+      </c>
+      <c r="T39" s="9"/>
+      <c r="U39" s="56">
         <v>208</v>
       </c>
-      <c r="V39" s="49"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="57">
+      <c r="V39" s="48"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="56">
         <v>148</v>
       </c>
-      <c r="Y39" s="49"/>
+      <c r="Y39" s="9"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
@@ -4447,40 +4518,44 @@
       </c>
       <c r="B40" s="47"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="56">
+      <c r="D40" s="55">
         <v>3.7271200000000002</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="56">
+      <c r="E40" s="55">
+        <v>1.1207400000000001</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="55">
         <v>0.16553699999999999</v>
       </c>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="56">
+      <c r="H40" s="49"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="55">
         <v>8.2298700000000002E-2</v>
       </c>
-      <c r="K40" s="50"/>
+      <c r="K40" s="60"/>
       <c r="M40" s="4"/>
       <c r="O40" s="1">
         <v>4</v>
       </c>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
-      <c r="R40" s="54">
+      <c r="R40" s="53">
         <v>89</v>
       </c>
-      <c r="S40" s="49"/>
-      <c r="T40" s="49"/>
-      <c r="U40" s="57">
+      <c r="S40" s="51">
+        <v>445</v>
+      </c>
+      <c r="T40" s="10"/>
+      <c r="U40" s="56">
         <v>379</v>
       </c>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="57">
+      <c r="V40" s="49"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="56">
         <v>118</v>
       </c>
-      <c r="Y40" s="50"/>
+      <c r="Y40" s="10"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
@@ -4488,40 +4563,44 @@
       </c>
       <c r="B41" s="47"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="56">
+      <c r="D41" s="55">
         <v>0.64394700000000005</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="56">
+      <c r="E41" s="55">
+        <v>1.01284</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="55">
         <v>0.11219999999999999</v>
       </c>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="56">
+      <c r="H41" s="49"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="55">
         <v>0.11194</v>
       </c>
-      <c r="K41" s="50"/>
+      <c r="K41" s="60"/>
       <c r="M41" s="4"/>
       <c r="O41" s="1">
         <v>5</v>
       </c>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
-      <c r="R41" s="54">
+      <c r="R41" s="53">
         <v>103</v>
       </c>
-      <c r="S41" s="49"/>
-      <c r="T41" s="49"/>
-      <c r="U41" s="57">
+      <c r="S41" s="51">
+        <v>310</v>
+      </c>
+      <c r="T41" s="10"/>
+      <c r="U41" s="56">
         <v>199</v>
       </c>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="57">
+      <c r="V41" s="49"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="56">
         <v>148</v>
       </c>
-      <c r="Y41" s="50"/>
+      <c r="Y41" s="10"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
@@ -4529,40 +4608,44 @@
       </c>
       <c r="B42" s="47"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="56">
+      <c r="D42" s="55">
         <v>0.41857299999999997</v>
       </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="56">
+      <c r="E42" s="55">
+        <v>1.3957900000000001</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="55">
         <v>0.108722</v>
       </c>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="56">
+      <c r="H42" s="49"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="55">
         <v>9.5584500000000003E-2</v>
       </c>
-      <c r="K42" s="50"/>
+      <c r="K42" s="60"/>
       <c r="M42" s="4"/>
       <c r="O42" s="1">
         <v>6</v>
       </c>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
-      <c r="R42" s="54">
+      <c r="R42" s="53">
         <v>93</v>
       </c>
-      <c r="S42" s="49"/>
-      <c r="T42" s="49"/>
-      <c r="U42" s="57">
+      <c r="S42" s="51">
+        <v>316</v>
+      </c>
+      <c r="T42" s="10"/>
+      <c r="U42" s="56">
         <v>154</v>
       </c>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="57">
+      <c r="V42" s="49"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="56">
         <v>98</v>
       </c>
-      <c r="Y42" s="50"/>
+      <c r="Y42" s="10"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
@@ -4570,40 +4653,44 @@
       </c>
       <c r="B43" s="47"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="56">
+      <c r="D43" s="55">
         <v>0.33063700000000001</v>
       </c>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="56">
+      <c r="E43" s="55">
+        <v>1.03054</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="55">
         <v>0.106403</v>
       </c>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="56">
+      <c r="H43" s="49"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="55">
         <v>0.10772</v>
       </c>
-      <c r="K43" s="50"/>
+      <c r="K43" s="60"/>
       <c r="M43" s="4"/>
       <c r="O43" s="1">
         <v>7</v>
       </c>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
-      <c r="R43" s="54">
+      <c r="R43" s="53">
         <v>99</v>
       </c>
-      <c r="S43" s="49"/>
-      <c r="T43" s="49"/>
-      <c r="U43" s="57">
+      <c r="S43" s="51">
+        <v>505</v>
+      </c>
+      <c r="T43" s="10"/>
+      <c r="U43" s="56">
         <v>199</v>
       </c>
-      <c r="V43" s="50"/>
-      <c r="W43" s="50"/>
-      <c r="X43" s="57">
+      <c r="V43" s="49"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="56">
         <v>138</v>
       </c>
-      <c r="Y43" s="50"/>
+      <c r="Y43" s="10"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
@@ -4611,40 +4698,48 @@
       </c>
       <c r="B44" s="47"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="56">
+      <c r="D44" s="55">
         <v>0.33985700000000002</v>
       </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="56">
+      <c r="E44" s="55">
+        <v>0.99276699999999996</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="55">
         <v>7.9479599999999997E-2</v>
       </c>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="56">
+      <c r="H44" s="49"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="55">
         <v>0.11412799999999999</v>
       </c>
-      <c r="K44" s="50"/>
+      <c r="K44" s="55">
+        <v>4.3423600000000002</v>
+      </c>
       <c r="M44" s="4"/>
       <c r="O44" s="1">
         <v>8</v>
       </c>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
-      <c r="R44" s="54">
+      <c r="R44" s="53">
         <v>106</v>
       </c>
-      <c r="S44" s="49"/>
-      <c r="T44" s="49"/>
-      <c r="U44" s="57">
+      <c r="S44" s="51">
+        <v>550</v>
+      </c>
+      <c r="T44" s="10"/>
+      <c r="U44" s="56">
         <v>72</v>
       </c>
-      <c r="V44" s="50"/>
-      <c r="W44" s="50"/>
-      <c r="X44" s="57">
+      <c r="V44" s="49"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="56">
         <v>258</v>
       </c>
-      <c r="Y44" s="50"/>
+      <c r="Y44" s="63">
+        <v>88</v>
+      </c>
     </row>
     <row r="45" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
@@ -4652,40 +4747,44 @@
       </c>
       <c r="B45" s="47"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="56">
+      <c r="D45" s="55">
         <v>0.54566099999999995</v>
       </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="56">
+      <c r="E45" s="55">
+        <v>0.94031600000000004</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="55">
         <v>7.1677299999999999E-2</v>
       </c>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="56">
+      <c r="H45" s="49"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="55">
         <v>0.15307000000000001</v>
       </c>
-      <c r="K45" s="50"/>
+      <c r="K45" s="60"/>
       <c r="M45" s="4"/>
       <c r="O45" s="1">
         <v>9</v>
       </c>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
-      <c r="R45" s="54">
+      <c r="R45" s="53">
         <v>136</v>
       </c>
-      <c r="S45" s="49"/>
-      <c r="T45" s="49"/>
-      <c r="U45" s="57">
+      <c r="S45" s="51">
+        <v>289</v>
+      </c>
+      <c r="T45" s="10"/>
+      <c r="U45" s="56">
         <v>187</v>
       </c>
-      <c r="V45" s="49"/>
-      <c r="W45" s="49"/>
-      <c r="X45" s="57">
+      <c r="V45" s="48"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="56">
         <v>358</v>
       </c>
-      <c r="Y45" s="49"/>
+      <c r="Y45" s="9"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
@@ -4703,9 +4802,9 @@
         <f t="shared" si="2"/>
         <v>71.347921500000012</v>
       </c>
-      <c r="E46" s="33" t="e">
+      <c r="E46" s="33">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.0808312999999998</v>
       </c>
       <c r="F46" s="33" t="e">
         <f t="shared" si="2"/>
@@ -4727,9 +4826,9 @@
         <f t="shared" si="2"/>
         <v>0.10945073999999999</v>
       </c>
-      <c r="K46" s="33" t="e">
+      <c r="K46" s="33">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.3423600000000002</v>
       </c>
       <c r="M46" s="4"/>
     </row>
@@ -4749,9 +4848,9 @@
         <f t="shared" si="3"/>
         <v>123.86685861614376</v>
       </c>
-      <c r="E47" s="21" t="e">
+      <c r="E47" s="21">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.12216899854222542</v>
       </c>
       <c r="F47" s="21" t="e">
         <f t="shared" si="3"/>
@@ -4773,9 +4872,9 @@
         <f t="shared" si="3"/>
         <v>1.8323443898197844E-2</v>
       </c>
-      <c r="K47" s="21" t="e">
+      <c r="K47" s="21">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M47" s="4"/>
     </row>
@@ -4793,7 +4892,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F48" s="19">
         <v>0</v>
@@ -4810,12 +4909,12 @@
       <c r="J48" s="20">
         <v>10</v>
       </c>
-      <c r="K48" s="32">
-        <v>0</v>
+      <c r="K48" s="61">
+        <v>1</v>
       </c>
       <c r="L48" s="32">
         <f>SUM(B48:K48)</f>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M48" s="4"/>
     </row>
@@ -4941,538 +5040,694 @@
       <c r="A54" s="1">
         <v>0</v>
       </c>
-      <c r="B54" s="56">
+      <c r="B54" s="55">
         <v>1.12389E-2</v>
       </c>
-      <c r="C54" s="56">
+      <c r="C54" s="55">
         <v>42.491300000000003</v>
       </c>
-      <c r="D54" s="56">
+      <c r="D54" s="55">
         <v>6.0726300000000002</v>
       </c>
-      <c r="E54" s="56">
+      <c r="E54" s="55">
         <v>18.004999999999999</v>
       </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="56">
+      <c r="F54" s="55">
+        <v>12.0899</v>
+      </c>
+      <c r="G54" s="55">
         <v>0.47940199999999999</v>
       </c>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49">
+      <c r="H54" s="55">
+        <v>11.3604</v>
+      </c>
+      <c r="I54" s="55">
         <v>275.714</v>
       </c>
-      <c r="J54" s="49">
+      <c r="J54" s="55">
         <v>2.0734300000000001</v>
       </c>
-      <c r="K54" s="49"/>
+      <c r="K54" s="55">
+        <v>0.53345100000000001</v>
+      </c>
       <c r="M54" s="4"/>
       <c r="O54" s="1">
         <v>0</v>
       </c>
-      <c r="P54" s="57">
+      <c r="P54" s="56">
         <v>21</v>
       </c>
-      <c r="Q54" s="57">
+      <c r="Q54" s="56">
         <v>258</v>
       </c>
-      <c r="R54" s="49"/>
-      <c r="S54" s="49"/>
-      <c r="T54" s="49"/>
-      <c r="U54" s="49">
+      <c r="R54" s="56">
+        <v>178</v>
+      </c>
+      <c r="S54" s="56">
+        <v>355</v>
+      </c>
+      <c r="T54" s="56">
+        <v>350</v>
+      </c>
+      <c r="U54" s="56">
         <v>187</v>
       </c>
-      <c r="V54" s="49"/>
-      <c r="W54" s="49">
+      <c r="V54" s="56">
+        <v>173</v>
+      </c>
+      <c r="W54" s="56">
         <v>353</v>
       </c>
-      <c r="X54" s="49">
+      <c r="X54" s="56">
         <v>243</v>
       </c>
-      <c r="Y54" s="49"/>
+      <c r="Y54" s="56">
+        <v>140</v>
+      </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1</v>
       </c>
-      <c r="B55" s="56">
+      <c r="B55" s="55">
         <v>6.6536600000000004</v>
       </c>
-      <c r="C55" s="56">
+      <c r="C55" s="55">
         <v>30.741700000000002</v>
       </c>
-      <c r="D55" s="56">
+      <c r="D55" s="55">
         <v>10.238099999999999</v>
       </c>
-      <c r="E55" s="56">
+      <c r="E55" s="55">
         <v>44.814300000000003</v>
       </c>
-      <c r="F55" s="49"/>
-      <c r="G55" s="56">
+      <c r="F55" s="55">
+        <v>34.728400000000001</v>
+      </c>
+      <c r="G55" s="55">
         <v>0.38312600000000002</v>
       </c>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49">
+      <c r="H55" s="55">
+        <v>13.377700000000001</v>
+      </c>
+      <c r="I55" s="55">
         <v>69.224100000000007</v>
       </c>
-      <c r="J55" s="49">
+      <c r="J55" s="55">
         <v>2.52434</v>
       </c>
-      <c r="K55" s="49"/>
+      <c r="K55" s="55">
+        <v>7.9037099999999999E-2</v>
+      </c>
       <c r="M55" s="4"/>
       <c r="O55" s="1">
         <v>1</v>
       </c>
-      <c r="P55" s="57">
+      <c r="P55" s="56">
         <v>121</v>
       </c>
-      <c r="Q55" s="57">
+      <c r="Q55" s="56">
         <v>208</v>
       </c>
-      <c r="R55" s="49"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="49"/>
-      <c r="U55" s="49">
+      <c r="R55" s="56">
+        <v>397</v>
+      </c>
+      <c r="S55" s="56">
+        <v>607</v>
+      </c>
+      <c r="T55" s="56">
+        <v>339</v>
+      </c>
+      <c r="U55" s="56">
         <v>238</v>
       </c>
-      <c r="V55" s="49"/>
-      <c r="W55" s="49">
+      <c r="V55" s="56">
+        <v>177</v>
+      </c>
+      <c r="W55" s="56">
         <v>208</v>
       </c>
-      <c r="X55" s="49">
+      <c r="X55" s="56">
         <v>223</v>
       </c>
-      <c r="Y55" s="49"/>
+      <c r="Y55" s="56">
+        <v>185</v>
+      </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2</v>
       </c>
-      <c r="B56" s="56">
+      <c r="B56" s="55">
         <v>0.16361800000000001</v>
       </c>
-      <c r="C56" s="56">
+      <c r="C56" s="55">
         <v>25.808399999999999</v>
       </c>
-      <c r="D56" s="56">
+      <c r="D56" s="55">
         <v>8.8827600000000007E-2</v>
       </c>
-      <c r="E56" s="56">
+      <c r="E56" s="55">
         <v>19.5749</v>
       </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="56">
+      <c r="F56" s="55">
+        <v>126.414</v>
+      </c>
+      <c r="G56" s="55">
         <v>0.50300400000000001</v>
       </c>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49">
+      <c r="H56" s="55">
+        <v>10.3215</v>
+      </c>
+      <c r="I56" s="55">
         <v>14.936400000000001</v>
       </c>
-      <c r="J56" s="49">
+      <c r="J56" s="55">
         <v>1.3243</v>
       </c>
-      <c r="K56" s="49"/>
+      <c r="K56" s="55">
+        <v>0.94615700000000003</v>
+      </c>
       <c r="M56" s="4"/>
       <c r="O56" s="1">
         <v>2</v>
       </c>
-      <c r="P56" s="57">
+      <c r="P56" s="56">
         <v>42</v>
       </c>
-      <c r="Q56" s="57">
+      <c r="Q56" s="56">
         <v>175</v>
       </c>
-      <c r="R56" s="49"/>
-      <c r="S56" s="49"/>
-      <c r="T56" s="49"/>
-      <c r="U56" s="49">
+      <c r="R56" s="56">
+        <v>148</v>
+      </c>
+      <c r="S56" s="56">
+        <v>541</v>
+      </c>
+      <c r="T56" s="56">
+        <v>671</v>
+      </c>
+      <c r="U56" s="56">
         <v>256</v>
       </c>
-      <c r="V56" s="49"/>
-      <c r="W56" s="49">
+      <c r="V56" s="56">
+        <v>196</v>
+      </c>
+      <c r="W56" s="56">
         <v>148</v>
       </c>
-      <c r="X56" s="49">
+      <c r="X56" s="56">
         <v>258</v>
       </c>
-      <c r="Y56" s="49"/>
+      <c r="Y56" s="56">
+        <v>211</v>
+      </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>3</v>
       </c>
-      <c r="B57" s="56">
+      <c r="B57" s="55">
         <v>17.5992</v>
       </c>
-      <c r="C57" s="56">
+      <c r="C57" s="55">
         <v>49.455800000000004</v>
       </c>
-      <c r="D57" s="56">
+      <c r="D57" s="55">
         <v>9.7938299999999998</v>
       </c>
-      <c r="E57" s="56">
+      <c r="E57" s="55">
         <v>18.940899999999999</v>
       </c>
-      <c r="F57" s="49"/>
-      <c r="G57" s="56">
+      <c r="F57" s="55">
+        <v>1.05467</v>
+      </c>
+      <c r="G57" s="55">
         <v>0.54791000000000001</v>
       </c>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49">
+      <c r="H57" s="55">
+        <v>12.2889</v>
+      </c>
+      <c r="I57" s="55">
         <v>0.18924099999999999</v>
       </c>
-      <c r="J57" s="49">
+      <c r="J57" s="55">
         <v>1.43055</v>
       </c>
-      <c r="K57" s="49"/>
+      <c r="K57" s="55">
+        <v>7.2814100000000007E-2</v>
+      </c>
       <c r="M57" s="4"/>
       <c r="O57" s="1">
         <v>3</v>
       </c>
-      <c r="P57" s="57">
+      <c r="P57" s="56">
         <v>82</v>
       </c>
-      <c r="Q57" s="57">
+      <c r="Q57" s="56">
         <v>349</v>
       </c>
-      <c r="R57" s="49"/>
-      <c r="S57" s="49"/>
-      <c r="T57" s="49"/>
-      <c r="U57" s="49">
+      <c r="R57" s="56">
+        <v>236</v>
+      </c>
+      <c r="S57" s="56">
+        <v>490</v>
+      </c>
+      <c r="T57" s="56">
+        <v>62</v>
+      </c>
+      <c r="U57" s="56">
         <v>208</v>
       </c>
-      <c r="V57" s="49"/>
-      <c r="W57" s="49">
+      <c r="V57" s="56">
+        <v>212</v>
+      </c>
+      <c r="W57" s="56">
         <v>57</v>
       </c>
-      <c r="X57" s="49">
+      <c r="X57" s="56">
         <v>253</v>
       </c>
-      <c r="Y57" s="49"/>
+      <c r="Y57" s="56">
+        <v>123</v>
+      </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>4</v>
       </c>
-      <c r="B58" s="56">
+      <c r="B58" s="55">
         <v>29.069099999999999</v>
       </c>
-      <c r="C58" s="56">
+      <c r="C58" s="55">
         <v>2.6156700000000002</v>
       </c>
-      <c r="D58" s="56">
+      <c r="D58" s="55">
         <v>6.22377</v>
       </c>
-      <c r="E58" s="56">
+      <c r="E58" s="55">
         <v>13.1508</v>
       </c>
-      <c r="F58" s="50"/>
-      <c r="G58" s="56">
+      <c r="F58" s="60"/>
+      <c r="G58" s="55">
         <v>0.70573300000000005</v>
       </c>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50">
+      <c r="H58" s="55">
+        <v>0.52202000000000004</v>
+      </c>
+      <c r="I58" s="55">
         <v>6.9745100000000004E-2</v>
       </c>
-      <c r="J58" s="50">
+      <c r="J58" s="55">
         <v>0.73257499999999998</v>
       </c>
-      <c r="K58" s="50"/>
+      <c r="K58" s="55">
+        <v>8.7135099999999993E-2</v>
+      </c>
       <c r="M58" s="4"/>
       <c r="O58" s="1">
         <v>4</v>
       </c>
-      <c r="P58" s="57">
+      <c r="P58" s="56">
         <v>137</v>
       </c>
-      <c r="Q58" s="57">
+      <c r="Q58" s="56">
         <v>102</v>
       </c>
-      <c r="R58" s="49"/>
-      <c r="S58" s="49"/>
-      <c r="T58" s="49"/>
-      <c r="U58" s="49">
+      <c r="R58" s="56">
+        <v>158</v>
+      </c>
+      <c r="S58" s="56">
+        <v>472</v>
+      </c>
+      <c r="T58" s="62"/>
+      <c r="U58" s="56">
         <v>379</v>
       </c>
-      <c r="V58" s="50"/>
-      <c r="W58" s="50">
+      <c r="V58" s="56">
+        <v>86</v>
+      </c>
+      <c r="W58" s="56">
         <v>29</v>
       </c>
-      <c r="X58" s="50">
+      <c r="X58" s="56">
         <v>133</v>
       </c>
-      <c r="Y58" s="50"/>
+      <c r="Y58" s="56">
+        <v>172</v>
+      </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>5</v>
       </c>
-      <c r="B59" s="56">
+      <c r="B59" s="55">
         <v>0.132461</v>
       </c>
-      <c r="C59" s="56">
+      <c r="C59" s="55">
         <v>15.929600000000001</v>
       </c>
-      <c r="D59" s="56">
+      <c r="D59" s="55">
         <v>4.43478E-2</v>
       </c>
-      <c r="E59" s="56">
+      <c r="E59" s="55">
         <v>35.987299999999998</v>
       </c>
-      <c r="F59" s="50"/>
-      <c r="G59" s="56">
+      <c r="F59" s="55">
+        <v>18.217300000000002</v>
+      </c>
+      <c r="G59" s="55">
         <v>0.43384499999999998</v>
       </c>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50">
+      <c r="H59" s="55">
+        <v>12.176</v>
+      </c>
+      <c r="I59" s="55">
         <v>246.53399999999999</v>
       </c>
-      <c r="J59" s="50">
+      <c r="J59" s="55">
         <v>0.83743500000000004</v>
       </c>
-      <c r="K59" s="50"/>
+      <c r="K59" s="55">
+        <v>5.3616999999999998E-2</v>
+      </c>
       <c r="M59" s="4"/>
       <c r="O59" s="1">
         <v>5</v>
       </c>
-      <c r="P59" s="57">
+      <c r="P59" s="56">
         <v>77</v>
       </c>
-      <c r="Q59" s="57">
+      <c r="Q59" s="56">
         <v>163</v>
       </c>
-      <c r="R59" s="49"/>
-      <c r="S59" s="49"/>
-      <c r="T59" s="49"/>
-      <c r="U59" s="49">
+      <c r="R59" s="56">
+        <v>148</v>
+      </c>
+      <c r="S59" s="56">
+        <v>460</v>
+      </c>
+      <c r="T59" s="56">
+        <v>181</v>
+      </c>
+      <c r="U59" s="56">
         <v>199</v>
       </c>
-      <c r="V59" s="50"/>
-      <c r="W59" s="50">
+      <c r="V59" s="56">
+        <v>136</v>
+      </c>
+      <c r="W59" s="56">
         <v>193</v>
       </c>
-      <c r="X59" s="50">
+      <c r="X59" s="56">
         <v>163</v>
       </c>
-      <c r="Y59" s="50"/>
+      <c r="Y59" s="56">
+        <v>157</v>
+      </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>6</v>
       </c>
-      <c r="B60" s="56">
+      <c r="B60" s="55">
         <v>40.249200000000002</v>
       </c>
-      <c r="C60" s="56">
+      <c r="C60" s="55">
         <v>23.0289</v>
       </c>
-      <c r="D60" s="56">
+      <c r="D60" s="55">
         <v>4.2488100000000001E-2</v>
       </c>
-      <c r="E60" s="56">
+      <c r="E60" s="55">
         <v>21.556999999999999</v>
       </c>
-      <c r="F60" s="50"/>
-      <c r="G60" s="56">
+      <c r="F60" s="55">
+        <v>1.8813</v>
+      </c>
+      <c r="G60" s="55">
         <v>0.44375300000000001</v>
       </c>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50">
+      <c r="H60" s="55">
+        <v>19.398</v>
+      </c>
+      <c r="I60" s="55">
         <v>130.51599999999999</v>
       </c>
-      <c r="J60" s="50">
+      <c r="J60" s="55">
         <v>1.39022</v>
       </c>
-      <c r="K60" s="50"/>
+      <c r="K60" s="55">
+        <v>5.9117000000000003E-2</v>
+      </c>
       <c r="M60" s="4"/>
       <c r="O60" s="1">
         <v>6</v>
       </c>
-      <c r="P60" s="57">
+      <c r="P60" s="56">
         <v>327</v>
       </c>
-      <c r="Q60" s="57">
+      <c r="Q60" s="56">
         <v>203</v>
       </c>
-      <c r="R60" s="49"/>
-      <c r="S60" s="49"/>
-      <c r="T60" s="49"/>
-      <c r="U60" s="49">
+      <c r="R60" s="56">
+        <v>135</v>
+      </c>
+      <c r="S60" s="56">
+        <v>343</v>
+      </c>
+      <c r="T60" s="56">
+        <v>120</v>
+      </c>
+      <c r="U60" s="56">
         <v>154</v>
       </c>
-      <c r="V60" s="50"/>
-      <c r="W60" s="50">
+      <c r="V60" s="56">
+        <v>173</v>
+      </c>
+      <c r="W60" s="56">
         <v>308</v>
       </c>
-      <c r="X60" s="50">
+      <c r="X60" s="56">
         <v>128</v>
       </c>
-      <c r="Y60" s="50"/>
+      <c r="Y60" s="56">
+        <v>136</v>
+      </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>7</v>
       </c>
-      <c r="B61" s="56">
+      <c r="B61" s="55">
         <v>512.66999999999996</v>
       </c>
-      <c r="C61" s="56">
+      <c r="C61" s="55">
         <v>11.9932</v>
       </c>
-      <c r="D61" s="56">
+      <c r="D61" s="55">
         <v>4.3576899999999998</v>
       </c>
-      <c r="E61" s="56">
+      <c r="E61" s="55">
         <v>24.514700000000001</v>
       </c>
-      <c r="F61" s="50"/>
-      <c r="G61" s="56">
+      <c r="F61" s="55">
+        <v>21.223299999999998</v>
+      </c>
+      <c r="G61" s="55">
         <v>0.37591000000000002</v>
       </c>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50">
+      <c r="H61" s="55">
+        <v>11.274699999999999</v>
+      </c>
+      <c r="I61" s="55">
         <v>10.2547</v>
       </c>
-      <c r="J61" s="50">
+      <c r="J61" s="55">
         <v>0.81820199999999998</v>
       </c>
-      <c r="K61" s="50"/>
+      <c r="K61" s="55">
+        <v>4.54711E-2</v>
+      </c>
       <c r="M61" s="4"/>
       <c r="O61" s="1">
         <v>7</v>
       </c>
-      <c r="P61" s="57">
+      <c r="P61" s="56">
         <v>336</v>
       </c>
-      <c r="Q61" s="57">
+      <c r="Q61" s="56">
         <v>227</v>
       </c>
-      <c r="R61" s="49"/>
-      <c r="S61" s="49"/>
-      <c r="T61" s="49"/>
-      <c r="U61" s="49">
+      <c r="R61" s="56">
+        <v>99</v>
+      </c>
+      <c r="S61" s="56">
+        <v>526</v>
+      </c>
+      <c r="T61" s="56">
+        <v>165</v>
+      </c>
+      <c r="U61" s="56">
         <v>199</v>
       </c>
-      <c r="V61" s="50"/>
-      <c r="W61" s="50">
+      <c r="V61" s="56">
+        <v>191</v>
+      </c>
+      <c r="W61" s="56">
         <v>212</v>
       </c>
-      <c r="X61" s="50">
+      <c r="X61" s="56">
         <v>148</v>
       </c>
-      <c r="Y61" s="50"/>
+      <c r="Y61" s="56">
+        <v>191</v>
+      </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>8</v>
       </c>
-      <c r="B62" s="56">
+      <c r="B62" s="55">
         <v>20.802</v>
       </c>
-      <c r="C62" s="56">
+      <c r="C62" s="55">
         <v>12.725</v>
       </c>
-      <c r="D62" s="56">
+      <c r="D62" s="55">
         <v>3.2014999999999998</v>
       </c>
-      <c r="E62" s="56">
+      <c r="E62" s="55">
         <v>11.315799999999999</v>
       </c>
-      <c r="F62" s="50"/>
-      <c r="G62" s="56">
+      <c r="F62" s="55">
+        <v>3.78572</v>
+      </c>
+      <c r="G62" s="55">
         <v>0.30377300000000002</v>
       </c>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50">
+      <c r="H62" s="55">
+        <v>11.4245</v>
+      </c>
+      <c r="I62" s="55">
         <v>27.8551</v>
       </c>
-      <c r="J62" s="50">
+      <c r="J62" s="55">
         <v>1.5124599999999999</v>
       </c>
-      <c r="K62" s="50"/>
+      <c r="K62" s="55">
+        <v>0.27271699999999999</v>
+      </c>
       <c r="M62" s="4"/>
       <c r="O62" s="1">
         <v>8</v>
       </c>
-      <c r="P62" s="57">
+      <c r="P62" s="56">
         <v>227</v>
       </c>
-      <c r="Q62" s="57">
+      <c r="Q62" s="56">
         <v>254</v>
       </c>
-      <c r="R62" s="49"/>
-      <c r="S62" s="49"/>
-      <c r="T62" s="49"/>
-      <c r="U62" s="49">
+      <c r="R62" s="56">
+        <v>139</v>
+      </c>
+      <c r="S62" s="56">
+        <v>559</v>
+      </c>
+      <c r="T62" s="56">
+        <v>230</v>
+      </c>
+      <c r="U62" s="56">
         <v>72</v>
       </c>
-      <c r="V62" s="50"/>
-      <c r="W62" s="50">
+      <c r="V62" s="56">
+        <v>211</v>
+      </c>
+      <c r="W62" s="56">
         <v>207</v>
       </c>
-      <c r="X62" s="50">
+      <c r="X62" s="56">
         <v>288</v>
       </c>
-      <c r="Y62" s="50"/>
+      <c r="Y62" s="56">
+        <v>112</v>
+      </c>
     </row>
     <row r="63" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>9</v>
       </c>
-      <c r="B63" s="56">
+      <c r="B63" s="55">
         <v>565.20100000000002</v>
       </c>
-      <c r="C63" s="56">
+      <c r="C63" s="55">
         <v>14.2669</v>
       </c>
-      <c r="D63" s="56">
+      <c r="D63" s="55">
         <v>4.6919500000000003</v>
       </c>
-      <c r="E63" s="56">
+      <c r="E63" s="55">
         <v>12.3293</v>
       </c>
-      <c r="F63" s="50"/>
-      <c r="G63" s="56">
+      <c r="F63" s="55">
+        <v>8.7304200000000005</v>
+      </c>
+      <c r="G63" s="55">
         <v>0.38303500000000001</v>
       </c>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50">
+      <c r="H63" s="55">
+        <v>16.6342</v>
+      </c>
+      <c r="I63" s="55">
         <v>12.4886</v>
       </c>
-      <c r="J63" s="50">
+      <c r="J63" s="55">
         <v>2.1301299999999999</v>
       </c>
-      <c r="K63" s="50"/>
+      <c r="K63" s="55">
+        <v>3.8875E-2</v>
+      </c>
       <c r="M63" s="4"/>
       <c r="O63" s="1">
         <v>9</v>
       </c>
-      <c r="P63" s="57">
+      <c r="P63" s="56">
         <v>313</v>
       </c>
-      <c r="Q63" s="57">
+      <c r="Q63" s="56">
         <v>175</v>
       </c>
-      <c r="R63" s="49"/>
-      <c r="S63" s="49"/>
-      <c r="T63" s="49"/>
-      <c r="U63" s="49">
+      <c r="R63" s="56">
+        <v>196</v>
+      </c>
+      <c r="S63" s="56">
+        <v>367</v>
+      </c>
+      <c r="T63" s="56">
+        <v>208</v>
+      </c>
+      <c r="U63" s="56">
         <v>187</v>
       </c>
-      <c r="V63" s="49"/>
-      <c r="W63" s="49">
+      <c r="V63" s="56">
+        <v>176</v>
+      </c>
+      <c r="W63" s="56">
         <v>330</v>
       </c>
-      <c r="X63" s="49">
+      <c r="X63" s="56">
         <v>343</v>
       </c>
-      <c r="Y63" s="49"/>
+      <c r="Y63" s="56">
+        <v>132</v>
+      </c>
     </row>
     <row r="64" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B64" s="33">
-        <f t="shared" ref="B64:K64" si="4">AVERAGE(B54:B63)</f>
+        <f t="shared" ref="B64:J64" si="4">AVERAGE(B54:B63)</f>
         <v>119.25514779</v>
       </c>
       <c r="C64" s="34">
@@ -5487,17 +5742,17 @@
         <f t="shared" si="4"/>
         <v>22.018999999999998</v>
       </c>
-      <c r="F64" s="33" t="e">
+      <c r="F64" s="33">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>25.347223333333332</v>
       </c>
       <c r="G64" s="33">
         <f t="shared" si="4"/>
         <v>0.45594909999999994</v>
       </c>
-      <c r="H64" s="33" t="e">
+      <c r="H64" s="33">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>11.877791999999999</v>
       </c>
       <c r="I64" s="33">
         <f t="shared" si="4"/>
@@ -5507,9 +5762,9 @@
         <f t="shared" si="4"/>
         <v>1.4773641999999998</v>
       </c>
-      <c r="K64" s="33" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="K64" s="33">
+        <f>AVERAGE(K54:K63)</f>
+        <v>0.21883914000000004</v>
       </c>
       <c r="M64" s="4"/>
     </row>
@@ -5518,7 +5773,7 @@
         <v>20</v>
       </c>
       <c r="B65" s="21">
-        <f t="shared" ref="B65:K65" si="5">_xlfn.STDEV.P(B54:B63)</f>
+        <f t="shared" ref="B65:J65" si="5">_xlfn.STDEV.P(B54:B63)</f>
         <v>210.55084371985251</v>
       </c>
       <c r="C65" s="21">
@@ -5533,17 +5788,17 @@
         <f t="shared" si="5"/>
         <v>10.197231670703582</v>
       </c>
-      <c r="F65" s="21" t="e">
+      <c r="F65" s="21">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>37.160153806276007</v>
       </c>
       <c r="G65" s="21">
         <f t="shared" si="5"/>
         <v>0.10697375139018937</v>
       </c>
-      <c r="H65" s="21" t="e">
+      <c r="H65" s="21">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>4.6249010564309394</v>
       </c>
       <c r="I65" s="21">
         <f t="shared" si="5"/>
@@ -5553,9 +5808,9 @@
         <f t="shared" si="5"/>
         <v>0.57538831567365101</v>
       </c>
-      <c r="K65" s="21" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="K65" s="21">
+        <f>_xlfn.STDEV.P(K54:K63)</f>
+        <v>0.28360918163998916</v>
       </c>
       <c r="M65" s="4"/>
     </row>
@@ -5576,26 +5831,26 @@
         <v>10</v>
       </c>
       <c r="F66" s="19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G66" s="19">
         <v>10</v>
       </c>
       <c r="H66" s="19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I66" s="19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J66" s="20">
-        <v>0</v>
-      </c>
-      <c r="K66" s="32">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K66" s="61">
+        <v>10</v>
       </c>
       <c r="L66" s="32">
         <f>SUM(B66:K66)</f>
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="M66" s="4"/>
     </row>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A7F7CF-D072-4CA1-9C51-6363A2EFF550}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37BD44B-4243-4FF5-984D-17471AD65567}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="42">
   <si>
     <t>GVGAI level</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>FD (A*)</t>
+  </si>
+  <si>
+    <t>Loops</t>
   </si>
 </sst>
 </file>
@@ -3103,8 +3106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236E5864-7DE8-4BC8-BF4A-4C02356587BF}">
   <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,8 +3256,8 @@
       <c r="V3" s="48"/>
       <c r="W3" s="48"/>
       <c r="X3" s="48"/>
-      <c r="Y3" s="9">
-        <v>-1</v>
+      <c r="Y3" s="51">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -3288,9 +3291,7 @@
       <c r="V4" s="48"/>
       <c r="W4" s="48"/>
       <c r="X4" s="48"/>
-      <c r="Y4" s="9">
-        <v>-1</v>
-      </c>
+      <c r="Y4" s="48"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3347,7 +3348,9 @@
         <v>-1</v>
       </c>
       <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
+      <c r="T6" s="48" t="s">
+        <v>41</v>
+      </c>
       <c r="U6" s="48"/>
       <c r="V6" s="48"/>
       <c r="W6" s="9">
@@ -3478,7 +3481,7 @@
       <c r="V10" s="48"/>
       <c r="W10" s="48"/>
       <c r="X10" s="48"/>
-      <c r="Y10" s="48">
+      <c r="Y10" s="51">
         <v>1</v>
       </c>
     </row>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37BD44B-4243-4FF5-984D-17471AD65567}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655E6188-0C2F-4E68-ABDE-45F263ADBA0D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="43">
   <si>
     <t>GVGAI level</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Loops</t>
+  </si>
+  <si>
+    <t>Saarplan</t>
   </si>
 </sst>
 </file>
@@ -520,9 +523,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -557,6 +557,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3104,10 +3107,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236E5864-7DE8-4BC8-BF4A-4C02356587BF}">
-  <dimension ref="A1:Z68"/>
+  <dimension ref="A1:Z86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3150,7 +3153,7 @@
       <c r="V1" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="50" t="s">
+      <c r="X1" s="49" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3227,36 +3230,36 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="59"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="58"/>
       <c r="M3" s="4"/>
       <c r="O3" s="1">
         <v>0</v>
       </c>
-      <c r="P3" s="51">
+      <c r="P3" s="50">
         <v>1</v>
       </c>
       <c r="Q3" s="48"/>
-      <c r="R3" s="51">
+      <c r="R3" s="50">
         <v>5</v>
       </c>
       <c r="S3" s="48"/>
       <c r="T3" s="48"/>
-      <c r="U3" s="51">
+      <c r="U3" s="50">
         <v>1</v>
       </c>
       <c r="V3" s="48"/>
       <c r="W3" s="48"/>
       <c r="X3" s="48"/>
-      <c r="Y3" s="51">
+      <c r="Y3" s="50">
         <v>1</v>
       </c>
     </row>
@@ -3264,16 +3267,16 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="59"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="58"/>
       <c r="M4" s="4"/>
       <c r="O4" s="1">
         <v>1</v>
@@ -3285,7 +3288,7 @@
       </c>
       <c r="S4" s="48"/>
       <c r="T4" s="48"/>
-      <c r="U4" s="51">
+      <c r="U4" s="50">
         <v>1</v>
       </c>
       <c r="V4" s="48"/>
@@ -3297,16 +3300,16 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="59"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="58"/>
       <c r="M5" s="4"/>
       <c r="O5" s="1">
         <v>2</v>
@@ -3328,16 +3331,16 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="59"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="58"/>
       <c r="M6" s="4"/>
       <c r="O6" s="1">
         <v>3</v>
@@ -3356,7 +3359,7 @@
       <c r="W6" s="9">
         <v>-1</v>
       </c>
-      <c r="X6" s="51">
+      <c r="X6" s="50">
         <v>1</v>
       </c>
       <c r="Y6" s="48"/>
@@ -3365,33 +3368,33 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="59"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="58"/>
       <c r="M7" s="4"/>
       <c r="O7" s="1">
         <v>4</v>
       </c>
       <c r="P7" s="48"/>
       <c r="Q7" s="48"/>
-      <c r="R7" s="51">
+      <c r="R7" s="50">
         <v>3</v>
       </c>
       <c r="S7" s="48"/>
       <c r="T7" s="48"/>
       <c r="U7" s="48"/>
       <c r="V7" s="48"/>
-      <c r="W7" s="51">
+      <c r="W7" s="50">
         <v>1</v>
       </c>
-      <c r="X7" s="51">
+      <c r="X7" s="50">
         <v>1</v>
       </c>
       <c r="Y7" s="48"/>
@@ -3400,16 +3403,16 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="59"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="58"/>
       <c r="M8" s="4"/>
       <c r="O8" s="1">
         <v>5</v>
@@ -3429,16 +3432,16 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="59"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="58"/>
       <c r="M9" s="4"/>
       <c r="O9" s="1">
         <v>6</v>
@@ -3458,16 +3461,16 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="59"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="58"/>
       <c r="M10" s="4"/>
       <c r="O10" s="1">
         <v>7</v>
@@ -3481,7 +3484,7 @@
       <c r="V10" s="48"/>
       <c r="W10" s="48"/>
       <c r="X10" s="48"/>
-      <c r="Y10" s="51">
+      <c r="Y10" s="50">
         <v>1</v>
       </c>
     </row>
@@ -3489,16 +3492,16 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="59"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="58"/>
       <c r="M11" s="4"/>
       <c r="O11" s="1">
         <v>8</v>
@@ -3518,23 +3521,23 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="59"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="58"/>
       <c r="M12" s="4"/>
       <c r="O12" s="1">
         <v>9</v>
       </c>
       <c r="P12" s="48"/>
       <c r="Q12" s="48"/>
-      <c r="R12" s="51">
+      <c r="R12" s="50">
         <v>5</v>
       </c>
       <c r="S12" s="48"/>
@@ -3656,7 +3659,7 @@
       <c r="W17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="X17" s="58" t="s">
+      <c r="X17" s="57" t="s">
         <v>8</v>
       </c>
       <c r="Y17" s="16" t="s">
@@ -3667,44 +3670,44 @@
       <c r="A18" s="1">
         <v>0</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="50">
         <v>8.94</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="53">
+      <c r="D18" s="52">
         <v>505.53</v>
       </c>
-      <c r="E18" s="60"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="55">
+      <c r="G18" s="54">
         <v>295.70999999999998</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="60"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="59"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="55">
+      <c r="K18" s="54">
         <v>35.049999999999997</v>
       </c>
       <c r="M18" s="4"/>
       <c r="O18" s="1">
         <v>0</v>
       </c>
-      <c r="P18" s="53">
+      <c r="P18" s="52">
         <v>65</v>
       </c>
       <c r="Q18" s="9"/>
-      <c r="R18" s="53">
+      <c r="R18" s="52">
         <v>163</v>
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="56">
+      <c r="U18" s="55">
         <v>187</v>
       </c>
-      <c r="V18" s="48"/>
+      <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="13"/>
-      <c r="Y18" s="51">
+      <c r="Y18" s="50">
         <v>146</v>
       </c>
     </row>
@@ -3715,15 +3718,15 @@
       <c r="B19" s="46"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="60"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="55">
+      <c r="G19" s="54">
         <v>335.76</v>
       </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="60"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="59"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="55">
+      <c r="K19" s="54">
         <v>740.08</v>
       </c>
       <c r="M19" s="4"/>
@@ -3735,13 +3738,13 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
-      <c r="U19" s="56">
+      <c r="U19" s="55">
         <v>262</v>
       </c>
-      <c r="V19" s="48"/>
+      <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="13"/>
-      <c r="Y19" s="51">
+      <c r="Y19" s="50">
         <v>185</v>
       </c>
     </row>
@@ -3751,33 +3754,33 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="53">
+      <c r="D20" s="52">
         <v>258.99</v>
       </c>
-      <c r="E20" s="60"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="55">
+      <c r="G20" s="54">
         <v>885.99</v>
       </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="60"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="59"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="60"/>
+      <c r="K20" s="59"/>
       <c r="M20" s="4"/>
       <c r="O20" s="1">
         <v>2</v>
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
-      <c r="R20" s="53">
+      <c r="R20" s="52">
         <v>136</v>
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
-      <c r="U20" s="56">
+      <c r="U20" s="55">
         <v>364</v>
       </c>
-      <c r="V20" s="48"/>
+      <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="9"/>
@@ -3788,18 +3791,18 @@
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="55">
+      <c r="D21" s="53"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="54">
         <v>260.88</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="55">
+      <c r="H21" s="9"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="54">
         <v>377.76</v>
       </c>
-      <c r="K21" s="55">
+      <c r="K21" s="54">
         <v>56.53</v>
       </c>
       <c r="M21" s="4"/>
@@ -3808,18 +3811,18 @@
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
-      <c r="R21" s="54"/>
+      <c r="R21" s="53"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="51">
+      <c r="T21" s="50">
         <v>68</v>
       </c>
       <c r="U21" s="13"/>
-      <c r="V21" s="48"/>
+      <c r="V21" s="9"/>
       <c r="W21" s="9"/>
-      <c r="X21" s="56">
+      <c r="X21" s="55">
         <v>153</v>
       </c>
-      <c r="Y21" s="51">
+      <c r="Y21" s="50">
         <v>147</v>
       </c>
     </row>
@@ -3829,20 +3832,20 @@
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="53">
+      <c r="D22" s="52">
         <v>158.88</v>
       </c>
-      <c r="E22" s="60"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="55">
+      <c r="H22" s="10"/>
+      <c r="I22" s="54">
         <v>1.22</v>
       </c>
-      <c r="J22" s="55">
+      <c r="J22" s="54">
         <v>555.86</v>
       </c>
-      <c r="K22" s="55">
+      <c r="K22" s="54">
         <v>214.47</v>
       </c>
       <c r="M22" s="4"/>
@@ -3851,20 +3854,20 @@
       </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
-      <c r="R22" s="53">
+      <c r="R22" s="52">
         <v>98</v>
       </c>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="63">
+      <c r="U22" s="56"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="62">
         <v>38</v>
       </c>
-      <c r="X22" s="56">
+      <c r="X22" s="55">
         <v>133</v>
       </c>
-      <c r="Y22" s="63">
+      <c r="Y22" s="62">
         <v>181</v>
       </c>
     </row>
@@ -3874,35 +3877,35 @@
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="53">
+      <c r="D23" s="52">
         <v>385.23</v>
       </c>
-      <c r="E23" s="60"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="55">
+      <c r="G23" s="54">
         <v>507.3</v>
       </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="60"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="59"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="60"/>
+      <c r="K23" s="59"/>
       <c r="M23" s="4"/>
       <c r="O23" s="1">
         <v>5</v>
       </c>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
-      <c r="R23" s="53">
+      <c r="R23" s="52">
         <v>142</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
-      <c r="U23" s="56">
+      <c r="U23" s="55">
         <v>241</v>
       </c>
-      <c r="V23" s="49"/>
+      <c r="V23" s="10"/>
       <c r="W23" s="10"/>
-      <c r="X23" s="57"/>
+      <c r="X23" s="56"/>
       <c r="Y23" s="10"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -3911,20 +3914,20 @@
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="53">
+      <c r="D24" s="52">
         <v>266.64</v>
       </c>
-      <c r="E24" s="60"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="55">
+      <c r="G24" s="54">
         <v>215.17</v>
       </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="55">
+      <c r="H24" s="10"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="54">
         <v>124.26</v>
       </c>
-      <c r="K24" s="55">
+      <c r="K24" s="54">
         <v>20.56</v>
       </c>
       <c r="M24" s="4"/>
@@ -3933,20 +3936,20 @@
       </c>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="53">
+      <c r="R24" s="52">
         <v>93</v>
       </c>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
-      <c r="U24" s="56">
+      <c r="U24" s="55">
         <v>154</v>
       </c>
-      <c r="V24" s="49"/>
+      <c r="V24" s="10"/>
       <c r="W24" s="10"/>
-      <c r="X24" s="56">
+      <c r="X24" s="55">
         <v>118</v>
       </c>
-      <c r="Y24" s="63">
+      <c r="Y24" s="62">
         <v>124</v>
       </c>
     </row>
@@ -3956,20 +3959,20 @@
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="53">
+      <c r="D25" s="52">
         <v>205.66</v>
       </c>
-      <c r="E25" s="60"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="55">
+      <c r="G25" s="54">
         <v>366.21</v>
       </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="55">
+      <c r="H25" s="10"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="54">
         <v>710.67</v>
       </c>
-      <c r="K25" s="55">
+      <c r="K25" s="54">
         <v>1.07</v>
       </c>
       <c r="M25" s="4"/>
@@ -3978,20 +3981,20 @@
       </c>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
-      <c r="R25" s="53">
+      <c r="R25" s="52">
         <v>111</v>
       </c>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
-      <c r="U25" s="56">
+      <c r="U25" s="55">
         <v>199</v>
       </c>
-      <c r="V25" s="49"/>
+      <c r="V25" s="10"/>
       <c r="W25" s="10"/>
-      <c r="X25" s="56">
+      <c r="X25" s="55">
         <v>148</v>
       </c>
-      <c r="Y25" s="63">
+      <c r="Y25" s="62">
         <v>113</v>
       </c>
     </row>
@@ -4001,20 +4004,20 @@
       </c>
       <c r="B26" s="47"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="53">
+      <c r="D26" s="52">
         <v>63.19</v>
       </c>
-      <c r="E26" s="60"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="55">
+      <c r="G26" s="54">
         <v>4.3499999999999996</v>
       </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="55">
+      <c r="H26" s="10"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="54">
         <v>829.02</v>
       </c>
-      <c r="K26" s="55">
+      <c r="K26" s="54">
         <v>69.42</v>
       </c>
       <c r="M26" s="4"/>
@@ -4023,20 +4026,20 @@
       </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
-      <c r="R26" s="53">
+      <c r="R26" s="52">
         <v>106</v>
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
-      <c r="U26" s="56">
+      <c r="U26" s="55">
         <v>78</v>
       </c>
-      <c r="V26" s="49"/>
+      <c r="V26" s="10"/>
       <c r="W26" s="10"/>
-      <c r="X26" s="56">
+      <c r="X26" s="55">
         <v>258</v>
       </c>
-      <c r="Y26" s="63">
+      <c r="Y26" s="62">
         <v>94</v>
       </c>
     </row>
@@ -4046,20 +4049,20 @@
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="53">
+      <c r="D27" s="52">
         <v>252.04</v>
       </c>
-      <c r="E27" s="60"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="55">
+      <c r="G27" s="54">
         <v>347.65</v>
       </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="55">
+      <c r="H27" s="10"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="54">
         <v>850.38</v>
       </c>
-      <c r="K27" s="55">
+      <c r="K27" s="54">
         <v>60.34</v>
       </c>
       <c r="M27" s="4"/>
@@ -4068,20 +4071,20 @@
       </c>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
-      <c r="R27" s="53">
+      <c r="R27" s="52">
         <v>169</v>
       </c>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
-      <c r="U27" s="56">
+      <c r="U27" s="55">
         <v>187</v>
       </c>
-      <c r="V27" s="48"/>
+      <c r="V27" s="10"/>
       <c r="W27" s="9"/>
-      <c r="X27" s="56">
+      <c r="X27" s="55">
         <v>358</v>
       </c>
-      <c r="Y27" s="51">
+      <c r="Y27" s="50">
         <v>117</v>
       </c>
     </row>
@@ -4097,7 +4100,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="51">
         <f t="shared" si="0"/>
         <v>262.02000000000004</v>
       </c>
@@ -4208,7 +4211,7 @@
       <c r="J30" s="20">
         <v>6</v>
       </c>
-      <c r="K30" s="61">
+      <c r="K30" s="60">
         <v>8</v>
       </c>
       <c r="L30" s="32">
@@ -4341,41 +4344,41 @@
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="55">
+      <c r="D36" s="54">
         <v>4.5584199999999999</v>
       </c>
-      <c r="E36" s="55">
+      <c r="E36" s="54">
         <v>1.0730500000000001</v>
       </c>
       <c r="F36" s="9"/>
-      <c r="G36" s="55">
+      <c r="G36" s="54">
         <v>0.12731100000000001</v>
       </c>
-      <c r="H36" s="48"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="55">
+      <c r="H36" s="9"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="54">
         <v>0.11088199999999999</v>
       </c>
-      <c r="K36" s="60"/>
+      <c r="K36" s="59"/>
       <c r="M36" s="4"/>
       <c r="O36" s="1">
         <v>0</v>
       </c>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
-      <c r="R36" s="53">
+      <c r="R36" s="52">
         <v>142</v>
       </c>
-      <c r="S36" s="51">
+      <c r="S36" s="50">
         <v>307</v>
       </c>
       <c r="T36" s="9"/>
-      <c r="U36" s="56">
+      <c r="U36" s="55">
         <v>187</v>
       </c>
-      <c r="V36" s="48"/>
+      <c r="V36" s="9"/>
       <c r="W36" s="9"/>
-      <c r="X36" s="56">
+      <c r="X36" s="55">
         <v>153</v>
       </c>
       <c r="Y36" s="9"/>
@@ -4386,41 +4389,41 @@
       </c>
       <c r="B37" s="46"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="55">
+      <c r="D37" s="54">
         <v>369.37900000000002</v>
       </c>
-      <c r="E37" s="55">
+      <c r="E37" s="54">
         <v>1.17469</v>
       </c>
       <c r="F37" s="9"/>
-      <c r="G37" s="55">
+      <c r="G37" s="54">
         <v>0.137241</v>
       </c>
-      <c r="H37" s="48"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="55">
+      <c r="H37" s="9"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="54">
         <v>0.114484</v>
       </c>
-      <c r="K37" s="60"/>
+      <c r="K37" s="59"/>
       <c r="M37" s="4"/>
       <c r="O37" s="1">
         <v>1</v>
       </c>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
-      <c r="R37" s="53">
+      <c r="R37" s="52">
         <v>175</v>
       </c>
-      <c r="S37" s="51">
+      <c r="S37" s="50">
         <v>532</v>
       </c>
       <c r="T37" s="9"/>
-      <c r="U37" s="56">
+      <c r="U37" s="55">
         <v>238</v>
       </c>
-      <c r="V37" s="48"/>
+      <c r="V37" s="9"/>
       <c r="W37" s="9"/>
-      <c r="X37" s="56">
+      <c r="X37" s="55">
         <v>208</v>
       </c>
       <c r="Y37" s="9"/>
@@ -4431,41 +4434,41 @@
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="55">
+      <c r="D38" s="54">
         <v>244.98400000000001</v>
       </c>
-      <c r="E38" s="55">
+      <c r="E38" s="54">
         <v>1.0177700000000001</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="55">
+      <c r="G38" s="54">
         <v>0.145514</v>
       </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="55">
+      <c r="H38" s="9"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="54">
         <v>0.115649</v>
       </c>
-      <c r="K38" s="60"/>
+      <c r="K38" s="59"/>
       <c r="M38" s="4"/>
       <c r="O38" s="1">
         <v>2</v>
       </c>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
-      <c r="R38" s="53">
+      <c r="R38" s="52">
         <v>130</v>
       </c>
-      <c r="S38" s="51">
+      <c r="S38" s="50">
         <v>346</v>
       </c>
       <c r="T38" s="9"/>
-      <c r="U38" s="56">
+      <c r="U38" s="55">
         <v>256</v>
       </c>
-      <c r="V38" s="48"/>
+      <c r="V38" s="9"/>
       <c r="W38" s="9"/>
-      <c r="X38" s="56">
+      <c r="X38" s="55">
         <v>208</v>
       </c>
       <c r="Y38" s="9"/>
@@ -4476,41 +4479,41 @@
       </c>
       <c r="B39" s="46"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="55">
+      <c r="D39" s="54">
         <v>88.552000000000007</v>
       </c>
-      <c r="E39" s="55">
+      <c r="E39" s="54">
         <v>1.0498099999999999</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="55">
+      <c r="G39" s="54">
         <v>0.13156599999999999</v>
       </c>
-      <c r="H39" s="48"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="55">
+      <c r="H39" s="9"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="54">
         <v>8.8751200000000002E-2</v>
       </c>
-      <c r="K39" s="60"/>
+      <c r="K39" s="59"/>
       <c r="M39" s="4"/>
       <c r="O39" s="1">
         <v>3</v>
       </c>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
-      <c r="R39" s="53">
+      <c r="R39" s="52">
         <v>134</v>
       </c>
-      <c r="S39" s="51">
+      <c r="S39" s="50">
         <v>493</v>
       </c>
       <c r="T39" s="9"/>
-      <c r="U39" s="56">
+      <c r="U39" s="55">
         <v>208</v>
       </c>
-      <c r="V39" s="48"/>
+      <c r="V39" s="9"/>
       <c r="W39" s="9"/>
-      <c r="X39" s="56">
+      <c r="X39" s="55">
         <v>148</v>
       </c>
       <c r="Y39" s="9"/>
@@ -4521,41 +4524,41 @@
       </c>
       <c r="B40" s="47"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="55">
+      <c r="D40" s="54">
         <v>3.7271200000000002</v>
       </c>
-      <c r="E40" s="55">
+      <c r="E40" s="54">
         <v>1.1207400000000001</v>
       </c>
       <c r="F40" s="10"/>
-      <c r="G40" s="55">
+      <c r="G40" s="54">
         <v>0.16553699999999999</v>
       </c>
-      <c r="H40" s="49"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="55">
+      <c r="H40" s="10"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="54">
         <v>8.2298700000000002E-2</v>
       </c>
-      <c r="K40" s="60"/>
+      <c r="K40" s="59"/>
       <c r="M40" s="4"/>
       <c r="O40" s="1">
         <v>4</v>
       </c>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
-      <c r="R40" s="53">
+      <c r="R40" s="52">
         <v>89</v>
       </c>
-      <c r="S40" s="51">
+      <c r="S40" s="50">
         <v>445</v>
       </c>
       <c r="T40" s="10"/>
-      <c r="U40" s="56">
+      <c r="U40" s="55">
         <v>379</v>
       </c>
-      <c r="V40" s="49"/>
+      <c r="V40" s="10"/>
       <c r="W40" s="10"/>
-      <c r="X40" s="56">
+      <c r="X40" s="55">
         <v>118</v>
       </c>
       <c r="Y40" s="10"/>
@@ -4566,41 +4569,41 @@
       </c>
       <c r="B41" s="47"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="55">
+      <c r="D41" s="54">
         <v>0.64394700000000005</v>
       </c>
-      <c r="E41" s="55">
+      <c r="E41" s="54">
         <v>1.01284</v>
       </c>
       <c r="F41" s="10"/>
-      <c r="G41" s="55">
+      <c r="G41" s="54">
         <v>0.11219999999999999</v>
       </c>
-      <c r="H41" s="49"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="55">
+      <c r="H41" s="10"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="54">
         <v>0.11194</v>
       </c>
-      <c r="K41" s="60"/>
+      <c r="K41" s="59"/>
       <c r="M41" s="4"/>
       <c r="O41" s="1">
         <v>5</v>
       </c>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
-      <c r="R41" s="53">
+      <c r="R41" s="52">
         <v>103</v>
       </c>
-      <c r="S41" s="51">
+      <c r="S41" s="50">
         <v>310</v>
       </c>
       <c r="T41" s="10"/>
-      <c r="U41" s="56">
+      <c r="U41" s="55">
         <v>199</v>
       </c>
-      <c r="V41" s="49"/>
+      <c r="V41" s="10"/>
       <c r="W41" s="10"/>
-      <c r="X41" s="56">
+      <c r="X41" s="55">
         <v>148</v>
       </c>
       <c r="Y41" s="10"/>
@@ -4611,41 +4614,41 @@
       </c>
       <c r="B42" s="47"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="55">
+      <c r="D42" s="54">
         <v>0.41857299999999997</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E42" s="54">
         <v>1.3957900000000001</v>
       </c>
       <c r="F42" s="10"/>
-      <c r="G42" s="55">
+      <c r="G42" s="54">
         <v>0.108722</v>
       </c>
-      <c r="H42" s="49"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="55">
+      <c r="H42" s="10"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="54">
         <v>9.5584500000000003E-2</v>
       </c>
-      <c r="K42" s="60"/>
+      <c r="K42" s="59"/>
       <c r="M42" s="4"/>
       <c r="O42" s="1">
         <v>6</v>
       </c>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
-      <c r="R42" s="53">
+      <c r="R42" s="52">
         <v>93</v>
       </c>
-      <c r="S42" s="51">
+      <c r="S42" s="50">
         <v>316</v>
       </c>
       <c r="T42" s="10"/>
-      <c r="U42" s="56">
+      <c r="U42" s="55">
         <v>154</v>
       </c>
-      <c r="V42" s="49"/>
+      <c r="V42" s="10"/>
       <c r="W42" s="10"/>
-      <c r="X42" s="56">
+      <c r="X42" s="55">
         <v>98</v>
       </c>
       <c r="Y42" s="10"/>
@@ -4656,41 +4659,41 @@
       </c>
       <c r="B43" s="47"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="55">
+      <c r="D43" s="54">
         <v>0.33063700000000001</v>
       </c>
-      <c r="E43" s="55">
+      <c r="E43" s="54">
         <v>1.03054</v>
       </c>
       <c r="F43" s="10"/>
-      <c r="G43" s="55">
+      <c r="G43" s="54">
         <v>0.106403</v>
       </c>
-      <c r="H43" s="49"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="55">
+      <c r="H43" s="10"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="54">
         <v>0.10772</v>
       </c>
-      <c r="K43" s="60"/>
+      <c r="K43" s="59"/>
       <c r="M43" s="4"/>
       <c r="O43" s="1">
         <v>7</v>
       </c>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
-      <c r="R43" s="53">
+      <c r="R43" s="52">
         <v>99</v>
       </c>
-      <c r="S43" s="51">
+      <c r="S43" s="50">
         <v>505</v>
       </c>
       <c r="T43" s="10"/>
-      <c r="U43" s="56">
+      <c r="U43" s="55">
         <v>199</v>
       </c>
-      <c r="V43" s="49"/>
+      <c r="V43" s="10"/>
       <c r="W43" s="10"/>
-      <c r="X43" s="56">
+      <c r="X43" s="55">
         <v>138</v>
       </c>
       <c r="Y43" s="10"/>
@@ -4701,22 +4704,22 @@
       </c>
       <c r="B44" s="47"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="55">
+      <c r="D44" s="54">
         <v>0.33985700000000002</v>
       </c>
-      <c r="E44" s="55">
+      <c r="E44" s="54">
         <v>0.99276699999999996</v>
       </c>
       <c r="F44" s="10"/>
-      <c r="G44" s="55">
+      <c r="G44" s="54">
         <v>7.9479599999999997E-2</v>
       </c>
-      <c r="H44" s="49"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="55">
+      <c r="H44" s="10"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="54">
         <v>0.11412799999999999</v>
       </c>
-      <c r="K44" s="55">
+      <c r="K44" s="54">
         <v>4.3423600000000002</v>
       </c>
       <c r="M44" s="4"/>
@@ -4725,22 +4728,22 @@
       </c>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
-      <c r="R44" s="53">
+      <c r="R44" s="52">
         <v>106</v>
       </c>
-      <c r="S44" s="51">
+      <c r="S44" s="50">
         <v>550</v>
       </c>
       <c r="T44" s="10"/>
-      <c r="U44" s="56">
+      <c r="U44" s="55">
         <v>72</v>
       </c>
-      <c r="V44" s="49"/>
+      <c r="V44" s="10"/>
       <c r="W44" s="10"/>
-      <c r="X44" s="56">
+      <c r="X44" s="55">
         <v>258</v>
       </c>
-      <c r="Y44" s="63">
+      <c r="Y44" s="62">
         <v>88</v>
       </c>
     </row>
@@ -4750,41 +4753,41 @@
       </c>
       <c r="B45" s="47"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="55">
+      <c r="D45" s="54">
         <v>0.54566099999999995</v>
       </c>
-      <c r="E45" s="55">
+      <c r="E45" s="54">
         <v>0.94031600000000004</v>
       </c>
       <c r="F45" s="10"/>
-      <c r="G45" s="55">
+      <c r="G45" s="54">
         <v>7.1677299999999999E-2</v>
       </c>
-      <c r="H45" s="49"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="55">
+      <c r="H45" s="10"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="54">
         <v>0.15307000000000001</v>
       </c>
-      <c r="K45" s="60"/>
+      <c r="K45" s="59"/>
       <c r="M45" s="4"/>
       <c r="O45" s="1">
         <v>9</v>
       </c>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
-      <c r="R45" s="53">
+      <c r="R45" s="52">
         <v>136</v>
       </c>
-      <c r="S45" s="51">
+      <c r="S45" s="50">
         <v>289</v>
       </c>
-      <c r="T45" s="10"/>
-      <c r="U45" s="56">
+      <c r="T45" s="9"/>
+      <c r="U45" s="55">
         <v>187</v>
       </c>
-      <c r="V45" s="48"/>
+      <c r="V45" s="9"/>
       <c r="W45" s="9"/>
-      <c r="X45" s="56">
+      <c r="X45" s="55">
         <v>358</v>
       </c>
       <c r="Y45" s="9"/>
@@ -4912,7 +4915,7 @@
       <c r="J48" s="20">
         <v>10</v>
       </c>
-      <c r="K48" s="61">
+      <c r="K48" s="60">
         <v>1</v>
       </c>
       <c r="L48" s="32">
@@ -5043,68 +5046,68 @@
       <c r="A54" s="1">
         <v>0</v>
       </c>
-      <c r="B54" s="55">
+      <c r="B54" s="54">
         <v>1.12389E-2</v>
       </c>
-      <c r="C54" s="55">
+      <c r="C54" s="54">
         <v>42.491300000000003</v>
       </c>
-      <c r="D54" s="55">
+      <c r="D54" s="54">
         <v>6.0726300000000002</v>
       </c>
-      <c r="E54" s="55">
+      <c r="E54" s="54">
         <v>18.004999999999999</v>
       </c>
-      <c r="F54" s="55">
+      <c r="F54" s="54">
         <v>12.0899</v>
       </c>
-      <c r="G54" s="55">
+      <c r="G54" s="54">
         <v>0.47940199999999999</v>
       </c>
-      <c r="H54" s="55">
+      <c r="H54" s="54">
         <v>11.3604</v>
       </c>
-      <c r="I54" s="55">
+      <c r="I54" s="54">
         <v>275.714</v>
       </c>
-      <c r="J54" s="55">
+      <c r="J54" s="54">
         <v>2.0734300000000001</v>
       </c>
-      <c r="K54" s="55">
+      <c r="K54" s="54">
         <v>0.53345100000000001</v>
       </c>
       <c r="M54" s="4"/>
       <c r="O54" s="1">
         <v>0</v>
       </c>
-      <c r="P54" s="56">
+      <c r="P54" s="55">
         <v>21</v>
       </c>
-      <c r="Q54" s="56">
+      <c r="Q54" s="55">
         <v>258</v>
       </c>
-      <c r="R54" s="56">
+      <c r="R54" s="55">
         <v>178</v>
       </c>
-      <c r="S54" s="56">
+      <c r="S54" s="55">
         <v>355</v>
       </c>
-      <c r="T54" s="56">
+      <c r="T54" s="55">
         <v>350</v>
       </c>
-      <c r="U54" s="56">
+      <c r="U54" s="55">
         <v>187</v>
       </c>
-      <c r="V54" s="56">
+      <c r="V54" s="55">
         <v>173</v>
       </c>
-      <c r="W54" s="56">
+      <c r="W54" s="55">
         <v>353</v>
       </c>
-      <c r="X54" s="56">
+      <c r="X54" s="55">
         <v>243</v>
       </c>
-      <c r="Y54" s="56">
+      <c r="Y54" s="55">
         <v>140</v>
       </c>
     </row>
@@ -5112,68 +5115,68 @@
       <c r="A55" s="1">
         <v>1</v>
       </c>
-      <c r="B55" s="55">
+      <c r="B55" s="54">
         <v>6.6536600000000004</v>
       </c>
-      <c r="C55" s="55">
+      <c r="C55" s="54">
         <v>30.741700000000002</v>
       </c>
-      <c r="D55" s="55">
+      <c r="D55" s="54">
         <v>10.238099999999999</v>
       </c>
-      <c r="E55" s="55">
+      <c r="E55" s="54">
         <v>44.814300000000003</v>
       </c>
-      <c r="F55" s="55">
+      <c r="F55" s="54">
         <v>34.728400000000001</v>
       </c>
-      <c r="G55" s="55">
+      <c r="G55" s="54">
         <v>0.38312600000000002</v>
       </c>
-      <c r="H55" s="55">
+      <c r="H55" s="54">
         <v>13.377700000000001</v>
       </c>
-      <c r="I55" s="55">
+      <c r="I55" s="54">
         <v>69.224100000000007</v>
       </c>
-      <c r="J55" s="55">
+      <c r="J55" s="54">
         <v>2.52434</v>
       </c>
-      <c r="K55" s="55">
+      <c r="K55" s="54">
         <v>7.9037099999999999E-2</v>
       </c>
       <c r="M55" s="4"/>
       <c r="O55" s="1">
         <v>1</v>
       </c>
-      <c r="P55" s="56">
+      <c r="P55" s="55">
         <v>121</v>
       </c>
-      <c r="Q55" s="56">
+      <c r="Q55" s="55">
         <v>208</v>
       </c>
-      <c r="R55" s="56">
+      <c r="R55" s="55">
         <v>397</v>
       </c>
-      <c r="S55" s="56">
+      <c r="S55" s="55">
         <v>607</v>
       </c>
-      <c r="T55" s="56">
+      <c r="T55" s="55">
         <v>339</v>
       </c>
-      <c r="U55" s="56">
+      <c r="U55" s="55">
         <v>238</v>
       </c>
-      <c r="V55" s="56">
+      <c r="V55" s="55">
         <v>177</v>
       </c>
-      <c r="W55" s="56">
+      <c r="W55" s="55">
         <v>208</v>
       </c>
-      <c r="X55" s="56">
+      <c r="X55" s="55">
         <v>223</v>
       </c>
-      <c r="Y55" s="56">
+      <c r="Y55" s="55">
         <v>185</v>
       </c>
     </row>
@@ -5181,68 +5184,68 @@
       <c r="A56" s="1">
         <v>2</v>
       </c>
-      <c r="B56" s="55">
+      <c r="B56" s="54">
         <v>0.16361800000000001</v>
       </c>
-      <c r="C56" s="55">
+      <c r="C56" s="54">
         <v>25.808399999999999</v>
       </c>
-      <c r="D56" s="55">
+      <c r="D56" s="54">
         <v>8.8827600000000007E-2</v>
       </c>
-      <c r="E56" s="55">
+      <c r="E56" s="54">
         <v>19.5749</v>
       </c>
-      <c r="F56" s="55">
+      <c r="F56" s="54">
         <v>126.414</v>
       </c>
-      <c r="G56" s="55">
+      <c r="G56" s="54">
         <v>0.50300400000000001</v>
       </c>
-      <c r="H56" s="55">
+      <c r="H56" s="54">
         <v>10.3215</v>
       </c>
-      <c r="I56" s="55">
+      <c r="I56" s="54">
         <v>14.936400000000001</v>
       </c>
-      <c r="J56" s="55">
+      <c r="J56" s="54">
         <v>1.3243</v>
       </c>
-      <c r="K56" s="55">
+      <c r="K56" s="54">
         <v>0.94615700000000003</v>
       </c>
       <c r="M56" s="4"/>
       <c r="O56" s="1">
         <v>2</v>
       </c>
-      <c r="P56" s="56">
+      <c r="P56" s="55">
         <v>42</v>
       </c>
-      <c r="Q56" s="56">
+      <c r="Q56" s="55">
         <v>175</v>
       </c>
-      <c r="R56" s="56">
+      <c r="R56" s="55">
         <v>148</v>
       </c>
-      <c r="S56" s="56">
+      <c r="S56" s="55">
         <v>541</v>
       </c>
-      <c r="T56" s="56">
+      <c r="T56" s="55">
         <v>671</v>
       </c>
-      <c r="U56" s="56">
+      <c r="U56" s="55">
         <v>256</v>
       </c>
-      <c r="V56" s="56">
+      <c r="V56" s="55">
         <v>196</v>
       </c>
-      <c r="W56" s="56">
+      <c r="W56" s="55">
         <v>148</v>
       </c>
-      <c r="X56" s="56">
+      <c r="X56" s="55">
         <v>258</v>
       </c>
-      <c r="Y56" s="56">
+      <c r="Y56" s="55">
         <v>211</v>
       </c>
     </row>
@@ -5250,68 +5253,68 @@
       <c r="A57" s="1">
         <v>3</v>
       </c>
-      <c r="B57" s="55">
+      <c r="B57" s="54">
         <v>17.5992</v>
       </c>
-      <c r="C57" s="55">
+      <c r="C57" s="54">
         <v>49.455800000000004</v>
       </c>
-      <c r="D57" s="55">
+      <c r="D57" s="54">
         <v>9.7938299999999998</v>
       </c>
-      <c r="E57" s="55">
+      <c r="E57" s="54">
         <v>18.940899999999999</v>
       </c>
-      <c r="F57" s="55">
+      <c r="F57" s="54">
         <v>1.05467</v>
       </c>
-      <c r="G57" s="55">
+      <c r="G57" s="54">
         <v>0.54791000000000001</v>
       </c>
-      <c r="H57" s="55">
+      <c r="H57" s="54">
         <v>12.2889</v>
       </c>
-      <c r="I57" s="55">
+      <c r="I57" s="54">
         <v>0.18924099999999999</v>
       </c>
-      <c r="J57" s="55">
+      <c r="J57" s="54">
         <v>1.43055</v>
       </c>
-      <c r="K57" s="55">
+      <c r="K57" s="54">
         <v>7.2814100000000007E-2</v>
       </c>
       <c r="M57" s="4"/>
       <c r="O57" s="1">
         <v>3</v>
       </c>
-      <c r="P57" s="56">
+      <c r="P57" s="55">
         <v>82</v>
       </c>
-      <c r="Q57" s="56">
+      <c r="Q57" s="55">
         <v>349</v>
       </c>
-      <c r="R57" s="56">
+      <c r="R57" s="55">
         <v>236</v>
       </c>
-      <c r="S57" s="56">
+      <c r="S57" s="55">
         <v>490</v>
       </c>
-      <c r="T57" s="56">
+      <c r="T57" s="55">
         <v>62</v>
       </c>
-      <c r="U57" s="56">
+      <c r="U57" s="55">
         <v>208</v>
       </c>
-      <c r="V57" s="56">
+      <c r="V57" s="55">
         <v>212</v>
       </c>
-      <c r="W57" s="56">
+      <c r="W57" s="55">
         <v>57</v>
       </c>
-      <c r="X57" s="56">
+      <c r="X57" s="55">
         <v>253</v>
       </c>
-      <c r="Y57" s="56">
+      <c r="Y57" s="55">
         <v>123</v>
       </c>
     </row>
@@ -5319,64 +5322,64 @@
       <c r="A58" s="24">
         <v>4</v>
       </c>
-      <c r="B58" s="55">
+      <c r="B58" s="54">
         <v>29.069099999999999</v>
       </c>
-      <c r="C58" s="55">
+      <c r="C58" s="54">
         <v>2.6156700000000002</v>
       </c>
-      <c r="D58" s="55">
+      <c r="D58" s="54">
         <v>6.22377</v>
       </c>
-      <c r="E58" s="55">
+      <c r="E58" s="54">
         <v>13.1508</v>
       </c>
-      <c r="F58" s="60"/>
-      <c r="G58" s="55">
+      <c r="F58" s="59"/>
+      <c r="G58" s="54">
         <v>0.70573300000000005</v>
       </c>
-      <c r="H58" s="55">
+      <c r="H58" s="54">
         <v>0.52202000000000004</v>
       </c>
-      <c r="I58" s="55">
+      <c r="I58" s="54">
         <v>6.9745100000000004E-2</v>
       </c>
-      <c r="J58" s="55">
+      <c r="J58" s="54">
         <v>0.73257499999999998</v>
       </c>
-      <c r="K58" s="55">
+      <c r="K58" s="54">
         <v>8.7135099999999993E-2</v>
       </c>
       <c r="M58" s="4"/>
       <c r="O58" s="1">
         <v>4</v>
       </c>
-      <c r="P58" s="56">
+      <c r="P58" s="55">
         <v>137</v>
       </c>
-      <c r="Q58" s="56">
+      <c r="Q58" s="55">
         <v>102</v>
       </c>
-      <c r="R58" s="56">
+      <c r="R58" s="55">
         <v>158</v>
       </c>
-      <c r="S58" s="56">
+      <c r="S58" s="55">
         <v>472</v>
       </c>
-      <c r="T58" s="62"/>
-      <c r="U58" s="56">
+      <c r="T58" s="61"/>
+      <c r="U58" s="55">
         <v>379</v>
       </c>
-      <c r="V58" s="56">
+      <c r="V58" s="55">
         <v>86</v>
       </c>
-      <c r="W58" s="56">
+      <c r="W58" s="55">
         <v>29</v>
       </c>
-      <c r="X58" s="56">
+      <c r="X58" s="55">
         <v>133</v>
       </c>
-      <c r="Y58" s="56">
+      <c r="Y58" s="55">
         <v>172</v>
       </c>
     </row>
@@ -5384,68 +5387,68 @@
       <c r="A59" s="24">
         <v>5</v>
       </c>
-      <c r="B59" s="55">
+      <c r="B59" s="54">
         <v>0.132461</v>
       </c>
-      <c r="C59" s="55">
+      <c r="C59" s="54">
         <v>15.929600000000001</v>
       </c>
-      <c r="D59" s="55">
+      <c r="D59" s="54">
         <v>4.43478E-2</v>
       </c>
-      <c r="E59" s="55">
+      <c r="E59" s="54">
         <v>35.987299999999998</v>
       </c>
-      <c r="F59" s="55">
+      <c r="F59" s="54">
         <v>18.217300000000002</v>
       </c>
-      <c r="G59" s="55">
+      <c r="G59" s="54">
         <v>0.43384499999999998</v>
       </c>
-      <c r="H59" s="55">
+      <c r="H59" s="54">
         <v>12.176</v>
       </c>
-      <c r="I59" s="55">
+      <c r="I59" s="54">
         <v>246.53399999999999</v>
       </c>
-      <c r="J59" s="55">
+      <c r="J59" s="54">
         <v>0.83743500000000004</v>
       </c>
-      <c r="K59" s="55">
+      <c r="K59" s="54">
         <v>5.3616999999999998E-2</v>
       </c>
       <c r="M59" s="4"/>
       <c r="O59" s="1">
         <v>5</v>
       </c>
-      <c r="P59" s="56">
+      <c r="P59" s="55">
         <v>77</v>
       </c>
-      <c r="Q59" s="56">
+      <c r="Q59" s="55">
         <v>163</v>
       </c>
-      <c r="R59" s="56">
+      <c r="R59" s="55">
         <v>148</v>
       </c>
-      <c r="S59" s="56">
+      <c r="S59" s="55">
         <v>460</v>
       </c>
-      <c r="T59" s="56">
+      <c r="T59" s="55">
         <v>181</v>
       </c>
-      <c r="U59" s="56">
+      <c r="U59" s="55">
         <v>199</v>
       </c>
-      <c r="V59" s="56">
+      <c r="V59" s="55">
         <v>136</v>
       </c>
-      <c r="W59" s="56">
+      <c r="W59" s="55">
         <v>193</v>
       </c>
-      <c r="X59" s="56">
+      <c r="X59" s="55">
         <v>163</v>
       </c>
-      <c r="Y59" s="56">
+      <c r="Y59" s="55">
         <v>157</v>
       </c>
     </row>
@@ -5453,68 +5456,68 @@
       <c r="A60" s="24">
         <v>6</v>
       </c>
-      <c r="B60" s="55">
+      <c r="B60" s="54">
         <v>40.249200000000002</v>
       </c>
-      <c r="C60" s="55">
+      <c r="C60" s="54">
         <v>23.0289</v>
       </c>
-      <c r="D60" s="55">
+      <c r="D60" s="54">
         <v>4.2488100000000001E-2</v>
       </c>
-      <c r="E60" s="55">
+      <c r="E60" s="54">
         <v>21.556999999999999</v>
       </c>
-      <c r="F60" s="55">
+      <c r="F60" s="54">
         <v>1.8813</v>
       </c>
-      <c r="G60" s="55">
+      <c r="G60" s="54">
         <v>0.44375300000000001</v>
       </c>
-      <c r="H60" s="55">
+      <c r="H60" s="54">
         <v>19.398</v>
       </c>
-      <c r="I60" s="55">
+      <c r="I60" s="54">
         <v>130.51599999999999</v>
       </c>
-      <c r="J60" s="55">
+      <c r="J60" s="54">
         <v>1.39022</v>
       </c>
-      <c r="K60" s="55">
+      <c r="K60" s="54">
         <v>5.9117000000000003E-2</v>
       </c>
       <c r="M60" s="4"/>
       <c r="O60" s="1">
         <v>6</v>
       </c>
-      <c r="P60" s="56">
+      <c r="P60" s="55">
         <v>327</v>
       </c>
-      <c r="Q60" s="56">
+      <c r="Q60" s="55">
         <v>203</v>
       </c>
-      <c r="R60" s="56">
+      <c r="R60" s="55">
         <v>135</v>
       </c>
-      <c r="S60" s="56">
+      <c r="S60" s="55">
         <v>343</v>
       </c>
-      <c r="T60" s="56">
+      <c r="T60" s="55">
         <v>120</v>
       </c>
-      <c r="U60" s="56">
+      <c r="U60" s="55">
         <v>154</v>
       </c>
-      <c r="V60" s="56">
+      <c r="V60" s="55">
         <v>173</v>
       </c>
-      <c r="W60" s="56">
+      <c r="W60" s="55">
         <v>308</v>
       </c>
-      <c r="X60" s="56">
+      <c r="X60" s="55">
         <v>128</v>
       </c>
-      <c r="Y60" s="56">
+      <c r="Y60" s="55">
         <v>136</v>
       </c>
     </row>
@@ -5522,68 +5525,68 @@
       <c r="A61" s="24">
         <v>7</v>
       </c>
-      <c r="B61" s="55">
+      <c r="B61" s="54">
         <v>512.66999999999996</v>
       </c>
-      <c r="C61" s="55">
+      <c r="C61" s="54">
         <v>11.9932</v>
       </c>
-      <c r="D61" s="55">
+      <c r="D61" s="54">
         <v>4.3576899999999998</v>
       </c>
-      <c r="E61" s="55">
+      <c r="E61" s="54">
         <v>24.514700000000001</v>
       </c>
-      <c r="F61" s="55">
+      <c r="F61" s="54">
         <v>21.223299999999998</v>
       </c>
-      <c r="G61" s="55">
+      <c r="G61" s="54">
         <v>0.37591000000000002</v>
       </c>
-      <c r="H61" s="55">
+      <c r="H61" s="54">
         <v>11.274699999999999</v>
       </c>
-      <c r="I61" s="55">
+      <c r="I61" s="54">
         <v>10.2547</v>
       </c>
-      <c r="J61" s="55">
+      <c r="J61" s="54">
         <v>0.81820199999999998</v>
       </c>
-      <c r="K61" s="55">
+      <c r="K61" s="54">
         <v>4.54711E-2</v>
       </c>
       <c r="M61" s="4"/>
       <c r="O61" s="1">
         <v>7</v>
       </c>
-      <c r="P61" s="56">
+      <c r="P61" s="55">
         <v>336</v>
       </c>
-      <c r="Q61" s="56">
+      <c r="Q61" s="55">
         <v>227</v>
       </c>
-      <c r="R61" s="56">
+      <c r="R61" s="55">
         <v>99</v>
       </c>
-      <c r="S61" s="56">
+      <c r="S61" s="55">
         <v>526</v>
       </c>
-      <c r="T61" s="56">
+      <c r="T61" s="55">
         <v>165</v>
       </c>
-      <c r="U61" s="56">
+      <c r="U61" s="55">
         <v>199</v>
       </c>
-      <c r="V61" s="56">
+      <c r="V61" s="55">
         <v>191</v>
       </c>
-      <c r="W61" s="56">
+      <c r="W61" s="55">
         <v>212</v>
       </c>
-      <c r="X61" s="56">
+      <c r="X61" s="55">
         <v>148</v>
       </c>
-      <c r="Y61" s="56">
+      <c r="Y61" s="55">
         <v>191</v>
       </c>
     </row>
@@ -5591,68 +5594,68 @@
       <c r="A62" s="24">
         <v>8</v>
       </c>
-      <c r="B62" s="55">
+      <c r="B62" s="54">
         <v>20.802</v>
       </c>
-      <c r="C62" s="55">
+      <c r="C62" s="54">
         <v>12.725</v>
       </c>
-      <c r="D62" s="55">
+      <c r="D62" s="54">
         <v>3.2014999999999998</v>
       </c>
-      <c r="E62" s="55">
+      <c r="E62" s="54">
         <v>11.315799999999999</v>
       </c>
-      <c r="F62" s="55">
+      <c r="F62" s="54">
         <v>3.78572</v>
       </c>
-      <c r="G62" s="55">
+      <c r="G62" s="54">
         <v>0.30377300000000002</v>
       </c>
-      <c r="H62" s="55">
+      <c r="H62" s="54">
         <v>11.4245</v>
       </c>
-      <c r="I62" s="55">
+      <c r="I62" s="54">
         <v>27.8551</v>
       </c>
-      <c r="J62" s="55">
+      <c r="J62" s="54">
         <v>1.5124599999999999</v>
       </c>
-      <c r="K62" s="55">
+      <c r="K62" s="54">
         <v>0.27271699999999999</v>
       </c>
       <c r="M62" s="4"/>
       <c r="O62" s="1">
         <v>8</v>
       </c>
-      <c r="P62" s="56">
+      <c r="P62" s="55">
         <v>227</v>
       </c>
-      <c r="Q62" s="56">
+      <c r="Q62" s="55">
         <v>254</v>
       </c>
-      <c r="R62" s="56">
+      <c r="R62" s="55">
         <v>139</v>
       </c>
-      <c r="S62" s="56">
+      <c r="S62" s="55">
         <v>559</v>
       </c>
-      <c r="T62" s="56">
+      <c r="T62" s="55">
         <v>230</v>
       </c>
-      <c r="U62" s="56">
+      <c r="U62" s="55">
         <v>72</v>
       </c>
-      <c r="V62" s="56">
+      <c r="V62" s="55">
         <v>211</v>
       </c>
-      <c r="W62" s="56">
+      <c r="W62" s="55">
         <v>207</v>
       </c>
-      <c r="X62" s="56">
+      <c r="X62" s="55">
         <v>288</v>
       </c>
-      <c r="Y62" s="56">
+      <c r="Y62" s="55">
         <v>112</v>
       </c>
     </row>
@@ -5660,68 +5663,68 @@
       <c r="A63" s="24">
         <v>9</v>
       </c>
-      <c r="B63" s="55">
+      <c r="B63" s="54">
         <v>565.20100000000002</v>
       </c>
-      <c r="C63" s="55">
+      <c r="C63" s="54">
         <v>14.2669</v>
       </c>
-      <c r="D63" s="55">
+      <c r="D63" s="54">
         <v>4.6919500000000003</v>
       </c>
-      <c r="E63" s="55">
+      <c r="E63" s="54">
         <v>12.3293</v>
       </c>
-      <c r="F63" s="55">
+      <c r="F63" s="54">
         <v>8.7304200000000005</v>
       </c>
-      <c r="G63" s="55">
+      <c r="G63" s="54">
         <v>0.38303500000000001</v>
       </c>
-      <c r="H63" s="55">
+      <c r="H63" s="54">
         <v>16.6342</v>
       </c>
-      <c r="I63" s="55">
+      <c r="I63" s="54">
         <v>12.4886</v>
       </c>
-      <c r="J63" s="55">
+      <c r="J63" s="54">
         <v>2.1301299999999999</v>
       </c>
-      <c r="K63" s="55">
+      <c r="K63" s="54">
         <v>3.8875E-2</v>
       </c>
       <c r="M63" s="4"/>
       <c r="O63" s="1">
         <v>9</v>
       </c>
-      <c r="P63" s="56">
+      <c r="P63" s="55">
         <v>313</v>
       </c>
-      <c r="Q63" s="56">
+      <c r="Q63" s="55">
         <v>175</v>
       </c>
-      <c r="R63" s="56">
+      <c r="R63" s="55">
         <v>196</v>
       </c>
-      <c r="S63" s="56">
+      <c r="S63" s="55">
         <v>367</v>
       </c>
-      <c r="T63" s="56">
+      <c r="T63" s="55">
         <v>208</v>
       </c>
-      <c r="U63" s="56">
+      <c r="U63" s="55">
         <v>187</v>
       </c>
-      <c r="V63" s="56">
+      <c r="V63" s="55">
         <v>176</v>
       </c>
-      <c r="W63" s="56">
+      <c r="W63" s="55">
         <v>330</v>
       </c>
-      <c r="X63" s="56">
+      <c r="X63" s="55">
         <v>343</v>
       </c>
-      <c r="Y63" s="56">
+      <c r="Y63" s="55">
         <v>132</v>
       </c>
     </row>
@@ -5848,7 +5851,7 @@
       <c r="J66" s="20">
         <v>10</v>
       </c>
-      <c r="K66" s="61">
+      <c r="K66" s="60">
         <v>10</v>
       </c>
       <c r="L66" s="32">
@@ -5888,6 +5891,710 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
     </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="M70" s="4"/>
+      <c r="O70" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="P70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M71" s="4"/>
+      <c r="O71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P71" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R71" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="S71" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="T71" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U71" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V71" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W71" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="X71" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y71" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="54">
+        <v>0.38657399999999997</v>
+      </c>
+      <c r="E72" s="54">
+        <v>4.0223899999999997</v>
+      </c>
+      <c r="F72" s="40"/>
+      <c r="G72" s="54">
+        <v>0.109879</v>
+      </c>
+      <c r="H72" s="40"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="54">
+        <v>5.3376100000000003E-2</v>
+      </c>
+      <c r="K72" s="59"/>
+      <c r="M72" s="4"/>
+      <c r="O72" s="1">
+        <v>0</v>
+      </c>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="55">
+        <v>172</v>
+      </c>
+      <c r="S72" s="55">
+        <v>364</v>
+      </c>
+      <c r="T72" s="40"/>
+      <c r="U72" s="55">
+        <v>187</v>
+      </c>
+      <c r="V72" s="40"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="55">
+        <v>158</v>
+      </c>
+      <c r="Y72" s="9"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="B73" s="46"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="54">
+        <v>2.00081</v>
+      </c>
+      <c r="E73" s="54">
+        <v>5.4539999999999997</v>
+      </c>
+      <c r="F73" s="40"/>
+      <c r="G73" s="54">
+        <v>0.12564</v>
+      </c>
+      <c r="H73" s="40"/>
+      <c r="I73" s="59"/>
+      <c r="J73" s="54">
+        <v>0.13887099999999999</v>
+      </c>
+      <c r="K73" s="59"/>
+      <c r="M73" s="4"/>
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="55">
+        <v>472</v>
+      </c>
+      <c r="S73" s="55">
+        <v>685</v>
+      </c>
+      <c r="T73" s="40"/>
+      <c r="U73" s="55">
+        <v>238</v>
+      </c>
+      <c r="V73" s="40"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="55">
+        <v>208</v>
+      </c>
+      <c r="Y73" s="9"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>2</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="54">
+        <v>1.1292</v>
+      </c>
+      <c r="E74" s="54">
+        <v>5.0095099999999997</v>
+      </c>
+      <c r="F74" s="40"/>
+      <c r="G74" s="54">
+        <v>0.16522400000000001</v>
+      </c>
+      <c r="H74" s="40"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="54">
+        <v>8.1892999999999994E-2</v>
+      </c>
+      <c r="K74" s="59"/>
+      <c r="M74" s="4"/>
+      <c r="O74" s="1">
+        <v>2</v>
+      </c>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="55">
+        <v>274</v>
+      </c>
+      <c r="S74" s="55">
+        <v>502</v>
+      </c>
+      <c r="T74" s="40"/>
+      <c r="U74" s="55">
+        <v>256</v>
+      </c>
+      <c r="V74" s="40"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="55">
+        <v>233</v>
+      </c>
+      <c r="Y74" s="9"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>3</v>
+      </c>
+      <c r="B75" s="46"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="54">
+        <v>0.50571699999999997</v>
+      </c>
+      <c r="E75" s="54">
+        <v>4.3646000000000003</v>
+      </c>
+      <c r="F75" s="40"/>
+      <c r="G75" s="54">
+        <v>0.147289</v>
+      </c>
+      <c r="H75" s="40"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="54">
+        <v>6.7930599999999994E-2</v>
+      </c>
+      <c r="K75" s="59"/>
+      <c r="M75" s="4"/>
+      <c r="O75" s="1">
+        <v>3</v>
+      </c>
+      <c r="P75" s="46"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="55">
+        <v>194</v>
+      </c>
+      <c r="S75" s="55">
+        <v>622</v>
+      </c>
+      <c r="T75" s="40"/>
+      <c r="U75" s="55">
+        <v>208</v>
+      </c>
+      <c r="V75" s="40"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="55">
+        <v>158</v>
+      </c>
+      <c r="Y75" s="9"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="24">
+        <v>4</v>
+      </c>
+      <c r="B76" s="47"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="54">
+        <v>0.25125900000000001</v>
+      </c>
+      <c r="E76" s="54">
+        <v>4.2425199999999998</v>
+      </c>
+      <c r="F76" s="63"/>
+      <c r="G76" s="54">
+        <v>0.19906299999999999</v>
+      </c>
+      <c r="H76" s="63"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="54">
+        <v>5.1220700000000001E-2</v>
+      </c>
+      <c r="K76" s="59"/>
+      <c r="M76" s="4"/>
+      <c r="O76" s="1">
+        <v>4</v>
+      </c>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="55">
+        <v>116</v>
+      </c>
+      <c r="S76" s="55">
+        <v>481</v>
+      </c>
+      <c r="T76" s="63"/>
+      <c r="U76" s="55">
+        <v>379</v>
+      </c>
+      <c r="V76" s="63"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="55">
+        <v>118</v>
+      </c>
+      <c r="Y76" s="10"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="24">
+        <v>5</v>
+      </c>
+      <c r="B77" s="47"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="54">
+        <v>0.24196200000000001</v>
+      </c>
+      <c r="E77" s="54">
+        <v>4.8396100000000004</v>
+      </c>
+      <c r="F77" s="63"/>
+      <c r="G77" s="54">
+        <v>0.10667500000000001</v>
+      </c>
+      <c r="H77" s="63"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="54">
+        <v>8.2027600000000006E-2</v>
+      </c>
+      <c r="K77" s="59"/>
+      <c r="M77" s="4"/>
+      <c r="O77" s="1">
+        <v>5</v>
+      </c>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="55">
+        <v>109</v>
+      </c>
+      <c r="S77" s="55">
+        <v>601</v>
+      </c>
+      <c r="T77" s="63"/>
+      <c r="U77" s="55">
+        <v>241</v>
+      </c>
+      <c r="V77" s="63"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="55">
+        <v>148</v>
+      </c>
+      <c r="Y77" s="10"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="24">
+        <v>6</v>
+      </c>
+      <c r="B78" s="47"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="54">
+        <v>0.22550799999999999</v>
+      </c>
+      <c r="E78" s="54">
+        <v>3.2199</v>
+      </c>
+      <c r="F78" s="63"/>
+      <c r="G78" s="54">
+        <v>0.106572</v>
+      </c>
+      <c r="H78" s="63"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="54">
+        <v>5.05064E-2</v>
+      </c>
+      <c r="K78" s="59"/>
+      <c r="M78" s="4"/>
+      <c r="O78" s="1">
+        <v>6</v>
+      </c>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="55">
+        <v>93</v>
+      </c>
+      <c r="S78" s="55">
+        <v>328</v>
+      </c>
+      <c r="T78" s="63"/>
+      <c r="U78" s="55">
+        <v>154</v>
+      </c>
+      <c r="V78" s="63"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="55">
+        <v>98</v>
+      </c>
+      <c r="Y78" s="10"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="24">
+        <v>7</v>
+      </c>
+      <c r="B79" s="47"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="54">
+        <v>0.214117</v>
+      </c>
+      <c r="E79" s="54">
+        <v>3.1267800000000001</v>
+      </c>
+      <c r="F79" s="63"/>
+      <c r="G79" s="54">
+        <v>8.7227299999999994E-2</v>
+      </c>
+      <c r="H79" s="63"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="54">
+        <v>9.3159099999999995E-2</v>
+      </c>
+      <c r="K79" s="59"/>
+      <c r="M79" s="4"/>
+      <c r="O79" s="1">
+        <v>7</v>
+      </c>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="55">
+        <v>99</v>
+      </c>
+      <c r="S79" s="55">
+        <v>613</v>
+      </c>
+      <c r="T79" s="63"/>
+      <c r="U79" s="55">
+        <v>199</v>
+      </c>
+      <c r="V79" s="63"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="55">
+        <v>163</v>
+      </c>
+      <c r="Y79" s="10"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="24">
+        <v>8</v>
+      </c>
+      <c r="B80" s="47"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="54">
+        <v>0.23603299999999999</v>
+      </c>
+      <c r="E80" s="54">
+        <v>2.5430799999999998</v>
+      </c>
+      <c r="F80" s="63"/>
+      <c r="G80" s="54">
+        <v>7.6675099999999996E-2</v>
+      </c>
+      <c r="H80" s="63"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="54">
+        <v>8.7870500000000004E-2</v>
+      </c>
+      <c r="K80" s="54">
+        <v>1.3692299999999999</v>
+      </c>
+      <c r="M80" s="4"/>
+      <c r="O80" s="1">
+        <v>8</v>
+      </c>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="55">
+        <v>139</v>
+      </c>
+      <c r="S80" s="55">
+        <v>565</v>
+      </c>
+      <c r="T80" s="63"/>
+      <c r="U80" s="55">
+        <v>72</v>
+      </c>
+      <c r="V80" s="63"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="55">
+        <v>258</v>
+      </c>
+      <c r="Y80" s="62">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="24">
+        <v>9</v>
+      </c>
+      <c r="B81" s="47"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="54">
+        <v>0.206451</v>
+      </c>
+      <c r="E81" s="54">
+        <v>3.3932699999999998</v>
+      </c>
+      <c r="F81" s="63"/>
+      <c r="G81" s="54">
+        <v>8.8140499999999997E-2</v>
+      </c>
+      <c r="H81" s="63"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="54">
+        <v>9.5492099999999996E-2</v>
+      </c>
+      <c r="K81" s="59"/>
+      <c r="M81" s="4"/>
+      <c r="O81" s="1">
+        <v>9</v>
+      </c>
+      <c r="P81" s="47"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="55">
+        <v>136</v>
+      </c>
+      <c r="S81" s="55">
+        <v>370</v>
+      </c>
+      <c r="T81" s="40"/>
+      <c r="U81" s="55">
+        <v>187</v>
+      </c>
+      <c r="V81" s="40"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="55">
+        <v>363</v>
+      </c>
+      <c r="Y81" s="9"/>
+    </row>
+    <row r="82" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="33" t="e">
+        <f t="shared" ref="B82:K82" si="6">AVERAGE(B72:B81)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C82" s="34" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D82" s="33">
+        <f t="shared" si="6"/>
+        <v>0.53976309999999994</v>
+      </c>
+      <c r="E82" s="33">
+        <f t="shared" si="6"/>
+        <v>4.021566</v>
+      </c>
+      <c r="F82" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G82" s="33">
+        <f t="shared" si="6"/>
+        <v>0.12123848999999998</v>
+      </c>
+      <c r="H82" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I82" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J82" s="33">
+        <f t="shared" si="6"/>
+        <v>8.0234710000000001E-2</v>
+      </c>
+      <c r="K82" s="33">
+        <f t="shared" si="6"/>
+        <v>1.3692299999999999</v>
+      </c>
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="21" t="e">
+        <f t="shared" ref="B83:K83" si="7">_xlfn.STDEV.P(B72:B81)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C83" s="21" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D83" s="21">
+        <f t="shared" si="7"/>
+        <v>0.55558893358461547</v>
+      </c>
+      <c r="E83" s="21">
+        <f t="shared" si="7"/>
+        <v>0.8881203324347432</v>
+      </c>
+      <c r="F83" s="21" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G83" s="21">
+        <f t="shared" si="7"/>
+        <v>3.6720232443094705E-2</v>
+      </c>
+      <c r="H83" s="21" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I83" s="21" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J83" s="21">
+        <f t="shared" si="7"/>
+        <v>2.5496417839392639E-2</v>
+      </c>
+      <c r="K83" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="18">
+        <v>0</v>
+      </c>
+      <c r="C84" s="19">
+        <v>0</v>
+      </c>
+      <c r="D84" s="19">
+        <v>10</v>
+      </c>
+      <c r="E84" s="19">
+        <v>10</v>
+      </c>
+      <c r="F84" s="19">
+        <v>0</v>
+      </c>
+      <c r="G84" s="19">
+        <v>10</v>
+      </c>
+      <c r="H84" s="19">
+        <v>0</v>
+      </c>
+      <c r="I84" s="19">
+        <v>0</v>
+      </c>
+      <c r="J84" s="20">
+        <v>10</v>
+      </c>
+      <c r="K84" s="60">
+        <v>1</v>
+      </c>
+      <c r="L84" s="32">
+        <f>SUM(B84:K84)</f>
+        <v>41</v>
+      </c>
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655E6188-0C2F-4E68-ABDE-45F263ADBA0D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB82DC9-F293-4499-BEAC-DE92D9DC2D7E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="42">
   <si>
     <t>GVGAI level</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>FD (A*)</t>
-  </si>
-  <si>
-    <t>Loops</t>
   </si>
   <si>
     <t>Saarplan</t>
@@ -553,14 +550,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3109,8 +3106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236E5864-7DE8-4BC8-BF4A-4C02356587BF}">
   <dimension ref="A1:Z86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3351,9 +3348,7 @@
         <v>-1</v>
       </c>
       <c r="S6" s="48"/>
-      <c r="T6" s="48" t="s">
-        <v>41</v>
-      </c>
+      <c r="T6" s="48"/>
       <c r="U6" s="48"/>
       <c r="V6" s="48"/>
       <c r="W6" s="9">
@@ -3700,7 +3695,7 @@
         <v>163</v>
       </c>
       <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
+      <c r="T18" s="42"/>
       <c r="U18" s="55">
         <v>187</v>
       </c>
@@ -3737,7 +3732,7 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
+      <c r="T19" s="42"/>
       <c r="U19" s="55">
         <v>262</v>
       </c>
@@ -3776,7 +3771,7 @@
         <v>136</v>
       </c>
       <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
+      <c r="T20" s="42"/>
       <c r="U20" s="55">
         <v>364</v>
       </c>
@@ -3813,7 +3808,7 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="53"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="50">
+      <c r="T21" s="42">
         <v>68</v>
       </c>
       <c r="U21" s="13"/>
@@ -3858,16 +3853,16 @@
         <v>98</v>
       </c>
       <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
+      <c r="T22" s="42"/>
       <c r="U22" s="56"/>
       <c r="V22" s="10"/>
-      <c r="W22" s="62">
+      <c r="W22" s="61">
         <v>38</v>
       </c>
       <c r="X22" s="55">
         <v>133</v>
       </c>
-      <c r="Y22" s="62">
+      <c r="Y22" s="61">
         <v>181</v>
       </c>
     </row>
@@ -3899,7 +3894,7 @@
         <v>142</v>
       </c>
       <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
+      <c r="T23" s="42"/>
       <c r="U23" s="55">
         <v>241</v>
       </c>
@@ -3940,7 +3935,7 @@
         <v>93</v>
       </c>
       <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
+      <c r="T24" s="42"/>
       <c r="U24" s="55">
         <v>154</v>
       </c>
@@ -3949,7 +3944,7 @@
       <c r="X24" s="55">
         <v>118</v>
       </c>
-      <c r="Y24" s="62">
+      <c r="Y24" s="61">
         <v>124</v>
       </c>
     </row>
@@ -3985,7 +3980,7 @@
         <v>111</v>
       </c>
       <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
+      <c r="T25" s="42"/>
       <c r="U25" s="55">
         <v>199</v>
       </c>
@@ -3994,7 +3989,7 @@
       <c r="X25" s="55">
         <v>148</v>
       </c>
-      <c r="Y25" s="62">
+      <c r="Y25" s="61">
         <v>113</v>
       </c>
     </row>
@@ -4030,7 +4025,7 @@
         <v>106</v>
       </c>
       <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
+      <c r="T26" s="42"/>
       <c r="U26" s="55">
         <v>78</v>
       </c>
@@ -4039,7 +4034,7 @@
       <c r="X26" s="55">
         <v>258</v>
       </c>
-      <c r="Y26" s="62">
+      <c r="Y26" s="61">
         <v>94</v>
       </c>
     </row>
@@ -4075,7 +4070,7 @@
         <v>169</v>
       </c>
       <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
+      <c r="T27" s="42"/>
       <c r="U27" s="55">
         <v>187</v>
       </c>
@@ -4372,7 +4367,7 @@
       <c r="S36" s="50">
         <v>307</v>
       </c>
-      <c r="T36" s="9"/>
+      <c r="T36" s="42"/>
       <c r="U36" s="55">
         <v>187</v>
       </c>
@@ -4417,7 +4412,7 @@
       <c r="S37" s="50">
         <v>532</v>
       </c>
-      <c r="T37" s="9"/>
+      <c r="T37" s="42"/>
       <c r="U37" s="55">
         <v>238</v>
       </c>
@@ -4462,7 +4457,7 @@
       <c r="S38" s="50">
         <v>346</v>
       </c>
-      <c r="T38" s="9"/>
+      <c r="T38" s="42"/>
       <c r="U38" s="55">
         <v>256</v>
       </c>
@@ -4507,7 +4502,7 @@
       <c r="S39" s="50">
         <v>493</v>
       </c>
-      <c r="T39" s="9"/>
+      <c r="T39" s="42"/>
       <c r="U39" s="55">
         <v>208</v>
       </c>
@@ -4552,7 +4547,7 @@
       <c r="S40" s="50">
         <v>445</v>
       </c>
-      <c r="T40" s="10"/>
+      <c r="T40" s="43"/>
       <c r="U40" s="55">
         <v>379</v>
       </c>
@@ -4597,7 +4592,7 @@
       <c r="S41" s="50">
         <v>310</v>
       </c>
-      <c r="T41" s="10"/>
+      <c r="T41" s="43"/>
       <c r="U41" s="55">
         <v>199</v>
       </c>
@@ -4642,7 +4637,7 @@
       <c r="S42" s="50">
         <v>316</v>
       </c>
-      <c r="T42" s="10"/>
+      <c r="T42" s="43"/>
       <c r="U42" s="55">
         <v>154</v>
       </c>
@@ -4687,7 +4682,7 @@
       <c r="S43" s="50">
         <v>505</v>
       </c>
-      <c r="T43" s="10"/>
+      <c r="T43" s="43"/>
       <c r="U43" s="55">
         <v>199</v>
       </c>
@@ -4734,7 +4729,7 @@
       <c r="S44" s="50">
         <v>550</v>
       </c>
-      <c r="T44" s="10"/>
+      <c r="T44" s="43"/>
       <c r="U44" s="55">
         <v>72</v>
       </c>
@@ -4743,7 +4738,7 @@
       <c r="X44" s="55">
         <v>258</v>
       </c>
-      <c r="Y44" s="62">
+      <c r="Y44" s="61">
         <v>88</v>
       </c>
     </row>
@@ -4781,7 +4776,7 @@
       <c r="S45" s="50">
         <v>289</v>
       </c>
-      <c r="T45" s="9"/>
+      <c r="T45" s="42"/>
       <c r="U45" s="55">
         <v>187</v>
       </c>
@@ -5092,7 +5087,7 @@
       <c r="S54" s="55">
         <v>355</v>
       </c>
-      <c r="T54" s="55">
+      <c r="T54" s="63">
         <v>350</v>
       </c>
       <c r="U54" s="55">
@@ -5161,7 +5156,7 @@
       <c r="S55" s="55">
         <v>607</v>
       </c>
-      <c r="T55" s="55">
+      <c r="T55" s="63">
         <v>339</v>
       </c>
       <c r="U55" s="55">
@@ -5230,7 +5225,7 @@
       <c r="S56" s="55">
         <v>541</v>
       </c>
-      <c r="T56" s="55">
+      <c r="T56" s="63">
         <v>671</v>
       </c>
       <c r="U56" s="55">
@@ -5299,7 +5294,7 @@
       <c r="S57" s="55">
         <v>490</v>
       </c>
-      <c r="T57" s="55">
+      <c r="T57" s="63">
         <v>62</v>
       </c>
       <c r="U57" s="55">
@@ -5366,7 +5361,7 @@
       <c r="S58" s="55">
         <v>472</v>
       </c>
-      <c r="T58" s="61"/>
+      <c r="T58" s="63"/>
       <c r="U58" s="55">
         <v>379</v>
       </c>
@@ -5433,7 +5428,7 @@
       <c r="S59" s="55">
         <v>460</v>
       </c>
-      <c r="T59" s="55">
+      <c r="T59" s="63">
         <v>181</v>
       </c>
       <c r="U59" s="55">
@@ -5502,7 +5497,7 @@
       <c r="S60" s="55">
         <v>343</v>
       </c>
-      <c r="T60" s="55">
+      <c r="T60" s="63">
         <v>120</v>
       </c>
       <c r="U60" s="55">
@@ -5571,7 +5566,7 @@
       <c r="S61" s="55">
         <v>526</v>
       </c>
-      <c r="T61" s="55">
+      <c r="T61" s="63">
         <v>165</v>
       </c>
       <c r="U61" s="55">
@@ -5640,7 +5635,7 @@
       <c r="S62" s="55">
         <v>559</v>
       </c>
-      <c r="T62" s="55">
+      <c r="T62" s="63">
         <v>230</v>
       </c>
       <c r="U62" s="55">
@@ -5709,7 +5704,7 @@
       <c r="S63" s="55">
         <v>367</v>
       </c>
-      <c r="T63" s="55">
+      <c r="T63" s="63">
         <v>208</v>
       </c>
       <c r="U63" s="55">
@@ -5896,14 +5891,14 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="M70" s="4"/>
       <c r="O70" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P70" t="s">
         <v>17</v>
@@ -6170,11 +6165,11 @@
       <c r="E76" s="54">
         <v>4.2425199999999998</v>
       </c>
-      <c r="F76" s="63"/>
+      <c r="F76" s="62"/>
       <c r="G76" s="54">
         <v>0.19906299999999999</v>
       </c>
-      <c r="H76" s="63"/>
+      <c r="H76" s="62"/>
       <c r="I76" s="59"/>
       <c r="J76" s="54">
         <v>5.1220700000000001E-2</v>
@@ -6192,11 +6187,11 @@
       <c r="S76" s="55">
         <v>481</v>
       </c>
-      <c r="T76" s="63"/>
+      <c r="T76" s="62"/>
       <c r="U76" s="55">
         <v>379</v>
       </c>
-      <c r="V76" s="63"/>
+      <c r="V76" s="62"/>
       <c r="W76" s="10"/>
       <c r="X76" s="55">
         <v>118</v>
@@ -6215,11 +6210,11 @@
       <c r="E77" s="54">
         <v>4.8396100000000004</v>
       </c>
-      <c r="F77" s="63"/>
+      <c r="F77" s="62"/>
       <c r="G77" s="54">
         <v>0.10667500000000001</v>
       </c>
-      <c r="H77" s="63"/>
+      <c r="H77" s="62"/>
       <c r="I77" s="59"/>
       <c r="J77" s="54">
         <v>8.2027600000000006E-2</v>
@@ -6237,11 +6232,11 @@
       <c r="S77" s="55">
         <v>601</v>
       </c>
-      <c r="T77" s="63"/>
+      <c r="T77" s="62"/>
       <c r="U77" s="55">
         <v>241</v>
       </c>
-      <c r="V77" s="63"/>
+      <c r="V77" s="62"/>
       <c r="W77" s="10"/>
       <c r="X77" s="55">
         <v>148</v>
@@ -6260,11 +6255,11 @@
       <c r="E78" s="54">
         <v>3.2199</v>
       </c>
-      <c r="F78" s="63"/>
+      <c r="F78" s="62"/>
       <c r="G78" s="54">
         <v>0.106572</v>
       </c>
-      <c r="H78" s="63"/>
+      <c r="H78" s="62"/>
       <c r="I78" s="59"/>
       <c r="J78" s="54">
         <v>5.05064E-2</v>
@@ -6282,11 +6277,11 @@
       <c r="S78" s="55">
         <v>328</v>
       </c>
-      <c r="T78" s="63"/>
+      <c r="T78" s="62"/>
       <c r="U78" s="55">
         <v>154</v>
       </c>
-      <c r="V78" s="63"/>
+      <c r="V78" s="62"/>
       <c r="W78" s="10"/>
       <c r="X78" s="55">
         <v>98</v>
@@ -6305,11 +6300,11 @@
       <c r="E79" s="54">
         <v>3.1267800000000001</v>
       </c>
-      <c r="F79" s="63"/>
+      <c r="F79" s="62"/>
       <c r="G79" s="54">
         <v>8.7227299999999994E-2</v>
       </c>
-      <c r="H79" s="63"/>
+      <c r="H79" s="62"/>
       <c r="I79" s="59"/>
       <c r="J79" s="54">
         <v>9.3159099999999995E-2</v>
@@ -6327,11 +6322,11 @@
       <c r="S79" s="55">
         <v>613</v>
       </c>
-      <c r="T79" s="63"/>
+      <c r="T79" s="62"/>
       <c r="U79" s="55">
         <v>199</v>
       </c>
-      <c r="V79" s="63"/>
+      <c r="V79" s="62"/>
       <c r="W79" s="10"/>
       <c r="X79" s="55">
         <v>163</v>
@@ -6350,11 +6345,11 @@
       <c r="E80" s="54">
         <v>2.5430799999999998</v>
       </c>
-      <c r="F80" s="63"/>
+      <c r="F80" s="62"/>
       <c r="G80" s="54">
         <v>7.6675099999999996E-2</v>
       </c>
-      <c r="H80" s="63"/>
+      <c r="H80" s="62"/>
       <c r="I80" s="59"/>
       <c r="J80" s="54">
         <v>8.7870500000000004E-2</v>
@@ -6374,16 +6369,16 @@
       <c r="S80" s="55">
         <v>565</v>
       </c>
-      <c r="T80" s="63"/>
+      <c r="T80" s="62"/>
       <c r="U80" s="55">
         <v>72</v>
       </c>
-      <c r="V80" s="63"/>
+      <c r="V80" s="62"/>
       <c r="W80" s="10"/>
       <c r="X80" s="55">
         <v>258</v>
       </c>
-      <c r="Y80" s="62">
+      <c r="Y80" s="61">
         <v>94</v>
       </c>
     </row>
@@ -6399,11 +6394,11 @@
       <c r="E81" s="54">
         <v>3.3932699999999998</v>
       </c>
-      <c r="F81" s="63"/>
+      <c r="F81" s="62"/>
       <c r="G81" s="54">
         <v>8.8140499999999997E-2</v>
       </c>
-      <c r="H81" s="63"/>
+      <c r="H81" s="62"/>
       <c r="I81" s="59"/>
       <c r="J81" s="54">
         <v>9.5492099999999996E-2</v>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB82DC9-F293-4499-BEAC-DE92D9DC2D7E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59E7C92-924A-4291-B49F-FA8A91599DCD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -553,10 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3106,8 +3103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236E5864-7DE8-4BC8-BF4A-4C02356587BF}">
   <dimension ref="A1:Z86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3695,7 +3692,7 @@
         <v>163</v>
       </c>
       <c r="S18" s="9"/>
-      <c r="T18" s="42"/>
+      <c r="T18" s="9"/>
       <c r="U18" s="55">
         <v>187</v>
       </c>
@@ -3732,7 +3729,7 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="42"/>
+      <c r="T19" s="9"/>
       <c r="U19" s="55">
         <v>262</v>
       </c>
@@ -3771,7 +3768,7 @@
         <v>136</v>
       </c>
       <c r="S20" s="9"/>
-      <c r="T20" s="42"/>
+      <c r="T20" s="9"/>
       <c r="U20" s="55">
         <v>364</v>
       </c>
@@ -3788,9 +3785,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="53"/>
       <c r="E21" s="59"/>
-      <c r="F21" s="54">
-        <v>260.88</v>
-      </c>
+      <c r="F21" s="59"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="59"/>
@@ -3808,9 +3803,7 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="53"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="42">
-        <v>68</v>
-      </c>
+      <c r="T21" s="9"/>
       <c r="U21" s="13"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
@@ -3853,7 +3846,7 @@
         <v>98</v>
       </c>
       <c r="S22" s="9"/>
-      <c r="T22" s="42"/>
+      <c r="T22" s="9"/>
       <c r="U22" s="56"/>
       <c r="V22" s="10"/>
       <c r="W22" s="61">
@@ -3894,7 +3887,7 @@
         <v>142</v>
       </c>
       <c r="S23" s="9"/>
-      <c r="T23" s="42"/>
+      <c r="T23" s="9"/>
       <c r="U23" s="55">
         <v>241</v>
       </c>
@@ -3935,7 +3928,7 @@
         <v>93</v>
       </c>
       <c r="S24" s="9"/>
-      <c r="T24" s="42"/>
+      <c r="T24" s="9"/>
       <c r="U24" s="55">
         <v>154</v>
       </c>
@@ -3980,7 +3973,7 @@
         <v>111</v>
       </c>
       <c r="S25" s="9"/>
-      <c r="T25" s="42"/>
+      <c r="T25" s="9"/>
       <c r="U25" s="55">
         <v>199</v>
       </c>
@@ -4025,7 +4018,7 @@
         <v>106</v>
       </c>
       <c r="S26" s="9"/>
-      <c r="T26" s="42"/>
+      <c r="T26" s="9"/>
       <c r="U26" s="55">
         <v>78</v>
       </c>
@@ -4070,7 +4063,7 @@
         <v>169</v>
       </c>
       <c r="S27" s="9"/>
-      <c r="T27" s="42"/>
+      <c r="T27" s="9"/>
       <c r="U27" s="55">
         <v>187</v>
       </c>
@@ -4103,9 +4096,9 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="33" t="e">
         <f t="shared" si="0"/>
-        <v>260.88</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G28" s="33">
         <f t="shared" si="0"/>
@@ -4149,9 +4142,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G29" s="21">
         <f t="shared" si="1"/>
@@ -4192,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="19">
         <v>8</v>
@@ -4211,7 +4204,7 @@
       </c>
       <c r="L30" s="32">
         <f>SUM(B30:K30)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M30" s="4"/>
     </row>
@@ -4367,7 +4360,7 @@
       <c r="S36" s="50">
         <v>307</v>
       </c>
-      <c r="T36" s="42"/>
+      <c r="T36" s="9"/>
       <c r="U36" s="55">
         <v>187</v>
       </c>
@@ -4412,7 +4405,7 @@
       <c r="S37" s="50">
         <v>532</v>
       </c>
-      <c r="T37" s="42"/>
+      <c r="T37" s="9"/>
       <c r="U37" s="55">
         <v>238</v>
       </c>
@@ -4457,7 +4450,7 @@
       <c r="S38" s="50">
         <v>346</v>
       </c>
-      <c r="T38" s="42"/>
+      <c r="T38" s="9"/>
       <c r="U38" s="55">
         <v>256</v>
       </c>
@@ -4502,7 +4495,7 @@
       <c r="S39" s="50">
         <v>493</v>
       </c>
-      <c r="T39" s="42"/>
+      <c r="T39" s="9"/>
       <c r="U39" s="55">
         <v>208</v>
       </c>
@@ -4547,7 +4540,7 @@
       <c r="S40" s="50">
         <v>445</v>
       </c>
-      <c r="T40" s="43"/>
+      <c r="T40" s="10"/>
       <c r="U40" s="55">
         <v>379</v>
       </c>
@@ -4592,7 +4585,7 @@
       <c r="S41" s="50">
         <v>310</v>
       </c>
-      <c r="T41" s="43"/>
+      <c r="T41" s="10"/>
       <c r="U41" s="55">
         <v>199</v>
       </c>
@@ -4637,7 +4630,7 @@
       <c r="S42" s="50">
         <v>316</v>
       </c>
-      <c r="T42" s="43"/>
+      <c r="T42" s="10"/>
       <c r="U42" s="55">
         <v>154</v>
       </c>
@@ -4682,7 +4675,7 @@
       <c r="S43" s="50">
         <v>505</v>
       </c>
-      <c r="T43" s="43"/>
+      <c r="T43" s="10"/>
       <c r="U43" s="55">
         <v>199</v>
       </c>
@@ -4729,7 +4722,7 @@
       <c r="S44" s="50">
         <v>550</v>
       </c>
-      <c r="T44" s="43"/>
+      <c r="T44" s="10"/>
       <c r="U44" s="55">
         <v>72</v>
       </c>
@@ -4776,7 +4769,7 @@
       <c r="S45" s="50">
         <v>289</v>
       </c>
-      <c r="T45" s="42"/>
+      <c r="T45" s="9"/>
       <c r="U45" s="55">
         <v>187</v>
       </c>
@@ -5054,7 +5047,7 @@
         <v>18.004999999999999</v>
       </c>
       <c r="F54" s="54">
-        <v>12.0899</v>
+        <v>11.003</v>
       </c>
       <c r="G54" s="54">
         <v>0.47940199999999999</v>
@@ -5087,7 +5080,7 @@
       <c r="S54" s="55">
         <v>355</v>
       </c>
-      <c r="T54" s="63">
+      <c r="T54" s="55">
         <v>350</v>
       </c>
       <c r="U54" s="55">
@@ -5123,7 +5116,7 @@
         <v>44.814300000000003</v>
       </c>
       <c r="F55" s="54">
-        <v>34.728400000000001</v>
+        <v>29.803100000000001</v>
       </c>
       <c r="G55" s="54">
         <v>0.38312600000000002</v>
@@ -5156,8 +5149,8 @@
       <c r="S55" s="55">
         <v>607</v>
       </c>
-      <c r="T55" s="63">
-        <v>339</v>
+      <c r="T55" s="55">
+        <v>315</v>
       </c>
       <c r="U55" s="55">
         <v>238</v>
@@ -5192,7 +5185,7 @@
         <v>19.5749</v>
       </c>
       <c r="F56" s="54">
-        <v>126.414</v>
+        <v>218.065</v>
       </c>
       <c r="G56" s="54">
         <v>0.50300400000000001</v>
@@ -5225,8 +5218,8 @@
       <c r="S56" s="55">
         <v>541</v>
       </c>
-      <c r="T56" s="63">
-        <v>671</v>
+      <c r="T56" s="55">
+        <v>790</v>
       </c>
       <c r="U56" s="55">
         <v>256</v>
@@ -5261,7 +5254,7 @@
         <v>18.940899999999999</v>
       </c>
       <c r="F57" s="54">
-        <v>1.05467</v>
+        <v>0.73758699999999999</v>
       </c>
       <c r="G57" s="54">
         <v>0.54791000000000001</v>
@@ -5294,8 +5287,8 @@
       <c r="S57" s="55">
         <v>490</v>
       </c>
-      <c r="T57" s="63">
-        <v>62</v>
+      <c r="T57" s="55">
+        <v>66</v>
       </c>
       <c r="U57" s="55">
         <v>208</v>
@@ -5361,7 +5354,7 @@
       <c r="S58" s="55">
         <v>472</v>
       </c>
-      <c r="T58" s="63"/>
+      <c r="T58" s="62"/>
       <c r="U58" s="55">
         <v>379</v>
       </c>
@@ -5395,7 +5388,7 @@
         <v>35.987299999999998</v>
       </c>
       <c r="F59" s="54">
-        <v>18.217300000000002</v>
+        <v>19.471800000000002</v>
       </c>
       <c r="G59" s="54">
         <v>0.43384499999999998</v>
@@ -5428,7 +5421,7 @@
       <c r="S59" s="55">
         <v>460</v>
       </c>
-      <c r="T59" s="63">
+      <c r="T59" s="55">
         <v>181</v>
       </c>
       <c r="U59" s="55">
@@ -5464,7 +5457,7 @@
         <v>21.556999999999999</v>
       </c>
       <c r="F60" s="54">
-        <v>1.8813</v>
+        <v>1.7900100000000001</v>
       </c>
       <c r="G60" s="54">
         <v>0.44375300000000001</v>
@@ -5497,7 +5490,7 @@
       <c r="S60" s="55">
         <v>343</v>
       </c>
-      <c r="T60" s="63">
+      <c r="T60" s="55">
         <v>120</v>
       </c>
       <c r="U60" s="55">
@@ -5533,7 +5526,7 @@
         <v>24.514700000000001</v>
       </c>
       <c r="F61" s="54">
-        <v>21.223299999999998</v>
+        <v>15.7742</v>
       </c>
       <c r="G61" s="54">
         <v>0.37591000000000002</v>
@@ -5566,7 +5559,7 @@
       <c r="S61" s="55">
         <v>526</v>
       </c>
-      <c r="T61" s="63">
+      <c r="T61" s="55">
         <v>165</v>
       </c>
       <c r="U61" s="55">
@@ -5602,7 +5595,7 @@
         <v>11.315799999999999</v>
       </c>
       <c r="F62" s="54">
-        <v>3.78572</v>
+        <v>3.8772700000000002</v>
       </c>
       <c r="G62" s="54">
         <v>0.30377300000000002</v>
@@ -5635,7 +5628,7 @@
       <c r="S62" s="55">
         <v>559</v>
       </c>
-      <c r="T62" s="63">
+      <c r="T62" s="55">
         <v>230</v>
       </c>
       <c r="U62" s="55">
@@ -5671,7 +5664,7 @@
         <v>12.3293</v>
       </c>
       <c r="F63" s="54">
-        <v>8.7304200000000005</v>
+        <v>7.0873400000000002</v>
       </c>
       <c r="G63" s="54">
         <v>0.38303500000000001</v>
@@ -5704,8 +5697,8 @@
       <c r="S63" s="55">
         <v>367</v>
       </c>
-      <c r="T63" s="63">
-        <v>208</v>
+      <c r="T63" s="55">
+        <v>146</v>
       </c>
       <c r="U63" s="55">
         <v>187</v>
@@ -5745,7 +5738,7 @@
       </c>
       <c r="F64" s="33">
         <f t="shared" si="4"/>
-        <v>25.347223333333332</v>
+        <v>34.178811888888895</v>
       </c>
       <c r="G64" s="33">
         <f t="shared" si="4"/>
@@ -5791,7 +5784,7 @@
       </c>
       <c r="F65" s="21">
         <f t="shared" si="5"/>
-        <v>37.160153806276007</v>
+        <v>65.612416276339289</v>
       </c>
       <c r="G65" s="21">
         <f t="shared" si="5"/>
@@ -5985,11 +5978,11 @@
       <c r="E72" s="54">
         <v>4.0223899999999997</v>
       </c>
-      <c r="F72" s="40"/>
+      <c r="F72" s="9"/>
       <c r="G72" s="54">
         <v>0.109879</v>
       </c>
-      <c r="H72" s="40"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="59"/>
       <c r="J72" s="54">
         <v>5.3376100000000003E-2</v>
@@ -6007,11 +6000,11 @@
       <c r="S72" s="55">
         <v>364</v>
       </c>
-      <c r="T72" s="40"/>
+      <c r="T72" s="9"/>
       <c r="U72" s="55">
         <v>187</v>
       </c>
-      <c r="V72" s="40"/>
+      <c r="V72" s="9"/>
       <c r="W72" s="9"/>
       <c r="X72" s="55">
         <v>158</v>
@@ -6030,11 +6023,11 @@
       <c r="E73" s="54">
         <v>5.4539999999999997</v>
       </c>
-      <c r="F73" s="40"/>
+      <c r="F73" s="9"/>
       <c r="G73" s="54">
         <v>0.12564</v>
       </c>
-      <c r="H73" s="40"/>
+      <c r="H73" s="9"/>
       <c r="I73" s="59"/>
       <c r="J73" s="54">
         <v>0.13887099999999999</v>
@@ -6052,11 +6045,11 @@
       <c r="S73" s="55">
         <v>685</v>
       </c>
-      <c r="T73" s="40"/>
+      <c r="T73" s="9"/>
       <c r="U73" s="55">
         <v>238</v>
       </c>
-      <c r="V73" s="40"/>
+      <c r="V73" s="9"/>
       <c r="W73" s="9"/>
       <c r="X73" s="55">
         <v>208</v>
@@ -6075,11 +6068,11 @@
       <c r="E74" s="54">
         <v>5.0095099999999997</v>
       </c>
-      <c r="F74" s="40"/>
+      <c r="F74" s="9"/>
       <c r="G74" s="54">
         <v>0.16522400000000001</v>
       </c>
-      <c r="H74" s="40"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="59"/>
       <c r="J74" s="54">
         <v>8.1892999999999994E-2</v>
@@ -6097,11 +6090,11 @@
       <c r="S74" s="55">
         <v>502</v>
       </c>
-      <c r="T74" s="40"/>
+      <c r="T74" s="9"/>
       <c r="U74" s="55">
         <v>256</v>
       </c>
-      <c r="V74" s="40"/>
+      <c r="V74" s="9"/>
       <c r="W74" s="9"/>
       <c r="X74" s="55">
         <v>233</v>
@@ -6120,11 +6113,11 @@
       <c r="E75" s="54">
         <v>4.3646000000000003</v>
       </c>
-      <c r="F75" s="40"/>
+      <c r="F75" s="9"/>
       <c r="G75" s="54">
         <v>0.147289</v>
       </c>
-      <c r="H75" s="40"/>
+      <c r="H75" s="9"/>
       <c r="I75" s="59"/>
       <c r="J75" s="54">
         <v>6.7930599999999994E-2</v>
@@ -6142,11 +6135,11 @@
       <c r="S75" s="55">
         <v>622</v>
       </c>
-      <c r="T75" s="40"/>
+      <c r="T75" s="9"/>
       <c r="U75" s="55">
         <v>208</v>
       </c>
-      <c r="V75" s="40"/>
+      <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="55">
         <v>158</v>
@@ -6165,11 +6158,11 @@
       <c r="E76" s="54">
         <v>4.2425199999999998</v>
       </c>
-      <c r="F76" s="62"/>
+      <c r="F76" s="10"/>
       <c r="G76" s="54">
         <v>0.19906299999999999</v>
       </c>
-      <c r="H76" s="62"/>
+      <c r="H76" s="10"/>
       <c r="I76" s="59"/>
       <c r="J76" s="54">
         <v>5.1220700000000001E-2</v>
@@ -6187,11 +6180,11 @@
       <c r="S76" s="55">
         <v>481</v>
       </c>
-      <c r="T76" s="62"/>
+      <c r="T76" s="10"/>
       <c r="U76" s="55">
         <v>379</v>
       </c>
-      <c r="V76" s="62"/>
+      <c r="V76" s="10"/>
       <c r="W76" s="10"/>
       <c r="X76" s="55">
         <v>118</v>
@@ -6210,11 +6203,11 @@
       <c r="E77" s="54">
         <v>4.8396100000000004</v>
       </c>
-      <c r="F77" s="62"/>
+      <c r="F77" s="10"/>
       <c r="G77" s="54">
         <v>0.10667500000000001</v>
       </c>
-      <c r="H77" s="62"/>
+      <c r="H77" s="10"/>
       <c r="I77" s="59"/>
       <c r="J77" s="54">
         <v>8.2027600000000006E-2</v>
@@ -6232,11 +6225,11 @@
       <c r="S77" s="55">
         <v>601</v>
       </c>
-      <c r="T77" s="62"/>
+      <c r="T77" s="10"/>
       <c r="U77" s="55">
         <v>241</v>
       </c>
-      <c r="V77" s="62"/>
+      <c r="V77" s="10"/>
       <c r="W77" s="10"/>
       <c r="X77" s="55">
         <v>148</v>
@@ -6255,11 +6248,11 @@
       <c r="E78" s="54">
         <v>3.2199</v>
       </c>
-      <c r="F78" s="62"/>
+      <c r="F78" s="10"/>
       <c r="G78" s="54">
         <v>0.106572</v>
       </c>
-      <c r="H78" s="62"/>
+      <c r="H78" s="10"/>
       <c r="I78" s="59"/>
       <c r="J78" s="54">
         <v>5.05064E-2</v>
@@ -6277,11 +6270,11 @@
       <c r="S78" s="55">
         <v>328</v>
       </c>
-      <c r="T78" s="62"/>
+      <c r="T78" s="10"/>
       <c r="U78" s="55">
         <v>154</v>
       </c>
-      <c r="V78" s="62"/>
+      <c r="V78" s="10"/>
       <c r="W78" s="10"/>
       <c r="X78" s="55">
         <v>98</v>
@@ -6300,11 +6293,11 @@
       <c r="E79" s="54">
         <v>3.1267800000000001</v>
       </c>
-      <c r="F79" s="62"/>
+      <c r="F79" s="10"/>
       <c r="G79" s="54">
         <v>8.7227299999999994E-2</v>
       </c>
-      <c r="H79" s="62"/>
+      <c r="H79" s="10"/>
       <c r="I79" s="59"/>
       <c r="J79" s="54">
         <v>9.3159099999999995E-2</v>
@@ -6322,11 +6315,11 @@
       <c r="S79" s="55">
         <v>613</v>
       </c>
-      <c r="T79" s="62"/>
+      <c r="T79" s="10"/>
       <c r="U79" s="55">
         <v>199</v>
       </c>
-      <c r="V79" s="62"/>
+      <c r="V79" s="10"/>
       <c r="W79" s="10"/>
       <c r="X79" s="55">
         <v>163</v>
@@ -6345,11 +6338,11 @@
       <c r="E80" s="54">
         <v>2.5430799999999998</v>
       </c>
-      <c r="F80" s="62"/>
+      <c r="F80" s="10"/>
       <c r="G80" s="54">
         <v>7.6675099999999996E-2</v>
       </c>
-      <c r="H80" s="62"/>
+      <c r="H80" s="10"/>
       <c r="I80" s="59"/>
       <c r="J80" s="54">
         <v>8.7870500000000004E-2</v>
@@ -6369,11 +6362,11 @@
       <c r="S80" s="55">
         <v>565</v>
       </c>
-      <c r="T80" s="62"/>
+      <c r="T80" s="10"/>
       <c r="U80" s="55">
         <v>72</v>
       </c>
-      <c r="V80" s="62"/>
+      <c r="V80" s="10"/>
       <c r="W80" s="10"/>
       <c r="X80" s="55">
         <v>258</v>
@@ -6394,11 +6387,11 @@
       <c r="E81" s="54">
         <v>3.3932699999999998</v>
       </c>
-      <c r="F81" s="62"/>
+      <c r="F81" s="9"/>
       <c r="G81" s="54">
         <v>8.8140499999999997E-2</v>
       </c>
-      <c r="H81" s="62"/>
+      <c r="H81" s="9"/>
       <c r="I81" s="59"/>
       <c r="J81" s="54">
         <v>9.5492099999999996E-2</v>
@@ -6416,11 +6409,11 @@
       <c r="S81" s="55">
         <v>370</v>
       </c>
-      <c r="T81" s="40"/>
+      <c r="T81" s="9"/>
       <c r="U81" s="55">
         <v>187</v>
       </c>
-      <c r="V81" s="40"/>
+      <c r="V81" s="9"/>
       <c r="W81" s="9"/>
       <c r="X81" s="55">
         <v>363</v>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59E7C92-924A-4291-B49F-FA8A91599DCD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4C5DDF-79F3-40D2-9A6A-307C97BD20AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v0" sheetId="1" r:id="rId1"/>
     <sheet name="v1" sheetId="2" r:id="rId2"/>
+    <sheet name="Metrics" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="55">
   <si>
     <t>GVGAI level</t>
   </si>
@@ -148,11 +149,53 @@
   <si>
     <t>Saarplan</t>
   </si>
+  <si>
+    <t>AGILE SCORE</t>
+  </si>
+  <si>
+    <t>if 0 -&gt; 0</t>
+  </si>
+  <si>
+    <t>if &lt; 1 -&gt; 1</t>
+  </si>
+  <si>
+    <t>else 1-log(t) / log(900)</t>
+  </si>
+  <si>
+    <t>900 número de segundos máximo</t>
+  </si>
+  <si>
+    <t>FD(A*)</t>
+  </si>
+  <si>
+    <t>Planes mínimos</t>
+  </si>
+  <si>
+    <t>FD (LAMA)</t>
+  </si>
+  <si>
+    <t>SATISFACING SCORE</t>
+  </si>
+  <si>
+    <t>En estos de butterflies realmente encuentra solución pero no la escribe a tiempo</t>
+  </si>
+  <si>
+    <t>Y en el de zen</t>
+  </si>
+  <si>
+    <t>LAMA</t>
+  </si>
+  <si>
+    <t>A*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -556,6 +599,11 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,6 +730,85 @@
         <a:xfrm>
           <a:off x="7136424" y="2359268"/>
           <a:ext cx="1970941" cy="315058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Timeout:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 15 min || RAM &gt; 6GB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>102578</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1617D46C-3627-41B9-BBE4-CF7DD9C5316D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7132028" y="2359268"/>
+          <a:ext cx="1973872" cy="315058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3101,10 +3228,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236E5864-7DE8-4BC8-BF4A-4C02356587BF}">
-  <dimension ref="A1:Z86"/>
+  <dimension ref="A1:Z104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A77" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90:K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6583,6 +6710,9194 @@
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
     </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M87" s="4"/>
+      <c r="R87" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="M88" s="4"/>
+      <c r="O88" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I89" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J89" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M89" s="4"/>
+      <c r="O89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P89" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R89" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U89" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V89" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W89" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="X89" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y89" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>0</v>
+      </c>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="54">
+        <v>61.8598</v>
+      </c>
+      <c r="E90" s="54">
+        <v>40.345100000000002</v>
+      </c>
+      <c r="F90" s="9"/>
+      <c r="G90" s="54">
+        <v>1.30894</v>
+      </c>
+      <c r="H90" s="9"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="54">
+        <v>1.12609</v>
+      </c>
+      <c r="K90" s="59"/>
+      <c r="M90" s="4"/>
+      <c r="O90" s="1">
+        <v>0</v>
+      </c>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="52">
+        <v>142</v>
+      </c>
+      <c r="S90" s="50">
+        <v>307</v>
+      </c>
+      <c r="T90" s="9"/>
+      <c r="U90" s="55">
+        <v>187</v>
+      </c>
+      <c r="V90" s="9"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="55">
+        <v>153</v>
+      </c>
+      <c r="Y90" s="9"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>1</v>
+      </c>
+      <c r="B91" s="46"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="54">
+        <v>55.22</v>
+      </c>
+      <c r="F91" s="9"/>
+      <c r="G91" s="54">
+        <v>1.1650100000000001</v>
+      </c>
+      <c r="H91" s="9"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="54">
+        <v>1.2299199999999999</v>
+      </c>
+      <c r="K91" s="59"/>
+      <c r="M91" s="4"/>
+      <c r="O91" s="1">
+        <v>1</v>
+      </c>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="65"/>
+      <c r="S91" s="50">
+        <v>532</v>
+      </c>
+      <c r="T91" s="9"/>
+      <c r="U91" s="55">
+        <v>238</v>
+      </c>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="55">
+        <v>208</v>
+      </c>
+      <c r="Y91" s="9"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>2</v>
+      </c>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="54">
+        <v>39.673000000000002</v>
+      </c>
+      <c r="F92" s="9"/>
+      <c r="G92" s="54">
+        <v>1.3733299999999999</v>
+      </c>
+      <c r="H92" s="9"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="54">
+        <v>1.29623</v>
+      </c>
+      <c r="K92" s="59"/>
+      <c r="M92" s="4"/>
+      <c r="O92" s="1">
+        <v>2</v>
+      </c>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="65"/>
+      <c r="S92" s="50">
+        <v>346</v>
+      </c>
+      <c r="T92" s="9"/>
+      <c r="U92" s="55">
+        <v>256</v>
+      </c>
+      <c r="V92" s="9"/>
+      <c r="W92" s="9"/>
+      <c r="X92" s="55">
+        <v>208</v>
+      </c>
+      <c r="Y92" s="9"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>3</v>
+      </c>
+      <c r="B93" s="46"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="54">
+        <v>681.57100000000003</v>
+      </c>
+      <c r="E93" s="54">
+        <v>41.287199999999999</v>
+      </c>
+      <c r="F93" s="9"/>
+      <c r="G93" s="54">
+        <v>1.3267100000000001</v>
+      </c>
+      <c r="H93" s="9"/>
+      <c r="I93" s="59"/>
+      <c r="J93" s="54">
+        <v>1.1058399999999999</v>
+      </c>
+      <c r="K93" s="59"/>
+      <c r="M93" s="4"/>
+      <c r="O93" s="1">
+        <v>3</v>
+      </c>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="52">
+        <v>134</v>
+      </c>
+      <c r="S93" s="50">
+        <v>493</v>
+      </c>
+      <c r="T93" s="9"/>
+      <c r="U93" s="55">
+        <v>208</v>
+      </c>
+      <c r="V93" s="9"/>
+      <c r="W93" s="9"/>
+      <c r="X93" s="55">
+        <v>148</v>
+      </c>
+      <c r="Y93" s="9"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="24">
+        <v>4</v>
+      </c>
+      <c r="B94" s="47"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="54">
+        <v>48.830399999999997</v>
+      </c>
+      <c r="E94" s="54">
+        <v>45.474699999999999</v>
+      </c>
+      <c r="F94" s="10"/>
+      <c r="G94" s="54">
+        <v>2.24186</v>
+      </c>
+      <c r="H94" s="10"/>
+      <c r="I94" s="59"/>
+      <c r="J94" s="54">
+        <v>0.904111</v>
+      </c>
+      <c r="K94" s="59"/>
+      <c r="M94" s="4"/>
+      <c r="O94" s="1">
+        <v>4</v>
+      </c>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="52">
+        <v>89</v>
+      </c>
+      <c r="S94" s="50">
+        <v>445</v>
+      </c>
+      <c r="T94" s="10"/>
+      <c r="U94" s="55">
+        <v>379</v>
+      </c>
+      <c r="V94" s="10"/>
+      <c r="W94" s="10"/>
+      <c r="X94" s="55">
+        <v>118</v>
+      </c>
+      <c r="Y94" s="10"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="24">
+        <v>5</v>
+      </c>
+      <c r="B95" s="47"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="54">
+        <v>10.012499999999999</v>
+      </c>
+      <c r="E95" s="54">
+        <v>42.5687</v>
+      </c>
+      <c r="F95" s="10"/>
+      <c r="G95" s="54">
+        <v>0.92680099999999999</v>
+      </c>
+      <c r="H95" s="10"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="54">
+        <v>1.3073900000000001</v>
+      </c>
+      <c r="K95" s="59"/>
+      <c r="M95" s="4"/>
+      <c r="O95" s="1">
+        <v>5</v>
+      </c>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="52">
+        <v>130</v>
+      </c>
+      <c r="S95" s="50">
+        <v>310</v>
+      </c>
+      <c r="T95" s="10"/>
+      <c r="U95" s="55">
+        <v>199</v>
+      </c>
+      <c r="V95" s="10"/>
+      <c r="W95" s="10"/>
+      <c r="X95" s="55">
+        <v>148</v>
+      </c>
+      <c r="Y95" s="10"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="24">
+        <v>6</v>
+      </c>
+      <c r="B96" s="47"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="54">
+        <v>6.6980599999999999</v>
+      </c>
+      <c r="E96" s="54">
+        <v>68.042900000000003</v>
+      </c>
+      <c r="F96" s="10"/>
+      <c r="G96" s="54">
+        <v>1.1829400000000001</v>
+      </c>
+      <c r="H96" s="10"/>
+      <c r="I96" s="59"/>
+      <c r="J96" s="54">
+        <v>1.18411</v>
+      </c>
+      <c r="K96" s="59"/>
+      <c r="M96" s="4"/>
+      <c r="O96" s="1">
+        <v>6</v>
+      </c>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="52">
+        <v>93</v>
+      </c>
+      <c r="S96" s="50">
+        <v>316</v>
+      </c>
+      <c r="T96" s="10"/>
+      <c r="U96" s="55">
+        <v>154</v>
+      </c>
+      <c r="V96" s="10"/>
+      <c r="W96" s="10"/>
+      <c r="X96" s="55">
+        <v>98</v>
+      </c>
+      <c r="Y96" s="10"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" s="24">
+        <v>7</v>
+      </c>
+      <c r="B97" s="47"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="54">
+        <v>4.87303</v>
+      </c>
+      <c r="E97" s="54">
+        <v>39.043100000000003</v>
+      </c>
+      <c r="F97" s="10"/>
+      <c r="G97" s="54">
+        <v>0.997112</v>
+      </c>
+      <c r="H97" s="10"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="54">
+        <v>1.2085900000000001</v>
+      </c>
+      <c r="K97" s="59"/>
+      <c r="M97" s="4"/>
+      <c r="O97" s="1">
+        <v>7</v>
+      </c>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="52">
+        <v>99</v>
+      </c>
+      <c r="S97" s="50">
+        <v>505</v>
+      </c>
+      <c r="T97" s="10"/>
+      <c r="U97" s="55">
+        <v>199</v>
+      </c>
+      <c r="V97" s="10"/>
+      <c r="W97" s="10"/>
+      <c r="X97" s="55">
+        <v>138</v>
+      </c>
+      <c r="Y97" s="10"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="24">
+        <v>8</v>
+      </c>
+      <c r="B98" s="47"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="54">
+        <v>5.40428</v>
+      </c>
+      <c r="E98" s="54">
+        <v>34.791899999999998</v>
+      </c>
+      <c r="F98" s="10"/>
+      <c r="G98" s="54">
+        <v>0.70125499999999996</v>
+      </c>
+      <c r="H98" s="10"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="54">
+        <v>1.30047</v>
+      </c>
+      <c r="K98" s="59"/>
+      <c r="M98" s="4"/>
+      <c r="O98" s="1">
+        <v>8</v>
+      </c>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="52">
+        <v>106</v>
+      </c>
+      <c r="S98" s="50">
+        <v>550</v>
+      </c>
+      <c r="T98" s="10"/>
+      <c r="U98" s="55">
+        <v>72</v>
+      </c>
+      <c r="V98" s="10"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="55">
+        <v>258</v>
+      </c>
+      <c r="Y98" s="10"/>
+    </row>
+    <row r="99" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="24">
+        <v>9</v>
+      </c>
+      <c r="B99" s="47"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="54">
+        <v>8.0884499999999999</v>
+      </c>
+      <c r="E99" s="54">
+        <v>32.7744</v>
+      </c>
+      <c r="F99" s="9"/>
+      <c r="G99" s="54">
+        <v>0.99968100000000004</v>
+      </c>
+      <c r="H99" s="9"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="54">
+        <v>1.1249100000000001</v>
+      </c>
+      <c r="K99" s="59"/>
+      <c r="M99" s="4"/>
+      <c r="O99" s="1">
+        <v>9</v>
+      </c>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="52">
+        <v>136</v>
+      </c>
+      <c r="S99" s="50">
+        <v>289</v>
+      </c>
+      <c r="T99" s="9"/>
+      <c r="U99" s="55">
+        <v>187</v>
+      </c>
+      <c r="V99" s="9"/>
+      <c r="W99" s="9"/>
+      <c r="X99" s="55">
+        <v>358</v>
+      </c>
+      <c r="Y99" s="9"/>
+    </row>
+    <row r="100" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" s="33" t="e">
+        <f t="shared" ref="B100:K100" si="8">AVERAGE(B90:B99)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C100" s="34" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="33">
+        <f t="shared" si="8"/>
+        <v>103.41718999999999</v>
+      </c>
+      <c r="E100" s="33">
+        <f t="shared" si="8"/>
+        <v>43.922099999999993</v>
+      </c>
+      <c r="F100" s="33" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G100" s="33">
+        <f t="shared" si="8"/>
+        <v>1.2223638999999999</v>
+      </c>
+      <c r="H100" s="33" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="33" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J100" s="33">
+        <f t="shared" si="8"/>
+        <v>1.1787661</v>
+      </c>
+      <c r="K100" s="33" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M100" s="4"/>
+    </row>
+    <row r="101" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" s="21" t="e">
+        <f t="shared" ref="B101:K101" si="9">_xlfn.STDEV.P(B90:B99)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C101" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D101" s="21">
+        <f t="shared" si="9"/>
+        <v>219.50302936757691</v>
+      </c>
+      <c r="E101" s="21">
+        <f t="shared" si="9"/>
+        <v>9.914265890725364</v>
+      </c>
+      <c r="F101" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G101" s="21">
+        <f t="shared" si="9"/>
+        <v>0.39301759637437328</v>
+      </c>
+      <c r="H101" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I101" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J101" s="21">
+        <f t="shared" si="9"/>
+        <v>0.11623998861360062</v>
+      </c>
+      <c r="K101" s="21" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M101" s="4"/>
+    </row>
+    <row r="102" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="18">
+        <v>0</v>
+      </c>
+      <c r="C102" s="19">
+        <v>0</v>
+      </c>
+      <c r="D102" s="19">
+        <v>8</v>
+      </c>
+      <c r="E102" s="19">
+        <v>10</v>
+      </c>
+      <c r="F102" s="19">
+        <v>0</v>
+      </c>
+      <c r="G102" s="19">
+        <v>10</v>
+      </c>
+      <c r="H102" s="19">
+        <v>0</v>
+      </c>
+      <c r="I102" s="19">
+        <v>0</v>
+      </c>
+      <c r="J102" s="20">
+        <v>10</v>
+      </c>
+      <c r="K102" s="60">
+        <v>0</v>
+      </c>
+      <c r="L102" s="32">
+        <f>SUM(B102:K102)</f>
+        <v>38</v>
+      </c>
+      <c r="M102" s="4"/>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M103" s="4"/>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="4"/>
+      <c r="Y104" s="4"/>
+      <c r="Z104" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E386126B-65E8-4C6E-8E3D-C2C060000E4B}">
+  <dimension ref="A1:Z175"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J120" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Z135" sqref="Z135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="25" width="10.42578125" customWidth="1"/>
+    <col min="26" max="26" width="7.5703125" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="O1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="O2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="58"/>
+      <c r="M3" s="4"/>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="50">
+        <v>5</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="50">
+        <v>1</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="58"/>
+      <c r="M4" s="4"/>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="50">
+        <v>1</v>
+      </c>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="58"/>
+      <c r="M5" s="4"/>
+      <c r="O5" s="1">
+        <v>2</v>
+      </c>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="58"/>
+      <c r="M6" s="4"/>
+      <c r="O6" s="1">
+        <v>3</v>
+      </c>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="X6" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="48"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="58"/>
+      <c r="M7" s="4"/>
+      <c r="O7" s="1">
+        <v>4</v>
+      </c>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="50">
+        <v>3</v>
+      </c>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="50">
+        <v>1</v>
+      </c>
+      <c r="X7" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="48"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="58"/>
+      <c r="M8" s="4"/>
+      <c r="O8" s="1">
+        <v>5</v>
+      </c>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="58"/>
+      <c r="M9" s="4"/>
+      <c r="O9" s="1">
+        <v>6</v>
+      </c>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="58"/>
+      <c r="M10" s="4"/>
+      <c r="O10" s="1">
+        <v>7</v>
+      </c>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="58"/>
+      <c r="M11" s="4"/>
+      <c r="O11" s="1">
+        <v>8</v>
+      </c>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="58"/>
+      <c r="M12" s="4"/>
+      <c r="O12" s="1">
+        <v>9</v>
+      </c>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="50">
+        <v>5</v>
+      </c>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="O16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="O17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="X17" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y17" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="50">
+        <v>8.94</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="52">
+        <v>505.53</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="54">
+        <v>295.70999999999998</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="54">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="52">
+        <v>65</v>
+      </c>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="52">
+        <v>163</v>
+      </c>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="55">
+        <v>187</v>
+      </c>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="50">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="54">
+        <v>335.76</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="54">
+        <v>740.08</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="55">
+        <v>262</v>
+      </c>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="50">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="52">
+        <v>258.99</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="54">
+        <v>885.99</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="59"/>
+      <c r="M20" s="4"/>
+      <c r="O20" s="1">
+        <v>2</v>
+      </c>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="52">
+        <v>136</v>
+      </c>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="55">
+        <v>364</v>
+      </c>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="9"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="54">
+        <v>377.76</v>
+      </c>
+      <c r="K21" s="54">
+        <v>56.53</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="O21" s="1">
+        <v>3</v>
+      </c>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="55">
+        <v>153</v>
+      </c>
+      <c r="Y21" s="50">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>4</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="52">
+        <v>158.88</v>
+      </c>
+      <c r="E22" s="59"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="54">
+        <v>1.22</v>
+      </c>
+      <c r="J22" s="54">
+        <v>555.86</v>
+      </c>
+      <c r="K22" s="54">
+        <v>214.47</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="O22" s="1">
+        <v>4</v>
+      </c>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="52">
+        <v>98</v>
+      </c>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="61">
+        <v>38</v>
+      </c>
+      <c r="X22" s="55">
+        <v>133</v>
+      </c>
+      <c r="Y22" s="61">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>5</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="52">
+        <v>385.23</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="54">
+        <v>507.3</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="59"/>
+      <c r="M23" s="4"/>
+      <c r="O23" s="1">
+        <v>5</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="52">
+        <v>142</v>
+      </c>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="55">
+        <v>241</v>
+      </c>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="10"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>6</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="52">
+        <v>266.64</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="54">
+        <v>215.17</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="54">
+        <v>124.26</v>
+      </c>
+      <c r="K24" s="54">
+        <v>20.56</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="O24" s="1">
+        <v>6</v>
+      </c>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="52">
+        <v>93</v>
+      </c>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="55">
+        <v>154</v>
+      </c>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="55">
+        <v>118</v>
+      </c>
+      <c r="Y24" s="61">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>7</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="52">
+        <v>205.66</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="54">
+        <v>366.21</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="54">
+        <v>710.67</v>
+      </c>
+      <c r="K25" s="54">
+        <v>1.07</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="O25" s="1">
+        <v>7</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="52">
+        <v>111</v>
+      </c>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="55">
+        <v>199</v>
+      </c>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="55">
+        <v>148</v>
+      </c>
+      <c r="Y25" s="61">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>8</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="52">
+        <v>63.19</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="54">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="54">
+        <v>829.02</v>
+      </c>
+      <c r="K26" s="54">
+        <v>69.42</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="O26" s="1">
+        <v>8</v>
+      </c>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="52">
+        <v>106</v>
+      </c>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="55">
+        <v>78</v>
+      </c>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="55">
+        <v>258</v>
+      </c>
+      <c r="Y26" s="61">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
+        <v>9</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="52">
+        <v>252.04</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="54">
+        <v>347.65</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="54">
+        <v>850.38</v>
+      </c>
+      <c r="K27" s="54">
+        <v>60.34</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="O27" s="1">
+        <v>9</v>
+      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="52">
+        <v>169</v>
+      </c>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="55">
+        <v>187</v>
+      </c>
+      <c r="V27" s="10"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="55">
+        <v>358</v>
+      </c>
+      <c r="Y27" s="50">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="33">
+        <f t="shared" ref="B28:K28" si="0">AVERAGE(B18:B27)</f>
+        <v>8.94</v>
+      </c>
+      <c r="C28" s="34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="51">
+        <f t="shared" si="0"/>
+        <v>262.02000000000004</v>
+      </c>
+      <c r="E28" s="33" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="33" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="33">
+        <f t="shared" si="0"/>
+        <v>369.76749999999998</v>
+      </c>
+      <c r="H28" s="33" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="33">
+        <f t="shared" si="0"/>
+        <v>1.22</v>
+      </c>
+      <c r="J28" s="33">
+        <f t="shared" si="0"/>
+        <v>574.65833333333342</v>
+      </c>
+      <c r="K28" s="33">
+        <f t="shared" si="0"/>
+        <v>149.68999999999997</v>
+      </c>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="21">
+        <f t="shared" ref="B29:K29" si="1">_xlfn.STDEV.P(B18:B27)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="21">
+        <f t="shared" si="1"/>
+        <v>126.46918004003969</v>
+      </c>
+      <c r="E29" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="21">
+        <f t="shared" si="1"/>
+        <v>237.16398792554915</v>
+      </c>
+      <c r="H29" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="21">
+        <f t="shared" si="1"/>
+        <v>258.58669019735362</v>
+      </c>
+      <c r="K29" s="21">
+        <f t="shared" si="1"/>
+        <v>231.23772194432291</v>
+      </c>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="18">
+        <v>1</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19">
+        <v>8</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0</v>
+      </c>
+      <c r="F30" s="19">
+        <v>0</v>
+      </c>
+      <c r="G30" s="19">
+        <v>8</v>
+      </c>
+      <c r="H30" s="19">
+        <v>0</v>
+      </c>
+      <c r="I30" s="19">
+        <v>1</v>
+      </c>
+      <c r="J30" s="20">
+        <v>6</v>
+      </c>
+      <c r="K30" s="60">
+        <v>8</v>
+      </c>
+      <c r="L30" s="32">
+        <f>SUM(B30:K30)</f>
+        <v>32</v>
+      </c>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="O34" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="P34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="O35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R35" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U35" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V35" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W35" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="X35" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y35" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="54">
+        <v>4.5584199999999999</v>
+      </c>
+      <c r="E36" s="54">
+        <v>1.0730500000000001</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="54">
+        <v>0.12731100000000001</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="54">
+        <v>0.11088199999999999</v>
+      </c>
+      <c r="K36" s="59"/>
+      <c r="M36" s="4"/>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="52">
+        <v>142</v>
+      </c>
+      <c r="S36" s="50">
+        <v>307</v>
+      </c>
+      <c r="T36" s="9"/>
+      <c r="U36" s="55">
+        <v>187</v>
+      </c>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="55">
+        <v>153</v>
+      </c>
+      <c r="Y36" s="9"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="46"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="54">
+        <v>369.37900000000002</v>
+      </c>
+      <c r="E37" s="54">
+        <v>1.17469</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="54">
+        <v>0.137241</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="54">
+        <v>0.114484</v>
+      </c>
+      <c r="K37" s="59"/>
+      <c r="M37" s="4"/>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="52">
+        <v>175</v>
+      </c>
+      <c r="S37" s="50">
+        <v>532</v>
+      </c>
+      <c r="T37" s="9"/>
+      <c r="U37" s="55">
+        <v>238</v>
+      </c>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="55">
+        <v>208</v>
+      </c>
+      <c r="Y37" s="9"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="54">
+        <v>244.98400000000001</v>
+      </c>
+      <c r="E38" s="54">
+        <v>1.0177700000000001</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="54">
+        <v>0.145514</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="54">
+        <v>0.115649</v>
+      </c>
+      <c r="K38" s="59"/>
+      <c r="M38" s="4"/>
+      <c r="O38" s="1">
+        <v>2</v>
+      </c>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="52">
+        <v>130</v>
+      </c>
+      <c r="S38" s="50">
+        <v>346</v>
+      </c>
+      <c r="T38" s="9"/>
+      <c r="U38" s="55">
+        <v>256</v>
+      </c>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="55">
+        <v>208</v>
+      </c>
+      <c r="Y38" s="9"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="B39" s="46"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="54">
+        <v>88.552000000000007</v>
+      </c>
+      <c r="E39" s="54">
+        <v>1.0498099999999999</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="54">
+        <v>0.13156599999999999</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="54">
+        <v>8.8751200000000002E-2</v>
+      </c>
+      <c r="K39" s="59"/>
+      <c r="M39" s="4"/>
+      <c r="O39" s="1">
+        <v>3</v>
+      </c>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="52">
+        <v>134</v>
+      </c>
+      <c r="S39" s="50">
+        <v>493</v>
+      </c>
+      <c r="T39" s="9"/>
+      <c r="U39" s="55">
+        <v>208</v>
+      </c>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="55">
+        <v>148</v>
+      </c>
+      <c r="Y39" s="9"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
+        <v>4</v>
+      </c>
+      <c r="B40" s="47"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="54">
+        <v>3.7271200000000002</v>
+      </c>
+      <c r="E40" s="54">
+        <v>1.1207400000000001</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="54">
+        <v>0.16553699999999999</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="54">
+        <v>8.2298700000000002E-2</v>
+      </c>
+      <c r="K40" s="59"/>
+      <c r="M40" s="4"/>
+      <c r="O40" s="1">
+        <v>4</v>
+      </c>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="52">
+        <v>89</v>
+      </c>
+      <c r="S40" s="50">
+        <v>445</v>
+      </c>
+      <c r="T40" s="10"/>
+      <c r="U40" s="55">
+        <v>379</v>
+      </c>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="55">
+        <v>118</v>
+      </c>
+      <c r="Y40" s="10"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
+        <v>5</v>
+      </c>
+      <c r="B41" s="47"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="54">
+        <v>0.64394700000000005</v>
+      </c>
+      <c r="E41" s="54">
+        <v>1.01284</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="54">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="54">
+        <v>0.11194</v>
+      </c>
+      <c r="K41" s="59"/>
+      <c r="M41" s="4"/>
+      <c r="O41" s="1">
+        <v>5</v>
+      </c>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="52">
+        <v>103</v>
+      </c>
+      <c r="S41" s="50">
+        <v>310</v>
+      </c>
+      <c r="T41" s="10"/>
+      <c r="U41" s="55">
+        <v>199</v>
+      </c>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="55">
+        <v>148</v>
+      </c>
+      <c r="Y41" s="10"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
+        <v>6</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="54">
+        <v>0.41857299999999997</v>
+      </c>
+      <c r="E42" s="54">
+        <v>1.3957900000000001</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="54">
+        <v>0.108722</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="54">
+        <v>9.5584500000000003E-2</v>
+      </c>
+      <c r="K42" s="59"/>
+      <c r="M42" s="4"/>
+      <c r="O42" s="1">
+        <v>6</v>
+      </c>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="52">
+        <v>93</v>
+      </c>
+      <c r="S42" s="50">
+        <v>316</v>
+      </c>
+      <c r="T42" s="10"/>
+      <c r="U42" s="55">
+        <v>154</v>
+      </c>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="55">
+        <v>98</v>
+      </c>
+      <c r="Y42" s="10"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
+        <v>7</v>
+      </c>
+      <c r="B43" s="47"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="54">
+        <v>0.33063700000000001</v>
+      </c>
+      <c r="E43" s="54">
+        <v>1.03054</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="54">
+        <v>0.106403</v>
+      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="54">
+        <v>0.10772</v>
+      </c>
+      <c r="K43" s="59"/>
+      <c r="M43" s="4"/>
+      <c r="O43" s="1">
+        <v>7</v>
+      </c>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="52">
+        <v>99</v>
+      </c>
+      <c r="S43" s="50">
+        <v>505</v>
+      </c>
+      <c r="T43" s="10"/>
+      <c r="U43" s="55">
+        <v>199</v>
+      </c>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="55">
+        <v>138</v>
+      </c>
+      <c r="Y43" s="10"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="24">
+        <v>8</v>
+      </c>
+      <c r="B44" s="47"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="54">
+        <v>0.33985700000000002</v>
+      </c>
+      <c r="E44" s="54">
+        <v>0.99276699999999996</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="54">
+        <v>7.9479599999999997E-2</v>
+      </c>
+      <c r="H44" s="10"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="54">
+        <v>0.11412799999999999</v>
+      </c>
+      <c r="K44" s="54">
+        <v>4.3423600000000002</v>
+      </c>
+      <c r="M44" s="4"/>
+      <c r="O44" s="1">
+        <v>8</v>
+      </c>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="52">
+        <v>106</v>
+      </c>
+      <c r="S44" s="50">
+        <v>550</v>
+      </c>
+      <c r="T44" s="10"/>
+      <c r="U44" s="55">
+        <v>72</v>
+      </c>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="55">
+        <v>258</v>
+      </c>
+      <c r="Y44" s="61">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="24">
+        <v>9</v>
+      </c>
+      <c r="B45" s="47"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="54">
+        <v>0.54566099999999995</v>
+      </c>
+      <c r="E45" s="54">
+        <v>0.94031600000000004</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="54">
+        <v>7.1677299999999999E-2</v>
+      </c>
+      <c r="H45" s="10"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="54">
+        <v>0.15307000000000001</v>
+      </c>
+      <c r="K45" s="59"/>
+      <c r="M45" s="4"/>
+      <c r="O45" s="1">
+        <v>9</v>
+      </c>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="52">
+        <v>136</v>
+      </c>
+      <c r="S45" s="50">
+        <v>289</v>
+      </c>
+      <c r="T45" s="9"/>
+      <c r="U45" s="55">
+        <v>187</v>
+      </c>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="55">
+        <v>358</v>
+      </c>
+      <c r="Y45" s="9"/>
+    </row>
+    <row r="46" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="33" t="e">
+        <f t="shared" ref="B46:K46" si="2">AVERAGE(B36:B45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C46" s="34" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D46" s="33">
+        <f t="shared" si="2"/>
+        <v>71.347921500000012</v>
+      </c>
+      <c r="E46" s="33">
+        <f t="shared" si="2"/>
+        <v>1.0808312999999998</v>
+      </c>
+      <c r="F46" s="33" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" s="33">
+        <f t="shared" si="2"/>
+        <v>0.11856508999999997</v>
+      </c>
+      <c r="H46" s="33" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" s="33" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J46" s="33">
+        <f t="shared" si="2"/>
+        <v>0.10945073999999999</v>
+      </c>
+      <c r="K46" s="33">
+        <f t="shared" si="2"/>
+        <v>4.3423600000000002</v>
+      </c>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="21" t="e">
+        <f t="shared" ref="B47:K47" si="3">_xlfn.STDEV.P(B36:B45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C47" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D47" s="21">
+        <f t="shared" si="3"/>
+        <v>123.86685861614376</v>
+      </c>
+      <c r="E47" s="21">
+        <f t="shared" si="3"/>
+        <v>0.12216899854222542</v>
+      </c>
+      <c r="F47" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" s="21">
+        <f t="shared" si="3"/>
+        <v>2.7456084754329136E-2</v>
+      </c>
+      <c r="H47" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I47" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J47" s="21">
+        <f t="shared" si="3"/>
+        <v>1.8323443898197844E-2</v>
+      </c>
+      <c r="K47" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="18">
+        <v>0</v>
+      </c>
+      <c r="C48" s="19">
+        <v>0</v>
+      </c>
+      <c r="D48" s="19">
+        <v>10</v>
+      </c>
+      <c r="E48" s="19">
+        <v>10</v>
+      </c>
+      <c r="F48" s="19">
+        <v>0</v>
+      </c>
+      <c r="G48" s="19">
+        <v>10</v>
+      </c>
+      <c r="H48" s="19">
+        <v>0</v>
+      </c>
+      <c r="I48" s="19">
+        <v>0</v>
+      </c>
+      <c r="J48" s="20">
+        <v>10</v>
+      </c>
+      <c r="K48" s="60">
+        <v>1</v>
+      </c>
+      <c r="L48" s="32">
+        <f>SUM(B48:K48)</f>
+        <v>41</v>
+      </c>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="M52" s="4"/>
+      <c r="O52" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M53" s="4"/>
+      <c r="O53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P53" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R53" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="S53" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="T53" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U53" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W53" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="X53" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y53" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54" s="54">
+        <v>1.12389E-2</v>
+      </c>
+      <c r="C54" s="54">
+        <v>42.491300000000003</v>
+      </c>
+      <c r="D54" s="54">
+        <v>6.0726300000000002</v>
+      </c>
+      <c r="E54" s="54">
+        <v>18.004999999999999</v>
+      </c>
+      <c r="F54" s="54">
+        <v>11.003</v>
+      </c>
+      <c r="G54" s="54">
+        <v>0.47940199999999999</v>
+      </c>
+      <c r="H54" s="54">
+        <v>11.3604</v>
+      </c>
+      <c r="I54" s="54">
+        <v>275.714</v>
+      </c>
+      <c r="J54" s="54">
+        <v>2.0734300000000001</v>
+      </c>
+      <c r="K54" s="54">
+        <v>0.53345100000000001</v>
+      </c>
+      <c r="M54" s="4"/>
+      <c r="O54" s="1">
+        <v>0</v>
+      </c>
+      <c r="P54" s="55">
+        <v>21</v>
+      </c>
+      <c r="Q54" s="55">
+        <v>258</v>
+      </c>
+      <c r="R54" s="55">
+        <v>178</v>
+      </c>
+      <c r="S54" s="55">
+        <v>355</v>
+      </c>
+      <c r="T54" s="55">
+        <v>350</v>
+      </c>
+      <c r="U54" s="55">
+        <v>187</v>
+      </c>
+      <c r="V54" s="55">
+        <v>173</v>
+      </c>
+      <c r="W54" s="55">
+        <v>353</v>
+      </c>
+      <c r="X54" s="55">
+        <v>243</v>
+      </c>
+      <c r="Y54" s="55">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="54">
+        <v>6.6536600000000004</v>
+      </c>
+      <c r="C55" s="54">
+        <v>30.741700000000002</v>
+      </c>
+      <c r="D55" s="54">
+        <v>10.238099999999999</v>
+      </c>
+      <c r="E55" s="54">
+        <v>44.814300000000003</v>
+      </c>
+      <c r="F55" s="54">
+        <v>29.803100000000001</v>
+      </c>
+      <c r="G55" s="54">
+        <v>0.38312600000000002</v>
+      </c>
+      <c r="H55" s="54">
+        <v>13.377700000000001</v>
+      </c>
+      <c r="I55" s="54">
+        <v>69.224100000000007</v>
+      </c>
+      <c r="J55" s="54">
+        <v>2.52434</v>
+      </c>
+      <c r="K55" s="54">
+        <v>7.9037099999999999E-2</v>
+      </c>
+      <c r="M55" s="4"/>
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+      <c r="P55" s="55">
+        <v>121</v>
+      </c>
+      <c r="Q55" s="55">
+        <v>208</v>
+      </c>
+      <c r="R55" s="55">
+        <v>397</v>
+      </c>
+      <c r="S55" s="55">
+        <v>607</v>
+      </c>
+      <c r="T55" s="55">
+        <v>315</v>
+      </c>
+      <c r="U55" s="55">
+        <v>238</v>
+      </c>
+      <c r="V55" s="55">
+        <v>177</v>
+      </c>
+      <c r="W55" s="55">
+        <v>208</v>
+      </c>
+      <c r="X55" s="55">
+        <v>223</v>
+      </c>
+      <c r="Y55" s="55">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+      <c r="B56" s="54">
+        <v>0.16361800000000001</v>
+      </c>
+      <c r="C56" s="54">
+        <v>25.808399999999999</v>
+      </c>
+      <c r="D56" s="54">
+        <v>8.8827600000000007E-2</v>
+      </c>
+      <c r="E56" s="54">
+        <v>19.5749</v>
+      </c>
+      <c r="F56" s="54">
+        <v>218.065</v>
+      </c>
+      <c r="G56" s="54">
+        <v>0.50300400000000001</v>
+      </c>
+      <c r="H56" s="54">
+        <v>10.3215</v>
+      </c>
+      <c r="I56" s="54">
+        <v>14.936400000000001</v>
+      </c>
+      <c r="J56" s="54">
+        <v>1.3243</v>
+      </c>
+      <c r="K56" s="54">
+        <v>0.94615700000000003</v>
+      </c>
+      <c r="M56" s="4"/>
+      <c r="O56" s="1">
+        <v>2</v>
+      </c>
+      <c r="P56" s="55">
+        <v>42</v>
+      </c>
+      <c r="Q56" s="55">
+        <v>175</v>
+      </c>
+      <c r="R56" s="55">
+        <v>148</v>
+      </c>
+      <c r="S56" s="55">
+        <v>541</v>
+      </c>
+      <c r="T56" s="55">
+        <v>790</v>
+      </c>
+      <c r="U56" s="55">
+        <v>256</v>
+      </c>
+      <c r="V56" s="55">
+        <v>196</v>
+      </c>
+      <c r="W56" s="55">
+        <v>148</v>
+      </c>
+      <c r="X56" s="55">
+        <v>258</v>
+      </c>
+      <c r="Y56" s="55">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>3</v>
+      </c>
+      <c r="B57" s="54">
+        <v>17.5992</v>
+      </c>
+      <c r="C57" s="54">
+        <v>49.455800000000004</v>
+      </c>
+      <c r="D57" s="54">
+        <v>9.7938299999999998</v>
+      </c>
+      <c r="E57" s="54">
+        <v>18.940899999999999</v>
+      </c>
+      <c r="F57" s="54">
+        <v>0.73758699999999999</v>
+      </c>
+      <c r="G57" s="54">
+        <v>0.54791000000000001</v>
+      </c>
+      <c r="H57" s="54">
+        <v>12.2889</v>
+      </c>
+      <c r="I57" s="54">
+        <v>0.18924099999999999</v>
+      </c>
+      <c r="J57" s="54">
+        <v>1.43055</v>
+      </c>
+      <c r="K57" s="54">
+        <v>7.2814100000000007E-2</v>
+      </c>
+      <c r="M57" s="4"/>
+      <c r="O57" s="1">
+        <v>3</v>
+      </c>
+      <c r="P57" s="55">
+        <v>82</v>
+      </c>
+      <c r="Q57" s="55">
+        <v>349</v>
+      </c>
+      <c r="R57" s="55">
+        <v>236</v>
+      </c>
+      <c r="S57" s="55">
+        <v>490</v>
+      </c>
+      <c r="T57" s="55">
+        <v>66</v>
+      </c>
+      <c r="U57" s="55">
+        <v>208</v>
+      </c>
+      <c r="V57" s="55">
+        <v>212</v>
+      </c>
+      <c r="W57" s="55">
+        <v>57</v>
+      </c>
+      <c r="X57" s="55">
+        <v>253</v>
+      </c>
+      <c r="Y57" s="55">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="24">
+        <v>4</v>
+      </c>
+      <c r="B58" s="54">
+        <v>29.069099999999999</v>
+      </c>
+      <c r="C58" s="54">
+        <v>2.6156700000000002</v>
+      </c>
+      <c r="D58" s="54">
+        <v>6.22377</v>
+      </c>
+      <c r="E58" s="54">
+        <v>13.1508</v>
+      </c>
+      <c r="F58" s="59"/>
+      <c r="G58" s="54">
+        <v>0.70573300000000005</v>
+      </c>
+      <c r="H58" s="54">
+        <v>0.52202000000000004</v>
+      </c>
+      <c r="I58" s="54">
+        <v>6.9745100000000004E-2</v>
+      </c>
+      <c r="J58" s="54">
+        <v>0.73257499999999998</v>
+      </c>
+      <c r="K58" s="54">
+        <v>8.7135099999999993E-2</v>
+      </c>
+      <c r="M58" s="4"/>
+      <c r="O58" s="1">
+        <v>4</v>
+      </c>
+      <c r="P58" s="55">
+        <v>137</v>
+      </c>
+      <c r="Q58" s="55">
+        <v>102</v>
+      </c>
+      <c r="R58" s="55">
+        <v>158</v>
+      </c>
+      <c r="S58" s="55">
+        <v>472</v>
+      </c>
+      <c r="T58" s="62"/>
+      <c r="U58" s="55">
+        <v>379</v>
+      </c>
+      <c r="V58" s="55">
+        <v>86</v>
+      </c>
+      <c r="W58" s="55">
+        <v>29</v>
+      </c>
+      <c r="X58" s="55">
+        <v>133</v>
+      </c>
+      <c r="Y58" s="55">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="24">
+        <v>5</v>
+      </c>
+      <c r="B59" s="54">
+        <v>0.132461</v>
+      </c>
+      <c r="C59" s="54">
+        <v>15.929600000000001</v>
+      </c>
+      <c r="D59" s="54">
+        <v>4.43478E-2</v>
+      </c>
+      <c r="E59" s="54">
+        <v>35.987299999999998</v>
+      </c>
+      <c r="F59" s="54">
+        <v>19.471800000000002</v>
+      </c>
+      <c r="G59" s="54">
+        <v>0.43384499999999998</v>
+      </c>
+      <c r="H59" s="54">
+        <v>12.176</v>
+      </c>
+      <c r="I59" s="54">
+        <v>246.53399999999999</v>
+      </c>
+      <c r="J59" s="54">
+        <v>0.83743500000000004</v>
+      </c>
+      <c r="K59" s="54">
+        <v>5.3616999999999998E-2</v>
+      </c>
+      <c r="M59" s="4"/>
+      <c r="O59" s="1">
+        <v>5</v>
+      </c>
+      <c r="P59" s="55">
+        <v>77</v>
+      </c>
+      <c r="Q59" s="55">
+        <v>163</v>
+      </c>
+      <c r="R59" s="55">
+        <v>148</v>
+      </c>
+      <c r="S59" s="55">
+        <v>460</v>
+      </c>
+      <c r="T59" s="55">
+        <v>181</v>
+      </c>
+      <c r="U59" s="55">
+        <v>199</v>
+      </c>
+      <c r="V59" s="55">
+        <v>136</v>
+      </c>
+      <c r="W59" s="55">
+        <v>193</v>
+      </c>
+      <c r="X59" s="55">
+        <v>163</v>
+      </c>
+      <c r="Y59" s="55">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="24">
+        <v>6</v>
+      </c>
+      <c r="B60" s="54">
+        <v>40.249200000000002</v>
+      </c>
+      <c r="C60" s="54">
+        <v>23.0289</v>
+      </c>
+      <c r="D60" s="54">
+        <v>4.2488100000000001E-2</v>
+      </c>
+      <c r="E60" s="54">
+        <v>21.556999999999999</v>
+      </c>
+      <c r="F60" s="54">
+        <v>1.7900100000000001</v>
+      </c>
+      <c r="G60" s="54">
+        <v>0.44375300000000001</v>
+      </c>
+      <c r="H60" s="54">
+        <v>19.398</v>
+      </c>
+      <c r="I60" s="54">
+        <v>130.51599999999999</v>
+      </c>
+      <c r="J60" s="54">
+        <v>1.39022</v>
+      </c>
+      <c r="K60" s="54">
+        <v>5.9117000000000003E-2</v>
+      </c>
+      <c r="M60" s="4"/>
+      <c r="O60" s="1">
+        <v>6</v>
+      </c>
+      <c r="P60" s="55">
+        <v>327</v>
+      </c>
+      <c r="Q60" s="55">
+        <v>203</v>
+      </c>
+      <c r="R60" s="55">
+        <v>135</v>
+      </c>
+      <c r="S60" s="55">
+        <v>343</v>
+      </c>
+      <c r="T60" s="55">
+        <v>120</v>
+      </c>
+      <c r="U60" s="55">
+        <v>154</v>
+      </c>
+      <c r="V60" s="55">
+        <v>173</v>
+      </c>
+      <c r="W60" s="55">
+        <v>308</v>
+      </c>
+      <c r="X60" s="55">
+        <v>128</v>
+      </c>
+      <c r="Y60" s="55">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="24">
+        <v>7</v>
+      </c>
+      <c r="B61" s="54">
+        <v>512.66999999999996</v>
+      </c>
+      <c r="C61" s="54">
+        <v>11.9932</v>
+      </c>
+      <c r="D61" s="54">
+        <v>4.3576899999999998</v>
+      </c>
+      <c r="E61" s="54">
+        <v>24.514700000000001</v>
+      </c>
+      <c r="F61" s="54">
+        <v>15.7742</v>
+      </c>
+      <c r="G61" s="54">
+        <v>0.37591000000000002</v>
+      </c>
+      <c r="H61" s="54">
+        <v>11.274699999999999</v>
+      </c>
+      <c r="I61" s="54">
+        <v>10.2547</v>
+      </c>
+      <c r="J61" s="54">
+        <v>0.81820199999999998</v>
+      </c>
+      <c r="K61" s="54">
+        <v>4.54711E-2</v>
+      </c>
+      <c r="M61" s="4"/>
+      <c r="O61" s="1">
+        <v>7</v>
+      </c>
+      <c r="P61" s="55">
+        <v>336</v>
+      </c>
+      <c r="Q61" s="55">
+        <v>227</v>
+      </c>
+      <c r="R61" s="55">
+        <v>99</v>
+      </c>
+      <c r="S61" s="55">
+        <v>526</v>
+      </c>
+      <c r="T61" s="55">
+        <v>165</v>
+      </c>
+      <c r="U61" s="55">
+        <v>199</v>
+      </c>
+      <c r="V61" s="55">
+        <v>191</v>
+      </c>
+      <c r="W61" s="55">
+        <v>212</v>
+      </c>
+      <c r="X61" s="55">
+        <v>148</v>
+      </c>
+      <c r="Y61" s="55">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="24">
+        <v>8</v>
+      </c>
+      <c r="B62" s="54">
+        <v>20.802</v>
+      </c>
+      <c r="C62" s="54">
+        <v>12.725</v>
+      </c>
+      <c r="D62" s="54">
+        <v>3.2014999999999998</v>
+      </c>
+      <c r="E62" s="54">
+        <v>11.315799999999999</v>
+      </c>
+      <c r="F62" s="54">
+        <v>3.8772700000000002</v>
+      </c>
+      <c r="G62" s="54">
+        <v>0.30377300000000002</v>
+      </c>
+      <c r="H62" s="54">
+        <v>11.4245</v>
+      </c>
+      <c r="I62" s="54">
+        <v>27.8551</v>
+      </c>
+      <c r="J62" s="54">
+        <v>1.5124599999999999</v>
+      </c>
+      <c r="K62" s="54">
+        <v>0.27271699999999999</v>
+      </c>
+      <c r="M62" s="4"/>
+      <c r="O62" s="1">
+        <v>8</v>
+      </c>
+      <c r="P62" s="55">
+        <v>227</v>
+      </c>
+      <c r="Q62" s="55">
+        <v>254</v>
+      </c>
+      <c r="R62" s="55">
+        <v>139</v>
+      </c>
+      <c r="S62" s="55">
+        <v>559</v>
+      </c>
+      <c r="T62" s="55">
+        <v>230</v>
+      </c>
+      <c r="U62" s="55">
+        <v>72</v>
+      </c>
+      <c r="V62" s="55">
+        <v>211</v>
+      </c>
+      <c r="W62" s="55">
+        <v>207</v>
+      </c>
+      <c r="X62" s="55">
+        <v>288</v>
+      </c>
+      <c r="Y62" s="55">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="24">
+        <v>9</v>
+      </c>
+      <c r="B63" s="54">
+        <v>565.20100000000002</v>
+      </c>
+      <c r="C63" s="54">
+        <v>14.2669</v>
+      </c>
+      <c r="D63" s="54">
+        <v>4.6919500000000003</v>
+      </c>
+      <c r="E63" s="54">
+        <v>12.3293</v>
+      </c>
+      <c r="F63" s="54">
+        <v>7.0873400000000002</v>
+      </c>
+      <c r="G63" s="54">
+        <v>0.38303500000000001</v>
+      </c>
+      <c r="H63" s="54">
+        <v>16.6342</v>
+      </c>
+      <c r="I63" s="54">
+        <v>12.4886</v>
+      </c>
+      <c r="J63" s="54">
+        <v>2.1301299999999999</v>
+      </c>
+      <c r="K63" s="54">
+        <v>3.8875E-2</v>
+      </c>
+      <c r="M63" s="4"/>
+      <c r="O63" s="1">
+        <v>9</v>
+      </c>
+      <c r="P63" s="55">
+        <v>313</v>
+      </c>
+      <c r="Q63" s="55">
+        <v>175</v>
+      </c>
+      <c r="R63" s="55">
+        <v>196</v>
+      </c>
+      <c r="S63" s="55">
+        <v>367</v>
+      </c>
+      <c r="T63" s="55">
+        <v>146</v>
+      </c>
+      <c r="U63" s="55">
+        <v>187</v>
+      </c>
+      <c r="V63" s="55">
+        <v>176</v>
+      </c>
+      <c r="W63" s="55">
+        <v>330</v>
+      </c>
+      <c r="X63" s="55">
+        <v>343</v>
+      </c>
+      <c r="Y63" s="55">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="33">
+        <f t="shared" ref="B64:J64" si="4">AVERAGE(B54:B63)</f>
+        <v>119.25514779</v>
+      </c>
+      <c r="C64" s="34">
+        <f t="shared" si="4"/>
+        <v>22.905646999999998</v>
+      </c>
+      <c r="D64" s="33">
+        <f t="shared" si="4"/>
+        <v>4.4755133499999991</v>
+      </c>
+      <c r="E64" s="33">
+        <f t="shared" si="4"/>
+        <v>22.018999999999998</v>
+      </c>
+      <c r="F64" s="33">
+        <f t="shared" si="4"/>
+        <v>34.178811888888895</v>
+      </c>
+      <c r="G64" s="33">
+        <f t="shared" si="4"/>
+        <v>0.45594909999999994</v>
+      </c>
+      <c r="H64" s="33">
+        <f t="shared" si="4"/>
+        <v>11.877791999999999</v>
+      </c>
+      <c r="I64" s="33">
+        <f t="shared" si="4"/>
+        <v>78.778188609999987</v>
+      </c>
+      <c r="J64" s="33">
+        <f t="shared" si="4"/>
+        <v>1.4773641999999998</v>
+      </c>
+      <c r="K64" s="33">
+        <f>AVERAGE(K54:K63)</f>
+        <v>0.21883914000000004</v>
+      </c>
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="21">
+        <f t="shared" ref="B65:J65" si="5">_xlfn.STDEV.P(B54:B63)</f>
+        <v>210.55084371985251</v>
+      </c>
+      <c r="C65" s="21">
+        <f t="shared" si="5"/>
+        <v>13.842170139334407</v>
+      </c>
+      <c r="D65" s="21">
+        <f t="shared" si="5"/>
+        <v>3.5680929058188222</v>
+      </c>
+      <c r="E65" s="21">
+        <f t="shared" si="5"/>
+        <v>10.197231670703582</v>
+      </c>
+      <c r="F65" s="21">
+        <f t="shared" si="5"/>
+        <v>65.612416276339289</v>
+      </c>
+      <c r="G65" s="21">
+        <f t="shared" si="5"/>
+        <v>0.10697375139018937</v>
+      </c>
+      <c r="H65" s="21">
+        <f t="shared" si="5"/>
+        <v>4.6249010564309394</v>
+      </c>
+      <c r="I65" s="21">
+        <f t="shared" si="5"/>
+        <v>98.905895952484926</v>
+      </c>
+      <c r="J65" s="21">
+        <f t="shared" si="5"/>
+        <v>0.57538831567365101</v>
+      </c>
+      <c r="K65" s="21">
+        <f>_xlfn.STDEV.P(K54:K63)</f>
+        <v>0.28360918163998916</v>
+      </c>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="18">
+        <v>10</v>
+      </c>
+      <c r="C66" s="19">
+        <v>10</v>
+      </c>
+      <c r="D66" s="19">
+        <v>10</v>
+      </c>
+      <c r="E66" s="19">
+        <v>10</v>
+      </c>
+      <c r="F66" s="19">
+        <v>9</v>
+      </c>
+      <c r="G66" s="19">
+        <v>10</v>
+      </c>
+      <c r="H66" s="19">
+        <v>10</v>
+      </c>
+      <c r="I66" s="19">
+        <v>10</v>
+      </c>
+      <c r="J66" s="20">
+        <v>10</v>
+      </c>
+      <c r="K66" s="60">
+        <v>10</v>
+      </c>
+      <c r="L66" s="32">
+        <f>SUM(B66:K66)</f>
+        <v>99</v>
+      </c>
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="M70" s="4"/>
+      <c r="O70" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M71" s="4"/>
+      <c r="O71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P71" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R71" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="S71" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="T71" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U71" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V71" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W71" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="X71" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y71" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="54">
+        <v>0.38657399999999997</v>
+      </c>
+      <c r="E72" s="54">
+        <v>4.0223899999999997</v>
+      </c>
+      <c r="F72" s="9"/>
+      <c r="G72" s="54">
+        <v>0.109879</v>
+      </c>
+      <c r="H72" s="9"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="54">
+        <v>5.3376100000000003E-2</v>
+      </c>
+      <c r="K72" s="59"/>
+      <c r="M72" s="4"/>
+      <c r="O72" s="1">
+        <v>0</v>
+      </c>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="55">
+        <v>172</v>
+      </c>
+      <c r="S72" s="55">
+        <v>364</v>
+      </c>
+      <c r="T72" s="9"/>
+      <c r="U72" s="55">
+        <v>187</v>
+      </c>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="55">
+        <v>158</v>
+      </c>
+      <c r="Y72" s="9"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="B73" s="46"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="54">
+        <v>2.00081</v>
+      </c>
+      <c r="E73" s="54">
+        <v>5.4539999999999997</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="G73" s="54">
+        <v>0.12564</v>
+      </c>
+      <c r="H73" s="9"/>
+      <c r="I73" s="59"/>
+      <c r="J73" s="54">
+        <v>0.13887099999999999</v>
+      </c>
+      <c r="K73" s="59"/>
+      <c r="M73" s="4"/>
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="55">
+        <v>472</v>
+      </c>
+      <c r="S73" s="55">
+        <v>685</v>
+      </c>
+      <c r="T73" s="9"/>
+      <c r="U73" s="55">
+        <v>238</v>
+      </c>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="55">
+        <v>208</v>
+      </c>
+      <c r="Y73" s="9"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>2</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="54">
+        <v>1.1292</v>
+      </c>
+      <c r="E74" s="54">
+        <v>5.0095099999999997</v>
+      </c>
+      <c r="F74" s="9"/>
+      <c r="G74" s="54">
+        <v>0.16522400000000001</v>
+      </c>
+      <c r="H74" s="9"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="54">
+        <v>8.1892999999999994E-2</v>
+      </c>
+      <c r="K74" s="59"/>
+      <c r="M74" s="4"/>
+      <c r="O74" s="1">
+        <v>2</v>
+      </c>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="55">
+        <v>274</v>
+      </c>
+      <c r="S74" s="55">
+        <v>502</v>
+      </c>
+      <c r="T74" s="9"/>
+      <c r="U74" s="55">
+        <v>256</v>
+      </c>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="55">
+        <v>233</v>
+      </c>
+      <c r="Y74" s="9"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>3</v>
+      </c>
+      <c r="B75" s="46"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="54">
+        <v>0.50571699999999997</v>
+      </c>
+      <c r="E75" s="54">
+        <v>4.3646000000000003</v>
+      </c>
+      <c r="F75" s="9"/>
+      <c r="G75" s="54">
+        <v>0.147289</v>
+      </c>
+      <c r="H75" s="9"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="54">
+        <v>6.7930599999999994E-2</v>
+      </c>
+      <c r="K75" s="59"/>
+      <c r="M75" s="4"/>
+      <c r="O75" s="1">
+        <v>3</v>
+      </c>
+      <c r="P75" s="46"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="55">
+        <v>194</v>
+      </c>
+      <c r="S75" s="55">
+        <v>622</v>
+      </c>
+      <c r="T75" s="9"/>
+      <c r="U75" s="55">
+        <v>208</v>
+      </c>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="55">
+        <v>158</v>
+      </c>
+      <c r="Y75" s="9"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="24">
+        <v>4</v>
+      </c>
+      <c r="B76" s="47"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="54">
+        <v>0.25125900000000001</v>
+      </c>
+      <c r="E76" s="54">
+        <v>4.2425199999999998</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="54">
+        <v>0.19906299999999999</v>
+      </c>
+      <c r="H76" s="10"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="54">
+        <v>5.1220700000000001E-2</v>
+      </c>
+      <c r="K76" s="59"/>
+      <c r="M76" s="4"/>
+      <c r="O76" s="1">
+        <v>4</v>
+      </c>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="55">
+        <v>116</v>
+      </c>
+      <c r="S76" s="55">
+        <v>481</v>
+      </c>
+      <c r="T76" s="10"/>
+      <c r="U76" s="55">
+        <v>379</v>
+      </c>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="55">
+        <v>118</v>
+      </c>
+      <c r="Y76" s="10"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="24">
+        <v>5</v>
+      </c>
+      <c r="B77" s="47"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="54">
+        <v>0.24196200000000001</v>
+      </c>
+      <c r="E77" s="54">
+        <v>4.8396100000000004</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="54">
+        <v>0.10667500000000001</v>
+      </c>
+      <c r="H77" s="10"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="54">
+        <v>8.2027600000000006E-2</v>
+      </c>
+      <c r="K77" s="59"/>
+      <c r="M77" s="4"/>
+      <c r="O77" s="1">
+        <v>5</v>
+      </c>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="55">
+        <v>109</v>
+      </c>
+      <c r="S77" s="55">
+        <v>601</v>
+      </c>
+      <c r="T77" s="10"/>
+      <c r="U77" s="55">
+        <v>241</v>
+      </c>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="55">
+        <v>148</v>
+      </c>
+      <c r="Y77" s="10"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="24">
+        <v>6</v>
+      </c>
+      <c r="B78" s="47"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="54">
+        <v>0.22550799999999999</v>
+      </c>
+      <c r="E78" s="54">
+        <v>3.2199</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="G78" s="54">
+        <v>0.106572</v>
+      </c>
+      <c r="H78" s="10"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="54">
+        <v>5.05064E-2</v>
+      </c>
+      <c r="K78" s="59"/>
+      <c r="M78" s="4"/>
+      <c r="O78" s="1">
+        <v>6</v>
+      </c>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="55">
+        <v>93</v>
+      </c>
+      <c r="S78" s="55">
+        <v>328</v>
+      </c>
+      <c r="T78" s="10"/>
+      <c r="U78" s="55">
+        <v>154</v>
+      </c>
+      <c r="V78" s="10"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="55">
+        <v>98</v>
+      </c>
+      <c r="Y78" s="10"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="24">
+        <v>7</v>
+      </c>
+      <c r="B79" s="47"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="54">
+        <v>0.214117</v>
+      </c>
+      <c r="E79" s="54">
+        <v>3.1267800000000001</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="54">
+        <v>8.7227299999999994E-2</v>
+      </c>
+      <c r="H79" s="10"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="54">
+        <v>9.3159099999999995E-2</v>
+      </c>
+      <c r="K79" s="59"/>
+      <c r="M79" s="4"/>
+      <c r="O79" s="1">
+        <v>7</v>
+      </c>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="55">
+        <v>99</v>
+      </c>
+      <c r="S79" s="55">
+        <v>613</v>
+      </c>
+      <c r="T79" s="10"/>
+      <c r="U79" s="55">
+        <v>199</v>
+      </c>
+      <c r="V79" s="10"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="55">
+        <v>163</v>
+      </c>
+      <c r="Y79" s="10"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="24">
+        <v>8</v>
+      </c>
+      <c r="B80" s="47"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="54">
+        <v>0.23603299999999999</v>
+      </c>
+      <c r="E80" s="54">
+        <v>2.5430799999999998</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="54">
+        <v>7.6675099999999996E-2</v>
+      </c>
+      <c r="H80" s="10"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="54">
+        <v>8.7870500000000004E-2</v>
+      </c>
+      <c r="K80" s="54">
+        <v>1.3692299999999999</v>
+      </c>
+      <c r="M80" s="4"/>
+      <c r="O80" s="1">
+        <v>8</v>
+      </c>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="55">
+        <v>139</v>
+      </c>
+      <c r="S80" s="55">
+        <v>565</v>
+      </c>
+      <c r="T80" s="10"/>
+      <c r="U80" s="55">
+        <v>72</v>
+      </c>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="55">
+        <v>258</v>
+      </c>
+      <c r="Y80" s="61">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="24">
+        <v>9</v>
+      </c>
+      <c r="B81" s="47"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="54">
+        <v>0.206451</v>
+      </c>
+      <c r="E81" s="54">
+        <v>3.3932699999999998</v>
+      </c>
+      <c r="F81" s="9"/>
+      <c r="G81" s="54">
+        <v>8.8140499999999997E-2</v>
+      </c>
+      <c r="H81" s="9"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="54">
+        <v>9.5492099999999996E-2</v>
+      </c>
+      <c r="K81" s="59"/>
+      <c r="M81" s="4"/>
+      <c r="O81" s="1">
+        <v>9</v>
+      </c>
+      <c r="P81" s="47"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="55">
+        <v>136</v>
+      </c>
+      <c r="S81" s="55">
+        <v>370</v>
+      </c>
+      <c r="T81" s="9"/>
+      <c r="U81" s="55">
+        <v>187</v>
+      </c>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="55">
+        <v>363</v>
+      </c>
+      <c r="Y81" s="9"/>
+    </row>
+    <row r="82" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="33" t="e">
+        <f t="shared" ref="B82:K82" si="6">AVERAGE(B72:B81)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C82" s="34" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D82" s="33">
+        <f t="shared" si="6"/>
+        <v>0.53976309999999994</v>
+      </c>
+      <c r="E82" s="33">
+        <f t="shared" si="6"/>
+        <v>4.021566</v>
+      </c>
+      <c r="F82" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G82" s="33">
+        <f t="shared" si="6"/>
+        <v>0.12123848999999998</v>
+      </c>
+      <c r="H82" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I82" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J82" s="33">
+        <f t="shared" si="6"/>
+        <v>8.0234710000000001E-2</v>
+      </c>
+      <c r="K82" s="33">
+        <f t="shared" si="6"/>
+        <v>1.3692299999999999</v>
+      </c>
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="21" t="e">
+        <f t="shared" ref="B83:K83" si="7">_xlfn.STDEV.P(B72:B81)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C83" s="21" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D83" s="21">
+        <f t="shared" si="7"/>
+        <v>0.55558893358461547</v>
+      </c>
+      <c r="E83" s="21">
+        <f t="shared" si="7"/>
+        <v>0.8881203324347432</v>
+      </c>
+      <c r="F83" s="21" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G83" s="21">
+        <f t="shared" si="7"/>
+        <v>3.6720232443094705E-2</v>
+      </c>
+      <c r="H83" s="21" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I83" s="21" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J83" s="21">
+        <f t="shared" si="7"/>
+        <v>2.5496417839392639E-2</v>
+      </c>
+      <c r="K83" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="18">
+        <v>0</v>
+      </c>
+      <c r="C84" s="19">
+        <v>0</v>
+      </c>
+      <c r="D84" s="19">
+        <v>10</v>
+      </c>
+      <c r="E84" s="19">
+        <v>10</v>
+      </c>
+      <c r="F84" s="19">
+        <v>0</v>
+      </c>
+      <c r="G84" s="19">
+        <v>10</v>
+      </c>
+      <c r="H84" s="19">
+        <v>0</v>
+      </c>
+      <c r="I84" s="19">
+        <v>0</v>
+      </c>
+      <c r="J84" s="20">
+        <v>10</v>
+      </c>
+      <c r="K84" s="60">
+        <v>1</v>
+      </c>
+      <c r="L84" s="32">
+        <f>SUM(B84:K84)</f>
+        <v>41</v>
+      </c>
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M87" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>42</v>
+      </c>
+      <c r="M88" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" s="16">
+        <f>IF(B72&lt;&gt;0,IF(B72&lt;=1,1,1-LOG(B72)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C89" s="16">
+        <f t="shared" ref="C89:K89" si="8">IF(C72&lt;&gt;0,IF(C72&lt;=1,1,1-LOG(C72)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="16">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E89" s="16">
+        <f t="shared" si="8"/>
+        <v>0.79538437539127305</v>
+      </c>
+      <c r="F89" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="16">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H89" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="16">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K89" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M89" t="s">
+        <v>45</v>
+      </c>
+      <c r="O89" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B90" s="16">
+        <f t="shared" ref="B90:K98" si="9">IF(B73&lt;&gt;0,IF(B73&lt;=1,1,1-LOG(B73)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C90" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D90" s="16">
+        <f t="shared" si="9"/>
+        <v>0.89804295065188999</v>
+      </c>
+      <c r="E90" s="16">
+        <f t="shared" si="9"/>
+        <v>0.75062469270830801</v>
+      </c>
+      <c r="F90" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H90" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K90" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="4"/>
+      <c r="X90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B91" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C91" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D91" s="16">
+        <f t="shared" si="9"/>
+        <v>0.98213725877064273</v>
+      </c>
+      <c r="E91" s="16">
+        <f t="shared" si="9"/>
+        <v>0.76312193543808116</v>
+      </c>
+      <c r="F91" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H91" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K91" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B92" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C92" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D92" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E92" s="16">
+        <f t="shared" si="9"/>
+        <v>0.78338120642344866</v>
+      </c>
+      <c r="F92" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H92" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I92" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K92" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="4"/>
+      <c r="P92" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B93" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C93" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D93" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E93" s="16">
+        <f t="shared" si="9"/>
+        <v>0.78755166634721729</v>
+      </c>
+      <c r="F93" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H93" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K93" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="4"/>
+      <c r="P93" s="16">
+        <f>MIN(P72,P54,P36,P18)</f>
+        <v>21</v>
+      </c>
+      <c r="Q93" s="16">
+        <f t="shared" ref="Q93:V93" si="10">MIN(Q72,Q54,Q36,Q18)</f>
+        <v>258</v>
+      </c>
+      <c r="R93" s="16">
+        <f t="shared" si="10"/>
+        <v>142</v>
+      </c>
+      <c r="S93" s="16">
+        <f t="shared" si="10"/>
+        <v>307</v>
+      </c>
+      <c r="T93" s="16">
+        <f t="shared" si="10"/>
+        <v>350</v>
+      </c>
+      <c r="U93" s="16">
+        <f t="shared" si="10"/>
+        <v>187</v>
+      </c>
+      <c r="V93" s="16">
+        <f t="shared" si="10"/>
+        <v>173</v>
+      </c>
+      <c r="W93" s="16">
+        <f>MIN(W72,W54,W36,W18)</f>
+        <v>353</v>
+      </c>
+      <c r="X93" s="16">
+        <f t="shared" ref="X93:Y93" si="11">MIN(X72,X54,X36,X18)</f>
+        <v>153</v>
+      </c>
+      <c r="Y93" s="16">
+        <f t="shared" si="11"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B94" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C94" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D94" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E94" s="16">
+        <f t="shared" si="9"/>
+        <v>0.76819426189859541</v>
+      </c>
+      <c r="F94" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H94" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K94" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="4"/>
+      <c r="P94" s="16">
+        <f t="shared" ref="P94:V102" si="12">MIN(P73,P55,P37,P19)</f>
+        <v>121</v>
+      </c>
+      <c r="Q94" s="16">
+        <f t="shared" si="12"/>
+        <v>208</v>
+      </c>
+      <c r="R94" s="16">
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+      <c r="S94" s="16">
+        <f t="shared" si="12"/>
+        <v>532</v>
+      </c>
+      <c r="T94" s="16">
+        <f t="shared" si="12"/>
+        <v>315</v>
+      </c>
+      <c r="U94" s="16">
+        <f t="shared" si="12"/>
+        <v>238</v>
+      </c>
+      <c r="V94" s="16">
+        <f t="shared" si="12"/>
+        <v>177</v>
+      </c>
+      <c r="W94" s="16">
+        <f t="shared" ref="W94:Y94" si="13">MIN(W73,W55,W37,W19)</f>
+        <v>208</v>
+      </c>
+      <c r="X94" s="16">
+        <f t="shared" si="13"/>
+        <v>208</v>
+      </c>
+      <c r="Y94" s="16">
+        <f t="shared" si="13"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B95" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C95" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D95" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E95" s="16">
+        <f t="shared" si="9"/>
+        <v>0.82809725929490263</v>
+      </c>
+      <c r="F95" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H95" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K95" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="4"/>
+      <c r="P95" s="16">
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
+      <c r="Q95" s="16">
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+      <c r="R95" s="16">
+        <f t="shared" si="12"/>
+        <v>130</v>
+      </c>
+      <c r="S95" s="16">
+        <f t="shared" si="12"/>
+        <v>346</v>
+      </c>
+      <c r="T95" s="16">
+        <f t="shared" si="12"/>
+        <v>790</v>
+      </c>
+      <c r="U95" s="16">
+        <f t="shared" si="12"/>
+        <v>256</v>
+      </c>
+      <c r="V95" s="16">
+        <f t="shared" si="12"/>
+        <v>196</v>
+      </c>
+      <c r="W95" s="16">
+        <f t="shared" ref="W95:Y95" si="14">MIN(W74,W56,W38,W20)</f>
+        <v>148</v>
+      </c>
+      <c r="X95" s="16">
+        <f t="shared" si="14"/>
+        <v>208</v>
+      </c>
+      <c r="Y95" s="16">
+        <f t="shared" si="14"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B96" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C96" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D96" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E96" s="16">
+        <f t="shared" si="9"/>
+        <v>0.83241141381939687</v>
+      </c>
+      <c r="F96" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H96" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I96" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K96" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="4"/>
+      <c r="P96" s="16">
+        <f t="shared" si="12"/>
+        <v>82</v>
+      </c>
+      <c r="Q96" s="16">
+        <f t="shared" si="12"/>
+        <v>349</v>
+      </c>
+      <c r="R96" s="16">
+        <f t="shared" si="12"/>
+        <v>134</v>
+      </c>
+      <c r="S96" s="16">
+        <f t="shared" si="12"/>
+        <v>490</v>
+      </c>
+      <c r="T96" s="16">
+        <f t="shared" si="12"/>
+        <v>66</v>
+      </c>
+      <c r="U96" s="16">
+        <f t="shared" si="12"/>
+        <v>208</v>
+      </c>
+      <c r="V96" s="16">
+        <f t="shared" si="12"/>
+        <v>212</v>
+      </c>
+      <c r="W96" s="16">
+        <f t="shared" ref="W96:Y96" si="15">MIN(W75,W57,W39,W21)</f>
+        <v>57</v>
+      </c>
+      <c r="X96" s="16">
+        <f t="shared" si="15"/>
+        <v>148</v>
+      </c>
+      <c r="Y96" s="16">
+        <f t="shared" si="15"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B97" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C97" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D97" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E97" s="16">
+        <f t="shared" si="9"/>
+        <v>0.86278715403517303</v>
+      </c>
+      <c r="F97" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H97" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I97" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K97" s="16">
+        <f t="shared" si="9"/>
+        <v>0.95380324885981482</v>
+      </c>
+      <c r="N97" s="4"/>
+      <c r="P97" s="16">
+        <f t="shared" si="12"/>
+        <v>137</v>
+      </c>
+      <c r="Q97" s="16">
+        <f t="shared" si="12"/>
+        <v>102</v>
+      </c>
+      <c r="R97" s="16">
+        <f t="shared" si="12"/>
+        <v>89</v>
+      </c>
+      <c r="S97" s="16">
+        <f t="shared" si="12"/>
+        <v>445</v>
+      </c>
+      <c r="T97" s="16"/>
+      <c r="U97" s="16">
+        <f t="shared" si="12"/>
+        <v>379</v>
+      </c>
+      <c r="V97" s="16">
+        <f t="shared" si="12"/>
+        <v>86</v>
+      </c>
+      <c r="W97" s="16">
+        <f t="shared" ref="W97:Y97" si="16">MIN(W76,W58,W40,W22)</f>
+        <v>29</v>
+      </c>
+      <c r="X97" s="16">
+        <f t="shared" si="16"/>
+        <v>118</v>
+      </c>
+      <c r="Y97" s="16">
+        <f t="shared" si="16"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C98" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D98" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E98" s="16">
+        <f t="shared" si="9"/>
+        <v>0.82038765747316722</v>
+      </c>
+      <c r="F98" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H98" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K98" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="4"/>
+      <c r="P98" s="16">
+        <f t="shared" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="Q98" s="16">
+        <f t="shared" si="12"/>
+        <v>163</v>
+      </c>
+      <c r="R98" s="16">
+        <f t="shared" si="12"/>
+        <v>103</v>
+      </c>
+      <c r="S98" s="16">
+        <f t="shared" si="12"/>
+        <v>310</v>
+      </c>
+      <c r="T98" s="16">
+        <f t="shared" si="12"/>
+        <v>181</v>
+      </c>
+      <c r="U98" s="16">
+        <f t="shared" si="12"/>
+        <v>199</v>
+      </c>
+      <c r="V98" s="16">
+        <f t="shared" si="12"/>
+        <v>136</v>
+      </c>
+      <c r="W98" s="16">
+        <f t="shared" ref="W98:Y98" si="17">MIN(W77,W59,W41,W23)</f>
+        <v>193</v>
+      </c>
+      <c r="X98" s="16">
+        <f t="shared" si="17"/>
+        <v>148</v>
+      </c>
+      <c r="Y98" s="16">
+        <f t="shared" si="17"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="51">
+        <f>SUM(B89:B98)</f>
+        <v>0</v>
+      </c>
+      <c r="C99" s="51">
+        <f t="shared" ref="C99:K99" si="18">SUM(C89:C98)</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="51">
+        <f t="shared" si="18"/>
+        <v>9.8801802094225337</v>
+      </c>
+      <c r="E99" s="51">
+        <f t="shared" si="18"/>
+        <v>7.9919416228295628</v>
+      </c>
+      <c r="F99" s="51">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="51">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="H99" s="51">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="51">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="51">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="K99" s="51">
+        <f t="shared" si="18"/>
+        <v>0.95380324885981482</v>
+      </c>
+      <c r="L99" s="32">
+        <f>SUM(B99:K99)</f>
+        <v>38.825925081111912</v>
+      </c>
+      <c r="N99" s="4"/>
+      <c r="P99" s="16">
+        <f t="shared" si="12"/>
+        <v>327</v>
+      </c>
+      <c r="Q99" s="16">
+        <f t="shared" si="12"/>
+        <v>203</v>
+      </c>
+      <c r="R99" s="16">
+        <f t="shared" si="12"/>
+        <v>93</v>
+      </c>
+      <c r="S99" s="16">
+        <f t="shared" si="12"/>
+        <v>316</v>
+      </c>
+      <c r="T99" s="16">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="U99" s="16">
+        <f t="shared" si="12"/>
+        <v>154</v>
+      </c>
+      <c r="V99" s="16">
+        <f t="shared" si="12"/>
+        <v>173</v>
+      </c>
+      <c r="W99" s="16">
+        <f t="shared" ref="W99:Y99" si="19">MIN(W78,W60,W42,W24)</f>
+        <v>308</v>
+      </c>
+      <c r="X99" s="16">
+        <f t="shared" si="19"/>
+        <v>98</v>
+      </c>
+      <c r="Y99" s="16">
+        <f t="shared" si="19"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N100" s="4"/>
+      <c r="P100" s="16">
+        <f t="shared" si="12"/>
+        <v>336</v>
+      </c>
+      <c r="Q100" s="16">
+        <f t="shared" si="12"/>
+        <v>227</v>
+      </c>
+      <c r="R100" s="16">
+        <f t="shared" si="12"/>
+        <v>99</v>
+      </c>
+      <c r="S100" s="16">
+        <f t="shared" si="12"/>
+        <v>505</v>
+      </c>
+      <c r="T100" s="16">
+        <f t="shared" si="12"/>
+        <v>165</v>
+      </c>
+      <c r="U100" s="16">
+        <f t="shared" si="12"/>
+        <v>199</v>
+      </c>
+      <c r="V100" s="16">
+        <f t="shared" si="12"/>
+        <v>191</v>
+      </c>
+      <c r="W100" s="16">
+        <f t="shared" ref="W100:Y100" si="20">MIN(W79,W61,W43,W25)</f>
+        <v>212</v>
+      </c>
+      <c r="X100" s="16">
+        <f t="shared" si="20"/>
+        <v>138</v>
+      </c>
+      <c r="Y100" s="16">
+        <f t="shared" si="20"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="P101" s="16">
+        <f t="shared" si="12"/>
+        <v>227</v>
+      </c>
+      <c r="Q101" s="16">
+        <f t="shared" si="12"/>
+        <v>254</v>
+      </c>
+      <c r="R101" s="16">
+        <f t="shared" si="12"/>
+        <v>106</v>
+      </c>
+      <c r="S101" s="16">
+        <f t="shared" si="12"/>
+        <v>550</v>
+      </c>
+      <c r="T101" s="16">
+        <f t="shared" si="12"/>
+        <v>230</v>
+      </c>
+      <c r="U101" s="16">
+        <f t="shared" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="V101" s="16">
+        <f t="shared" si="12"/>
+        <v>211</v>
+      </c>
+      <c r="W101" s="16">
+        <f t="shared" ref="W101:Y101" si="21">MIN(W80,W62,W44,W26)</f>
+        <v>207</v>
+      </c>
+      <c r="X101" s="16">
+        <f t="shared" si="21"/>
+        <v>258</v>
+      </c>
+      <c r="Y101" s="16">
+        <f t="shared" si="21"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N102" s="4"/>
+      <c r="P102" s="16">
+        <f t="shared" si="12"/>
+        <v>313</v>
+      </c>
+      <c r="Q102" s="16">
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+      <c r="R102" s="16">
+        <f t="shared" si="12"/>
+        <v>136</v>
+      </c>
+      <c r="S102" s="16">
+        <f t="shared" si="12"/>
+        <v>289</v>
+      </c>
+      <c r="T102" s="16">
+        <f t="shared" si="12"/>
+        <v>146</v>
+      </c>
+      <c r="U102" s="16">
+        <f t="shared" si="12"/>
+        <v>187</v>
+      </c>
+      <c r="V102" s="16">
+        <f t="shared" si="12"/>
+        <v>176</v>
+      </c>
+      <c r="W102" s="16">
+        <f t="shared" ref="W102:Y102" si="22">MIN(W81,W63,W45,W27)</f>
+        <v>330</v>
+      </c>
+      <c r="X102" s="16">
+        <f t="shared" si="22"/>
+        <v>343</v>
+      </c>
+      <c r="Y102" s="16">
+        <f t="shared" si="22"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="16">
+        <f>IF(B18&lt;&gt;0,IF(B18&lt;=1,1,1-LOG(B18)/LOG(900)),0)</f>
+        <v>0.6779758209570721</v>
+      </c>
+      <c r="C103" s="16">
+        <f t="shared" ref="C103:K103" si="23">IF(C18&lt;&gt;0,IF(C18&lt;=1,1,1-LOG(C18)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D103" s="16">
+        <f t="shared" si="23"/>
+        <v>8.4791812223769858E-2</v>
+      </c>
+      <c r="E103" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="16">
+        <f t="shared" si="23"/>
+        <v>0.16362113016136182</v>
+      </c>
+      <c r="H103" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I103" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="K103" s="16">
+        <f t="shared" si="23"/>
+        <v>0.47712890280092879</v>
+      </c>
+      <c r="N103" s="4"/>
+      <c r="P103" s="64"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B104" s="16">
+        <f t="shared" ref="B104:K112" si="24">IF(B19&lt;&gt;0,IF(B19&lt;=1,1,1-LOG(B19)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C104" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D104" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E104" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F104" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="16">
+        <f t="shared" si="24"/>
+        <v>0.14494868036989972</v>
+      </c>
+      <c r="H104" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I104" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="16">
+        <f t="shared" si="24"/>
+        <v>2.875994141299143E-2</v>
+      </c>
+      <c r="N104" s="4"/>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B105" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C105" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D105" s="16">
+        <f t="shared" si="24"/>
+        <v>0.183112764805206</v>
+      </c>
+      <c r="E105" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="16">
+        <f t="shared" si="24"/>
+        <v>2.3064082592251234E-3</v>
+      </c>
+      <c r="H105" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K105" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N105" s="4"/>
+      <c r="O105" t="s">
+        <v>10</v>
+      </c>
+      <c r="P105" s="16">
+        <f>IF(P18=0,0,P93/P18)</f>
+        <v>0.32307692307692309</v>
+      </c>
+      <c r="Q105" s="16">
+        <f t="shared" ref="Q105:Y105" si="25">IF(Q18=0,0,Q93/Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="R105" s="16">
+        <f t="shared" si="25"/>
+        <v>0.87116564417177911</v>
+      </c>
+      <c r="S105" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="T105" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U105" s="16">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="V105" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W105" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="X105" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Y105" s="16">
+        <f t="shared" si="25"/>
+        <v>0.95890410958904104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B106" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C106" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D106" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E106" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F106" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I106" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="16">
+        <f t="shared" si="24"/>
+        <v>0.12762206843209611</v>
+      </c>
+      <c r="K106" s="16">
+        <f t="shared" si="24"/>
+        <v>0.40686014101371881</v>
+      </c>
+      <c r="N106" s="4"/>
+      <c r="P106" s="16">
+        <f t="shared" ref="P106:Y114" si="26">IF(P19=0,0,P94/P19)</f>
+        <v>0</v>
+      </c>
+      <c r="Q106" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R106" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S106" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T106" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U106" s="16">
+        <f t="shared" si="26"/>
+        <v>0.90839694656488545</v>
+      </c>
+      <c r="V106" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W106" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X106" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y106" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B107" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C107" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D107" s="16">
+        <f t="shared" si="24"/>
+        <v>0.25494632748716384</v>
+      </c>
+      <c r="E107" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I107" s="16">
+        <f t="shared" si="24"/>
+        <v>0.9707675214885666</v>
+      </c>
+      <c r="J107" s="16">
+        <f t="shared" si="24"/>
+        <v>7.0839508159618592E-2</v>
+      </c>
+      <c r="K107" s="16">
+        <f t="shared" si="24"/>
+        <v>0.21084117355408205</v>
+      </c>
+      <c r="N107" s="4"/>
+      <c r="P107" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q107" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R107" s="16">
+        <f t="shared" si="26"/>
+        <v>0.95588235294117652</v>
+      </c>
+      <c r="S107" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T107" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U107" s="16">
+        <f t="shared" si="26"/>
+        <v>0.70329670329670335</v>
+      </c>
+      <c r="V107" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W107" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X107" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y107" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B108" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C108" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D108" s="16">
+        <f t="shared" si="24"/>
+        <v>0.12474345202487669</v>
+      </c>
+      <c r="E108" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F108" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="16">
+        <f t="shared" si="24"/>
+        <v>8.4277998954518152E-2</v>
+      </c>
+      <c r="H108" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I108" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K108" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N108" s="4"/>
+      <c r="P108" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q108" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R108" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S108" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T108" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U108" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V108" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W108" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X108" s="16">
+        <f t="shared" si="26"/>
+        <v>0.9673202614379085</v>
+      </c>
+      <c r="Y108" s="16">
+        <f t="shared" si="26"/>
+        <v>0.83673469387755106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B109" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C109" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D109" s="16">
+        <f t="shared" si="24"/>
+        <v>0.17883339201124648</v>
+      </c>
+      <c r="E109" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F109" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="16">
+        <f t="shared" si="24"/>
+        <v>0.21036214447213908</v>
+      </c>
+      <c r="H109" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="16">
+        <f t="shared" si="24"/>
+        <v>0.2910766998357992</v>
+      </c>
+      <c r="K109" s="16">
+        <f t="shared" si="24"/>
+        <v>0.55554660589714677</v>
+      </c>
+      <c r="N109" s="4"/>
+      <c r="P109" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q109" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R109" s="16">
+        <f t="shared" si="26"/>
+        <v>0.90816326530612246</v>
+      </c>
+      <c r="S109" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T109" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U109" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V109" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W109" s="16">
+        <f t="shared" si="26"/>
+        <v>0.76315789473684215</v>
+      </c>
+      <c r="X109" s="16">
+        <f t="shared" si="26"/>
+        <v>0.88721804511278191</v>
+      </c>
+      <c r="Y109" s="16">
+        <f t="shared" si="26"/>
+        <v>0.95027624309392267</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B110" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C110" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D110" s="16">
+        <f t="shared" si="24"/>
+        <v>0.21700746500073242</v>
+      </c>
+      <c r="E110" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F110" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="16">
+        <f t="shared" si="24"/>
+        <v>0.13218695110471101</v>
+      </c>
+      <c r="H110" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="16">
+        <f t="shared" si="24"/>
+        <v>3.4721092277617549E-2</v>
+      </c>
+      <c r="K110" s="16">
+        <f t="shared" si="24"/>
+        <v>0.99005370155248817</v>
+      </c>
+      <c r="N110" s="4"/>
+      <c r="P110" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q110" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R110" s="16">
+        <f t="shared" si="26"/>
+        <v>0.72535211267605637</v>
+      </c>
+      <c r="S110" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T110" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U110" s="16">
+        <f t="shared" si="26"/>
+        <v>0.82572614107883813</v>
+      </c>
+      <c r="V110" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W110" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X110" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y110" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B111" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C111" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D111" s="16">
+        <f t="shared" si="24"/>
+        <v>0.39048729086708367</v>
+      </c>
+      <c r="E111" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F111" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="16">
+        <f t="shared" si="24"/>
+        <v>0.78387378324069479</v>
+      </c>
+      <c r="H111" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="16">
+        <f t="shared" si="24"/>
+        <v>1.2076700321862921E-2</v>
+      </c>
+      <c r="K111" s="16">
+        <f t="shared" si="24"/>
+        <v>0.37666437218626236</v>
+      </c>
+      <c r="N111" s="4"/>
+      <c r="P111" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q111" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R111" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="S111" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T111" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U111" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="V111" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W111" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X111" s="16">
+        <f t="shared" si="26"/>
+        <v>0.83050847457627119</v>
+      </c>
+      <c r="Y111" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C112" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D112" s="16">
+        <f t="shared" si="24"/>
+        <v>0.18711159856715509</v>
+      </c>
+      <c r="E112" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F112" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="16">
+        <f t="shared" si="24"/>
+        <v>0.13983289266123611</v>
+      </c>
+      <c r="H112" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="16">
+        <f t="shared" si="24"/>
+        <v>8.3369837962369298E-3</v>
+      </c>
+      <c r="K112" s="16">
+        <f t="shared" si="24"/>
+        <v>0.39727178789499429</v>
+      </c>
+      <c r="N112" s="4"/>
+      <c r="P112" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q112" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R112" s="16">
+        <f t="shared" si="26"/>
+        <v>0.89189189189189189</v>
+      </c>
+      <c r="S112" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T112" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U112" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="V112" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W112" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X112" s="16">
+        <f t="shared" si="26"/>
+        <v>0.93243243243243246</v>
+      </c>
+      <c r="Y112" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="33">
+        <f>SUM(B103:B112)</f>
+        <v>0.6779758209570721</v>
+      </c>
+      <c r="C113" s="33">
+        <f t="shared" ref="C113" si="27">SUM(C103:C112)</f>
+        <v>0</v>
+      </c>
+      <c r="D113" s="33">
+        <f t="shared" ref="D113" si="28">SUM(D103:D112)</f>
+        <v>1.6210341029872342</v>
+      </c>
+      <c r="E113" s="33">
+        <f t="shared" ref="E113" si="29">SUM(E103:E112)</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="33">
+        <f t="shared" ref="F113" si="30">SUM(F103:F112)</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="33">
+        <f t="shared" ref="G113" si="31">SUM(G103:G112)</f>
+        <v>1.6614099892237859</v>
+      </c>
+      <c r="H113" s="33">
+        <f t="shared" ref="H113" si="32">SUM(H103:H112)</f>
+        <v>0</v>
+      </c>
+      <c r="I113" s="33">
+        <f t="shared" ref="I113" si="33">SUM(I103:I112)</f>
+        <v>0.9707675214885666</v>
+      </c>
+      <c r="J113" s="33">
+        <f t="shared" ref="J113" si="34">SUM(J103:J112)</f>
+        <v>0.54467305282323131</v>
+      </c>
+      <c r="K113" s="33">
+        <f t="shared" ref="K113" si="35">SUM(K103:K112)</f>
+        <v>3.4431266263126128</v>
+      </c>
+      <c r="L113" s="63">
+        <f>SUM(B113:K113)</f>
+        <v>8.9189871137925039</v>
+      </c>
+      <c r="N113" s="4"/>
+      <c r="P113" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q113" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R113" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="S113" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T113" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U113" s="16">
+        <f t="shared" si="26"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="V113" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W113" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X113" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Y113" s="16">
+        <f t="shared" si="26"/>
+        <v>0.93617021276595747</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N114" s="4"/>
+      <c r="P114" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q114" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R114" s="16">
+        <f t="shared" si="26"/>
+        <v>0.80473372781065089</v>
+      </c>
+      <c r="S114" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T114" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U114" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="V114" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W114" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X114" s="16">
+        <f t="shared" si="26"/>
+        <v>0.95810055865921784</v>
+      </c>
+      <c r="Y114" s="16">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="P115" s="33">
+        <f>SUM(P105:P114)</f>
+        <v>0.32307692307692309</v>
+      </c>
+      <c r="Q115" s="33">
+        <f t="shared" ref="Q115" si="36">SUM(Q105:Q114)</f>
+        <v>0</v>
+      </c>
+      <c r="R115" s="33">
+        <f t="shared" ref="R115" si="37">SUM(R105:R114)</f>
+        <v>7.1571889947976768</v>
+      </c>
+      <c r="S115" s="33">
+        <f t="shared" ref="S115" si="38">SUM(S105:S114)</f>
+        <v>0</v>
+      </c>
+      <c r="T115" s="33">
+        <f t="shared" ref="T115" si="39">SUM(T105:T114)</f>
+        <v>0</v>
+      </c>
+      <c r="U115" s="33">
+        <f t="shared" ref="U115" si="40">SUM(U105:U114)</f>
+        <v>7.3604967140173505</v>
+      </c>
+      <c r="V115" s="33">
+        <f t="shared" ref="V115" si="41">SUM(V105:V114)</f>
+        <v>0</v>
+      </c>
+      <c r="W115" s="33">
+        <f t="shared" ref="W115" si="42">SUM(W105:W114)</f>
+        <v>0.76315789473684215</v>
+      </c>
+      <c r="X115" s="33">
+        <f t="shared" ref="X115" si="43">SUM(X105:X114)</f>
+        <v>5.5755797722186111</v>
+      </c>
+      <c r="Y115" s="33">
+        <f t="shared" ref="Y115" si="44">SUM(Y105:Y114)</f>
+        <v>7.6820852593264721</v>
+      </c>
+      <c r="Z115" s="63">
+        <f>SUM(P115:Y115)</f>
+        <v>28.861585558173878</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N116" s="4"/>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N117" s="4"/>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N118" s="4"/>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="4"/>
+      <c r="W119" s="4"/>
+      <c r="X119" s="4"/>
+      <c r="Y119" s="4"/>
+      <c r="Z119" s="4"/>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N120" s="4"/>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>47</v>
+      </c>
+      <c r="B121" s="16">
+        <f>IF(B36&lt;&gt;0,IF(B36&lt;=1,1,1-LOG(B36)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C121" s="16">
+        <f t="shared" ref="C121:K121" si="45">IF(C36&lt;&gt;0,IF(C36&lt;=1,1,1-LOG(C36)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D121" s="16">
+        <f t="shared" si="45"/>
+        <v>0.77699381981840066</v>
+      </c>
+      <c r="E121" s="16">
+        <f t="shared" si="45"/>
+        <v>0.98963525885538317</v>
+      </c>
+      <c r="F121" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="16">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="H121" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="I121" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="16">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="K121" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="N121" s="4"/>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B122" s="16">
+        <f t="shared" ref="B122:K122" si="46">IF(B37&lt;&gt;0,IF(B37&lt;=1,1,1-LOG(B37)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C122" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="D122" s="16">
+        <f t="shared" si="46"/>
+        <v>0.13092029749889844</v>
+      </c>
+      <c r="E122" s="16">
+        <f t="shared" si="46"/>
+        <v>0.97633123501332864</v>
+      </c>
+      <c r="F122" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="16">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="H122" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="I122" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="16">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="K122" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N122" s="4"/>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B123" s="16">
+        <f t="shared" ref="B123:K123" si="47">IF(B38&lt;&gt;0,IF(B38&lt;=1,1,1-LOG(B38)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C123" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="D123" s="16">
+        <f t="shared" si="47"/>
+        <v>0.19128584951436667</v>
+      </c>
+      <c r="E123" s="16">
+        <f t="shared" si="47"/>
+        <v>0.99741062375647627</v>
+      </c>
+      <c r="F123" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="16">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="H123" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="I123" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="16">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="K123" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="N123" s="4"/>
+      <c r="O123" t="s">
+        <v>11</v>
+      </c>
+      <c r="P123" s="16">
+        <f>IF(P36=0,0,P93/P36)</f>
+        <v>0</v>
+      </c>
+      <c r="Q123" s="16">
+        <f t="shared" ref="Q123:Y123" si="48">IF(Q36=0,0,Q93/Q36)</f>
+        <v>0</v>
+      </c>
+      <c r="R123" s="16">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="S123" s="16">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="T123" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U123" s="16">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="V123" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W123" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="X123" s="16">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="Y123" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B124" s="16">
+        <f t="shared" ref="B124:K124" si="49">IF(B39&lt;&gt;0,IF(B39&lt;=1,1,1-LOG(B39)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C124" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="D124" s="16">
+        <f t="shared" si="49"/>
+        <v>0.34088065952052959</v>
+      </c>
+      <c r="E124" s="16">
+        <f t="shared" si="49"/>
+        <v>0.99285410548698194</v>
+      </c>
+      <c r="F124" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="16">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="H124" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="I124" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="16">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="K124" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N124" s="4"/>
+      <c r="O124" t="s">
+        <v>54</v>
+      </c>
+      <c r="P124" s="16">
+        <f t="shared" ref="P124:Y132" si="50">IF(P37=0,0,P94/P37)</f>
+        <v>0</v>
+      </c>
+      <c r="Q124" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R124" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="S124" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="T124" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="U124" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="V124" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="W124" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X124" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="Y124" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B125" s="16">
+        <f t="shared" ref="B125:K125" si="51">IF(B40&lt;&gt;0,IF(B40&lt;=1,1,1-LOG(B40)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C125" s="16">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="D125" s="16">
+        <f t="shared" si="51"/>
+        <v>0.80659225710480364</v>
+      </c>
+      <c r="E125" s="16">
+        <f t="shared" si="51"/>
+        <v>0.98324278649164676</v>
+      </c>
+      <c r="F125" s="16">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="16">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="H125" s="16">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="I125" s="16">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="16">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="K125" s="16">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="N125" s="4"/>
+      <c r="P125" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q125" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R125" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="S125" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="T125" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="U125" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="V125" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="W125" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X125" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="Y125" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B126" s="16">
+        <f t="shared" ref="B126:K126" si="52">IF(B41&lt;&gt;0,IF(B41&lt;=1,1,1-LOG(B41)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C126" s="16">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="D126" s="16">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="E126" s="16">
+        <f t="shared" si="52"/>
+        <v>0.99812444491351049</v>
+      </c>
+      <c r="F126" s="16">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="16">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="H126" s="16">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="I126" s="16">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="16">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="K126" s="16">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="N126" s="4"/>
+      <c r="P126" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q126" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R126" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="S126" s="16">
+        <f t="shared" si="50"/>
+        <v>0.99391480730223125</v>
+      </c>
+      <c r="T126" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="U126" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="V126" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="W126" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X126" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="Y126" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B127" s="16">
+        <f t="shared" ref="B127:K127" si="53">IF(B42&lt;&gt;0,IF(B42&lt;=1,1,1-LOG(B42)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C127" s="16">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="D127" s="16">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="16">
+        <f t="shared" si="53"/>
+        <v>0.95097894567617014</v>
+      </c>
+      <c r="F127" s="16">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="16">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="H127" s="16">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="I127" s="16">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="16">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="K127" s="16">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="N127" s="4"/>
+      <c r="P127" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q127" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R127" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="S127" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="T127" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="U127" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="V127" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="W127" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X127" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="Y127" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B128" s="16">
+        <f t="shared" ref="B128:K128" si="54">IF(B43&lt;&gt;0,IF(B43&lt;=1,1,1-LOG(B43)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C128" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="D128" s="16">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="E128" s="16">
+        <f t="shared" si="54"/>
+        <v>0.99557759616276154</v>
+      </c>
+      <c r="F128" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="16">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="H128" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="I128" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="16">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="K128" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N128" s="4"/>
+      <c r="P128" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q128" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R128" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="S128" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="T128" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="U128" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="V128" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="W128" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X128" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="Y128" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B129" s="16">
+        <f t="shared" ref="B129:K129" si="55">IF(B44&lt;&gt;0,IF(B44&lt;=1,1,1-LOG(B44)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C129" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="D129" s="16">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="E129" s="16">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="F129" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="16">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="H129" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="I129" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="16">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K129" s="16">
+        <f t="shared" si="55"/>
+        <v>0.78413220193612687</v>
+      </c>
+      <c r="N129" s="4"/>
+      <c r="P129" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q129" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R129" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="S129" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="T129" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="U129" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="V129" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="W129" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X129" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="Y129" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="16">
+        <f t="shared" ref="B130:K130" si="56">IF(B45&lt;&gt;0,IF(B45&lt;=1,1,1-LOG(B45)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C130" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="D130" s="16">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="E130" s="16">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="F130" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="16">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="H130" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I130" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="16">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="K130" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N130" s="4"/>
+      <c r="P130" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q130" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R130" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="S130" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="T130" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="U130" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="V130" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="W130" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X130" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="Y130" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="33">
+        <f>SUM(B121:B130)</f>
+        <v>0</v>
+      </c>
+      <c r="C131" s="33">
+        <f t="shared" ref="C131" si="57">SUM(C121:C130)</f>
+        <v>0</v>
+      </c>
+      <c r="D131" s="33">
+        <f t="shared" ref="D131" si="58">SUM(D121:D130)</f>
+        <v>7.2466728834569993</v>
+      </c>
+      <c r="E131" s="33">
+        <f t="shared" ref="E131" si="59">SUM(E121:E130)</f>
+        <v>9.8841549963562585</v>
+      </c>
+      <c r="F131" s="33">
+        <f t="shared" ref="F131" si="60">SUM(F121:F130)</f>
+        <v>0</v>
+      </c>
+      <c r="G131" s="33">
+        <f t="shared" ref="G131" si="61">SUM(G121:G130)</f>
+        <v>10</v>
+      </c>
+      <c r="H131" s="33">
+        <f t="shared" ref="H131" si="62">SUM(H121:H130)</f>
+        <v>0</v>
+      </c>
+      <c r="I131" s="33">
+        <f t="shared" ref="I131" si="63">SUM(I121:I130)</f>
+        <v>0</v>
+      </c>
+      <c r="J131" s="33">
+        <f t="shared" ref="J131" si="64">SUM(J121:J130)</f>
+        <v>10</v>
+      </c>
+      <c r="K131" s="33">
+        <f t="shared" ref="K131" si="65">SUM(K121:K130)</f>
+        <v>0.78413220193612687</v>
+      </c>
+      <c r="L131" s="63">
+        <f>SUM(B131:K131)</f>
+        <v>37.914960081749378</v>
+      </c>
+      <c r="N131" s="4"/>
+      <c r="P131" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q131" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R131" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="S131" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="T131" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="U131" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="V131" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="W131" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X131" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="Y131" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N132" s="4"/>
+      <c r="P132" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q132" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R132" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="S132" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="T132" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="U132" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="V132" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="W132" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X132" s="16">
+        <f t="shared" si="50"/>
+        <v>0.95810055865921784</v>
+      </c>
+      <c r="Y132" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N133" s="4"/>
+      <c r="P133" s="33">
+        <f>SUM(P123:P132)</f>
+        <v>0</v>
+      </c>
+      <c r="Q133" s="33">
+        <f t="shared" ref="Q133" si="66">SUM(Q123:Q132)</f>
+        <v>0</v>
+      </c>
+      <c r="R133" s="33">
+        <f t="shared" ref="R133" si="67">SUM(R123:R132)</f>
+        <v>10</v>
+      </c>
+      <c r="S133" s="33">
+        <f t="shared" ref="S133" si="68">SUM(S123:S132)</f>
+        <v>9.9939148073022324</v>
+      </c>
+      <c r="T133" s="33">
+        <f t="shared" ref="T133" si="69">SUM(T123:T132)</f>
+        <v>0</v>
+      </c>
+      <c r="U133" s="33">
+        <f t="shared" ref="U133" si="70">SUM(U123:U132)</f>
+        <v>10</v>
+      </c>
+      <c r="V133" s="33">
+        <f t="shared" ref="V133" si="71">SUM(V123:V132)</f>
+        <v>0</v>
+      </c>
+      <c r="W133" s="33">
+        <f t="shared" ref="W133" si="72">SUM(W123:W132)</f>
+        <v>0</v>
+      </c>
+      <c r="X133" s="33">
+        <f t="shared" ref="X133" si="73">SUM(X123:X132)</f>
+        <v>9.9581005586592184</v>
+      </c>
+      <c r="Y133" s="33">
+        <f t="shared" ref="Y133" si="74">SUM(Y123:Y132)</f>
+        <v>1</v>
+      </c>
+      <c r="Z133" s="63">
+        <f>SUM(P133:Y133)</f>
+        <v>40.952015365961451</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="N134" s="4"/>
+    </row>
+    <row r="135" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N135" s="4"/>
+      <c r="O135" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N136" s="4"/>
+      <c r="P136" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="33">
+        <v>0</v>
+      </c>
+      <c r="R136" s="33">
+        <v>8</v>
+      </c>
+      <c r="S136" s="33">
+        <v>9.9939148073022324</v>
+      </c>
+      <c r="T136" s="33">
+        <v>0</v>
+      </c>
+      <c r="U136" s="33">
+        <v>10</v>
+      </c>
+      <c r="V136" s="33">
+        <v>0</v>
+      </c>
+      <c r="W136" s="33">
+        <v>0</v>
+      </c>
+      <c r="X136" s="33">
+        <v>9.9581005586592184</v>
+      </c>
+      <c r="Y136" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z136" s="63">
+        <f>SUM(P136:Y136)</f>
+        <v>37.952015365961451</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
+      <c r="R137" s="4"/>
+      <c r="S137" s="4"/>
+      <c r="T137" s="4"/>
+      <c r="U137" s="4"/>
+      <c r="V137" s="4"/>
+      <c r="W137" s="4"/>
+      <c r="X137" s="4"/>
+      <c r="Y137" s="4"/>
+      <c r="Z137" s="4"/>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N138" s="4"/>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" s="16">
+        <f>IF(B54&lt;&gt;0,IF(B54&lt;=1,1,1-LOG(B54)/LOG(900)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="C139" s="16">
+        <f t="shared" ref="C139:K139" si="75">IF(C54&lt;&gt;0,IF(C54&lt;=1,1,1-LOG(C54)/LOG(900)),0)</f>
+        <v>0.44882655600824939</v>
+      </c>
+      <c r="D139" s="16">
+        <f t="shared" si="75"/>
+        <v>0.73482988676617755</v>
+      </c>
+      <c r="E139" s="16">
+        <f t="shared" si="75"/>
+        <v>0.57505413936191685</v>
+      </c>
+      <c r="F139" s="16">
+        <f t="shared" si="75"/>
+        <v>0.64745239782058783</v>
+      </c>
+      <c r="G139" s="16">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="H139" s="16">
+        <f t="shared" si="75"/>
+        <v>0.64275322022723813</v>
+      </c>
+      <c r="I139" s="16">
+        <f t="shared" si="75"/>
+        <v>0.1739138506234702</v>
+      </c>
+      <c r="J139" s="16">
+        <f t="shared" si="75"/>
+        <v>0.8928018343301829</v>
+      </c>
+      <c r="K139" s="16">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="N139" s="4"/>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B140" s="16">
+        <f t="shared" ref="B140:K140" si="76">IF(B55&lt;&gt;0,IF(B55&lt;=1,1,1-LOG(B55)/LOG(900)),0)</f>
+        <v>0.72139707483248716</v>
+      </c>
+      <c r="C140" s="16">
+        <f t="shared" si="76"/>
+        <v>0.4964096971278037</v>
+      </c>
+      <c r="D140" s="16">
+        <f t="shared" si="76"/>
+        <v>0.65804453630626336</v>
+      </c>
+      <c r="E140" s="16">
+        <f t="shared" si="76"/>
+        <v>0.44100167408413027</v>
+      </c>
+      <c r="F140" s="16">
+        <f t="shared" si="76"/>
+        <v>0.50096803654370059</v>
+      </c>
+      <c r="G140" s="16">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="H140" s="16">
+        <f t="shared" si="76"/>
+        <v>0.61872410646443687</v>
+      </c>
+      <c r="I140" s="16">
+        <f t="shared" si="76"/>
+        <v>0.37707980566856913</v>
+      </c>
+      <c r="J140" s="16">
+        <f t="shared" si="76"/>
+        <v>0.86387446265043355</v>
+      </c>
+      <c r="K140" s="16">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="N140" s="4"/>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B141" s="16">
+        <f t="shared" ref="B141:K141" si="77">IF(B56&lt;&gt;0,IF(B56&lt;=1,1,1-LOG(B56)/LOG(900)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="C141" s="16">
+        <f t="shared" si="77"/>
+        <v>0.52212417340739692</v>
+      </c>
+      <c r="D141" s="16">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+      <c r="E141" s="16">
+        <f t="shared" si="77"/>
+        <v>0.56276455031059114</v>
+      </c>
+      <c r="F141" s="16">
+        <f t="shared" si="77"/>
+        <v>0.20839742901766256</v>
+      </c>
+      <c r="G141" s="16">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+      <c r="H141" s="16">
+        <f t="shared" si="77"/>
+        <v>0.65685186180112609</v>
+      </c>
+      <c r="I141" s="16">
+        <f t="shared" si="77"/>
+        <v>0.60252215860941072</v>
+      </c>
+      <c r="J141" s="16">
+        <f t="shared" si="77"/>
+        <v>0.95870806859590219</v>
+      </c>
+      <c r="K141" s="16">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+      <c r="N141" s="4"/>
+      <c r="O141" t="s">
+        <v>14</v>
+      </c>
+      <c r="P141" s="16">
+        <f>IF(P54=0,0,P93/P54)</f>
+        <v>1</v>
+      </c>
+      <c r="Q141" s="16">
+        <f t="shared" ref="Q141:Y141" si="78">IF(Q54=0,0,Q93/Q54)</f>
+        <v>1</v>
+      </c>
+      <c r="R141" s="16">
+        <f t="shared" si="78"/>
+        <v>0.797752808988764</v>
+      </c>
+      <c r="S141" s="16">
+        <f t="shared" si="78"/>
+        <v>0.86478873239436616</v>
+      </c>
+      <c r="T141" s="16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="U141" s="16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="V141" s="16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="W141" s="16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="X141" s="16">
+        <f t="shared" si="78"/>
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="Y141" s="16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B142" s="16">
+        <f t="shared" ref="B142:K142" si="79">IF(B57&lt;&gt;0,IF(B57&lt;=1,1,1-LOG(B57)/LOG(900)),0)</f>
+        <v>0.57840531956071728</v>
+      </c>
+      <c r="C142" s="16">
+        <f t="shared" si="79"/>
+        <v>0.42651382680466021</v>
+      </c>
+      <c r="D142" s="16">
+        <f t="shared" si="79"/>
+        <v>0.6645662777664878</v>
+      </c>
+      <c r="E142" s="16">
+        <f t="shared" si="79"/>
+        <v>0.56760468813618847</v>
+      </c>
+      <c r="F142" s="16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="G142" s="16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="H142" s="16">
+        <f t="shared" si="79"/>
+        <v>0.63120393579087941</v>
+      </c>
+      <c r="I142" s="16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="J142" s="16">
+        <f t="shared" si="79"/>
+        <v>0.94736280410519547</v>
+      </c>
+      <c r="K142" s="16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="N142" s="4"/>
+      <c r="P142" s="16">
+        <f t="shared" ref="P142:Y150" si="80">IF(P55=0,0,P94/P55)</f>
+        <v>1</v>
+      </c>
+      <c r="Q142" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="R142" s="16">
+        <f t="shared" si="80"/>
+        <v>0.44080604534005036</v>
+      </c>
+      <c r="S142" s="16">
+        <f t="shared" si="80"/>
+        <v>0.87644151565074135</v>
+      </c>
+      <c r="T142" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="U142" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="V142" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="W142" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="X142" s="16">
+        <f t="shared" si="80"/>
+        <v>0.93273542600896864</v>
+      </c>
+      <c r="Y142" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B143" s="16">
+        <f t="shared" ref="B143:K143" si="81">IF(B58&lt;&gt;0,IF(B58&lt;=1,1,1-LOG(B58)/LOG(900)),0)</f>
+        <v>0.50463390150376264</v>
+      </c>
+      <c r="C143" s="16">
+        <f t="shared" si="81"/>
+        <v>0.85864973846667869</v>
+      </c>
+      <c r="D143" s="16">
+        <f t="shared" si="81"/>
+        <v>0.73121585910838016</v>
+      </c>
+      <c r="E143" s="16">
+        <f t="shared" si="81"/>
+        <v>0.62123888969712038</v>
+      </c>
+      <c r="F143" s="16">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="16">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="H143" s="16">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="I143" s="16">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="J143" s="16">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="K143" s="16">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="N143" s="4"/>
+      <c r="P143" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="Q143" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="R143" s="16">
+        <f t="shared" si="80"/>
+        <v>0.8783783783783784</v>
+      </c>
+      <c r="S143" s="16">
+        <f t="shared" si="80"/>
+        <v>0.63955637707948243</v>
+      </c>
+      <c r="T143" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="U143" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="V143" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="W143" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="X143" s="16">
+        <f t="shared" si="80"/>
+        <v>0.80620155038759689</v>
+      </c>
+      <c r="Y143" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B144" s="16">
+        <f t="shared" ref="B144:K144" si="82">IF(B59&lt;&gt;0,IF(B59&lt;=1,1,1-LOG(B59)/LOG(900)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="C144" s="16">
+        <f t="shared" si="82"/>
+        <v>0.5930581640636392</v>
+      </c>
+      <c r="D144" s="16">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="E144" s="16">
+        <f t="shared" si="82"/>
+        <v>0.47324931540924997</v>
+      </c>
+      <c r="F144" s="16">
+        <f t="shared" si="82"/>
+        <v>0.56354087518688634</v>
+      </c>
+      <c r="G144" s="16">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="H144" s="16">
+        <f t="shared" si="82"/>
+        <v>0.63256075425151481</v>
+      </c>
+      <c r="I144" s="16">
+        <f t="shared" si="82"/>
+        <v>0.19035867416872498</v>
+      </c>
+      <c r="J144" s="16">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="K144" s="16">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="N144" s="4"/>
+      <c r="P144" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="Q144" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="R144" s="16">
+        <f t="shared" si="80"/>
+        <v>0.56779661016949157</v>
+      </c>
+      <c r="S144" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="T144" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="U144" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="V144" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="W144" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="X144" s="16">
+        <f t="shared" si="80"/>
+        <v>0.58498023715415015</v>
+      </c>
+      <c r="Y144" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B145" s="16">
+        <f t="shared" ref="B145:K145" si="83">IF(B60&lt;&gt;0,IF(B60&lt;=1,1,1-LOG(B60)/LOG(900)),0)</f>
+        <v>0.45679569380285867</v>
+      </c>
+      <c r="C145" s="16">
+        <f t="shared" si="83"/>
+        <v>0.53887563747144518</v>
+      </c>
+      <c r="D145" s="16">
+        <f t="shared" si="83"/>
+        <v>1</v>
+      </c>
+      <c r="E145" s="16">
+        <f t="shared" si="83"/>
+        <v>0.54858535903455063</v>
+      </c>
+      <c r="F145" s="16">
+        <f t="shared" si="83"/>
+        <v>0.914409376890572</v>
+      </c>
+      <c r="G145" s="16">
+        <f t="shared" si="83"/>
+        <v>1</v>
+      </c>
+      <c r="H145" s="16">
+        <f t="shared" si="83"/>
+        <v>0.56409910463322166</v>
+      </c>
+      <c r="I145" s="16">
+        <f t="shared" si="83"/>
+        <v>0.28385576049240879</v>
+      </c>
+      <c r="J145" s="16">
+        <f t="shared" si="83"/>
+        <v>0.95156676149165764</v>
+      </c>
+      <c r="K145" s="16">
+        <f t="shared" si="83"/>
+        <v>1</v>
+      </c>
+      <c r="N145" s="4"/>
+      <c r="P145" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="Q145" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="R145" s="16">
+        <f t="shared" si="80"/>
+        <v>0.56329113924050633</v>
+      </c>
+      <c r="S145" s="16">
+        <f t="shared" si="80"/>
+        <v>0.94279661016949157</v>
+      </c>
+      <c r="T145" s="16">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="U145" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="V145" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="W145" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="X145" s="16">
+        <f t="shared" si="80"/>
+        <v>0.88721804511278191</v>
+      </c>
+      <c r="Y145" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B146" s="16">
+        <f t="shared" ref="B146:K146" si="84">IF(B61&lt;&gt;0,IF(B61&lt;=1,1,1-LOG(B61)/LOG(900)),0)</f>
+        <v>8.273004134243489E-2</v>
+      </c>
+      <c r="C146" s="16">
+        <f t="shared" si="84"/>
+        <v>0.63478452678171116</v>
+      </c>
+      <c r="D146" s="16">
+        <f t="shared" si="84"/>
+        <v>0.78361413124964174</v>
+      </c>
+      <c r="E146" s="16">
+        <f t="shared" si="84"/>
+        <v>0.52968431722431042</v>
+      </c>
+      <c r="F146" s="16">
+        <f t="shared" si="84"/>
+        <v>0.59449932120087856</v>
+      </c>
+      <c r="G146" s="16">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="H146" s="16">
+        <f t="shared" si="84"/>
+        <v>0.6438664085540291</v>
+      </c>
+      <c r="I146" s="16">
+        <f t="shared" si="84"/>
+        <v>0.65780637289323529</v>
+      </c>
+      <c r="J146" s="16">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="K146" s="16">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="N146" s="4"/>
+      <c r="P146" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="Q146" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="R146" s="16">
+        <f t="shared" si="80"/>
+        <v>0.69594594594594594</v>
+      </c>
+      <c r="S146" s="16">
+        <f t="shared" si="80"/>
+        <v>0.67391304347826086</v>
+      </c>
+      <c r="T146" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="U146" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="V146" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="W146" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="X146" s="16">
+        <f t="shared" si="80"/>
+        <v>0.90797546012269936</v>
+      </c>
+      <c r="Y146" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B147" s="16">
+        <f t="shared" ref="B147:K147" si="85">IF(B62&lt;&gt;0,IF(B62&lt;=1,1,1-LOG(B62)/LOG(900)),0)</f>
+        <v>0.55382637416242486</v>
+      </c>
+      <c r="C147" s="16">
+        <f t="shared" si="85"/>
+        <v>0.62607748433677324</v>
+      </c>
+      <c r="D147" s="16">
+        <f t="shared" si="85"/>
+        <v>0.82893973512821206</v>
+      </c>
+      <c r="E147" s="16">
+        <f t="shared" si="85"/>
+        <v>0.64333149374476006</v>
+      </c>
+      <c r="F147" s="16">
+        <f t="shared" si="85"/>
+        <v>0.80078614298517192</v>
+      </c>
+      <c r="G147" s="16">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="H147" s="16">
+        <f t="shared" si="85"/>
+        <v>0.6419260779631506</v>
+      </c>
+      <c r="I147" s="16">
+        <f t="shared" si="85"/>
+        <v>0.51090517542087244</v>
+      </c>
+      <c r="J147" s="16">
+        <f t="shared" si="85"/>
+        <v>0.93917767511481998</v>
+      </c>
+      <c r="K147" s="16">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="N147" s="4"/>
+      <c r="P147" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="Q147" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="R147" s="16">
+        <f t="shared" si="80"/>
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="S147" s="16">
+        <f t="shared" si="80"/>
+        <v>0.92128279883381925</v>
+      </c>
+      <c r="T147" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="U147" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="V147" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="W147" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="X147" s="16">
+        <f t="shared" si="80"/>
+        <v>0.765625</v>
+      </c>
+      <c r="Y147" s="16">
+        <f t="shared" si="80"/>
+        <v>0.91176470588235292</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="16">
+        <f t="shared" ref="B148:K148" si="86">IF(B63&lt;&gt;0,IF(B63&lt;=1,1,1-LOG(B63)/LOG(900)),0)</f>
+        <v>6.8389642091713276E-2</v>
+      </c>
+      <c r="C148" s="16">
+        <f t="shared" si="86"/>
+        <v>0.60926375763185558</v>
+      </c>
+      <c r="D148" s="16">
+        <f t="shared" si="86"/>
+        <v>0.77274940251445945</v>
+      </c>
+      <c r="E148" s="16">
+        <f t="shared" si="86"/>
+        <v>0.63072143989530949</v>
+      </c>
+      <c r="F148" s="16">
+        <f t="shared" si="86"/>
+        <v>0.712114606402801</v>
+      </c>
+      <c r="G148" s="16">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="H148" s="16">
+        <f t="shared" si="86"/>
+        <v>0.58669543377596478</v>
+      </c>
+      <c r="I148" s="16">
+        <f t="shared" si="86"/>
+        <v>0.62883420971155723</v>
+      </c>
+      <c r="J148" s="16">
+        <f t="shared" si="86"/>
+        <v>0.88883576489859439</v>
+      </c>
+      <c r="K148" s="16">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="N148" s="4"/>
+      <c r="P148" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="Q148" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="R148" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="S148" s="16">
+        <f t="shared" si="80"/>
+        <v>0.96007604562737647</v>
+      </c>
+      <c r="T148" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="U148" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="V148" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="W148" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="X148" s="16">
+        <f t="shared" si="80"/>
+        <v>0.93243243243243246</v>
+      </c>
+      <c r="Y148" s="16">
+        <f t="shared" si="80"/>
+        <v>0.59162303664921467</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="33">
+        <f>SUM(B139:B148)</f>
+        <v>5.9661780472963981</v>
+      </c>
+      <c r="C149" s="33">
+        <f t="shared" ref="C149" si="87">SUM(C139:C148)</f>
+        <v>5.7545835621002128</v>
+      </c>
+      <c r="D149" s="33">
+        <f t="shared" ref="D149" si="88">SUM(D139:D148)</f>
+        <v>8.1739598288396227</v>
+      </c>
+      <c r="E149" s="33">
+        <f t="shared" ref="E149" si="89">SUM(E139:E148)</f>
+        <v>5.5932358668981275</v>
+      </c>
+      <c r="F149" s="33">
+        <f t="shared" ref="F149" si="90">SUM(F139:F148)</f>
+        <v>5.94216818604826</v>
+      </c>
+      <c r="G149" s="33">
+        <f t="shared" ref="G149" si="91">SUM(G139:G148)</f>
+        <v>10</v>
+      </c>
+      <c r="H149" s="33">
+        <f t="shared" ref="H149" si="92">SUM(H139:H148)</f>
+        <v>6.618680903461561</v>
+      </c>
+      <c r="I149" s="33">
+        <f t="shared" ref="I149" si="93">SUM(I139:I148)</f>
+        <v>5.4252760075882485</v>
+      </c>
+      <c r="J149" s="33">
+        <f t="shared" ref="J149" si="94">SUM(J139:J148)</f>
+        <v>9.442327371186785</v>
+      </c>
+      <c r="K149" s="33">
+        <f t="shared" ref="K149" si="95">SUM(K139:K148)</f>
+        <v>10</v>
+      </c>
+      <c r="L149" s="63">
+        <f>SUM(B149:K149)</f>
+        <v>72.916409773419218</v>
+      </c>
+      <c r="N149" s="4"/>
+      <c r="P149" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="Q149" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="R149" s="16">
+        <f t="shared" si="80"/>
+        <v>0.76258992805755399</v>
+      </c>
+      <c r="S149" s="16">
+        <f t="shared" si="80"/>
+        <v>0.98389982110912344</v>
+      </c>
+      <c r="T149" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="U149" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="V149" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="W149" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="X149" s="16">
+        <f t="shared" si="80"/>
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="Y149" s="16">
+        <f t="shared" si="80"/>
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N150" s="4"/>
+      <c r="P150" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="Q150" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="R150" s="16">
+        <f t="shared" si="80"/>
+        <v>0.69387755102040816</v>
+      </c>
+      <c r="S150" s="16">
+        <f t="shared" si="80"/>
+        <v>0.78746594005449588</v>
+      </c>
+      <c r="T150" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="U150" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="V150" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="W150" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="X150" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="Y150" s="16">
+        <f t="shared" si="80"/>
+        <v>0.88636363636363635</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="P151" s="33">
+        <f>SUM(P141:P150)</f>
+        <v>10</v>
+      </c>
+      <c r="Q151" s="33">
+        <f t="shared" ref="Q151" si="96">SUM(Q141:Q150)</f>
+        <v>10</v>
+      </c>
+      <c r="R151" s="33">
+        <f t="shared" ref="R151" si="97">SUM(R141:R150)</f>
+        <v>7.089327296029988</v>
+      </c>
+      <c r="S151" s="33">
+        <f t="shared" ref="S151" si="98">SUM(S141:S150)</f>
+        <v>8.6502208843971573</v>
+      </c>
+      <c r="T151" s="33">
+        <f t="shared" ref="T151" si="99">SUM(T141:T150)</f>
+        <v>9</v>
+      </c>
+      <c r="U151" s="33">
+        <f t="shared" ref="U151" si="100">SUM(U141:U150)</f>
+        <v>10</v>
+      </c>
+      <c r="V151" s="33">
+        <f t="shared" ref="V151" si="101">SUM(V141:V150)</f>
+        <v>10</v>
+      </c>
+      <c r="W151" s="33">
+        <f t="shared" ref="W151" si="102">SUM(W141:W150)</f>
+        <v>10</v>
+      </c>
+      <c r="X151" s="33">
+        <f t="shared" ref="X151" si="103">SUM(X141:X150)</f>
+        <v>8.342631114181593</v>
+      </c>
+      <c r="Y151" s="33">
+        <f t="shared" ref="Y151" si="104">SUM(Y141:Y150)</f>
+        <v>9.1754656646094901</v>
+      </c>
+      <c r="Z151" s="63">
+        <f>SUM(P151:Y151)</f>
+        <v>92.25764495921824</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N152" s="4"/>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="54">
+        <v>61.8598</v>
+      </c>
+      <c r="E153" s="54">
+        <v>40.345100000000002</v>
+      </c>
+      <c r="F153" s="9"/>
+      <c r="G153" s="54">
+        <v>1.30894</v>
+      </c>
+      <c r="H153" s="9"/>
+      <c r="I153" s="59"/>
+      <c r="J153" s="54">
+        <v>1.12609</v>
+      </c>
+      <c r="K153" s="59"/>
+      <c r="N153" s="4"/>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>53</v>
+      </c>
+      <c r="B154" s="46"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="59"/>
+      <c r="E154" s="54">
+        <v>55.22</v>
+      </c>
+      <c r="F154" s="9"/>
+      <c r="G154" s="54">
+        <v>1.1650100000000001</v>
+      </c>
+      <c r="H154" s="9"/>
+      <c r="I154" s="59"/>
+      <c r="J154" s="54">
+        <v>1.2299199999999999</v>
+      </c>
+      <c r="K154" s="59"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
+      <c r="R154" s="4"/>
+      <c r="S154" s="4"/>
+      <c r="T154" s="4"/>
+      <c r="U154" s="4"/>
+      <c r="V154" s="4"/>
+      <c r="W154" s="4"/>
+      <c r="X154" s="4"/>
+      <c r="Y154" s="4"/>
+      <c r="Z154" s="4"/>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="59"/>
+      <c r="E155" s="54">
+        <v>39.673000000000002</v>
+      </c>
+      <c r="F155" s="9"/>
+      <c r="G155" s="54">
+        <v>1.3733299999999999</v>
+      </c>
+      <c r="H155" s="9"/>
+      <c r="I155" s="59"/>
+      <c r="J155" s="54">
+        <v>1.29623</v>
+      </c>
+      <c r="K155" s="59"/>
+      <c r="N155" s="4"/>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B156" s="46"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="54">
+        <v>681.57100000000003</v>
+      </c>
+      <c r="E156" s="54">
+        <v>41.287199999999999</v>
+      </c>
+      <c r="F156" s="9"/>
+      <c r="G156" s="54">
+        <v>1.3267100000000001</v>
+      </c>
+      <c r="H156" s="9"/>
+      <c r="I156" s="59"/>
+      <c r="J156" s="54">
+        <v>1.1058399999999999</v>
+      </c>
+      <c r="K156" s="59"/>
+      <c r="N156" s="4"/>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B157" s="47"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="54">
+        <v>48.830399999999997</v>
+      </c>
+      <c r="E157" s="54">
+        <v>45.474699999999999</v>
+      </c>
+      <c r="F157" s="10"/>
+      <c r="G157" s="54">
+        <v>2.24186</v>
+      </c>
+      <c r="H157" s="10"/>
+      <c r="I157" s="59"/>
+      <c r="J157" s="54">
+        <v>0.904111</v>
+      </c>
+      <c r="K157" s="59"/>
+      <c r="N157" s="4"/>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B158" s="47"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="54">
+        <v>10.012499999999999</v>
+      </c>
+      <c r="E158" s="54">
+        <v>42.5687</v>
+      </c>
+      <c r="F158" s="10"/>
+      <c r="G158" s="54">
+        <v>0.92680099999999999</v>
+      </c>
+      <c r="H158" s="10"/>
+      <c r="I158" s="59"/>
+      <c r="J158" s="54">
+        <v>1.3073900000000001</v>
+      </c>
+      <c r="K158" s="59"/>
+      <c r="N158" s="4"/>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B159" s="47"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="54">
+        <v>6.6980599999999999</v>
+      </c>
+      <c r="E159" s="54">
+        <v>68.042900000000003</v>
+      </c>
+      <c r="F159" s="10"/>
+      <c r="G159" s="54">
+        <v>1.1829400000000001</v>
+      </c>
+      <c r="H159" s="10"/>
+      <c r="I159" s="59"/>
+      <c r="J159" s="54">
+        <v>1.18411</v>
+      </c>
+      <c r="K159" s="59"/>
+      <c r="N159" s="4"/>
+      <c r="O159" t="s">
+        <v>41</v>
+      </c>
+      <c r="P159" s="16">
+        <f>IF(P72=0,0,P93/P72)</f>
+        <v>0</v>
+      </c>
+      <c r="Q159" s="16">
+        <f t="shared" ref="Q159:Y159" si="105">IF(Q72=0,0,Q93/Q72)</f>
+        <v>0</v>
+      </c>
+      <c r="R159" s="16">
+        <f t="shared" si="105"/>
+        <v>0.82558139534883723</v>
+      </c>
+      <c r="S159" s="16">
+        <f t="shared" si="105"/>
+        <v>0.84340659340659341</v>
+      </c>
+      <c r="T159" s="16">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="U159" s="16">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="V159" s="16">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="W159" s="16">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="X159" s="16">
+        <f t="shared" si="105"/>
+        <v>0.96835443037974689</v>
+      </c>
+      <c r="Y159" s="16">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B160" s="47"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="54">
+        <v>4.87303</v>
+      </c>
+      <c r="E160" s="54">
+        <v>39.043100000000003</v>
+      </c>
+      <c r="F160" s="10"/>
+      <c r="G160" s="54">
+        <v>0.997112</v>
+      </c>
+      <c r="H160" s="10"/>
+      <c r="I160" s="59"/>
+      <c r="J160" s="54">
+        <v>1.2085900000000001</v>
+      </c>
+      <c r="K160" s="59"/>
+      <c r="N160" s="4"/>
+      <c r="P160" s="16">
+        <f t="shared" ref="P160:Y168" si="106">IF(P73=0,0,P94/P73)</f>
+        <v>0</v>
+      </c>
+      <c r="Q160" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="R160" s="16">
+        <f t="shared" si="106"/>
+        <v>0.37076271186440679</v>
+      </c>
+      <c r="S160" s="16">
+        <f t="shared" si="106"/>
+        <v>0.77664233576642339</v>
+      </c>
+      <c r="T160" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="U160" s="16">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="V160" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="W160" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="X160" s="16">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="Y160" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B161" s="47"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="54">
+        <v>5.40428</v>
+      </c>
+      <c r="E161" s="54">
+        <v>34.791899999999998</v>
+      </c>
+      <c r="F161" s="10"/>
+      <c r="G161" s="54">
+        <v>0.70125499999999996</v>
+      </c>
+      <c r="H161" s="10"/>
+      <c r="I161" s="59"/>
+      <c r="J161" s="54">
+        <v>1.30047</v>
+      </c>
+      <c r="K161" s="59"/>
+      <c r="N161" s="4"/>
+      <c r="P161" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="Q161" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="R161" s="16">
+        <f t="shared" si="106"/>
+        <v>0.47445255474452552</v>
+      </c>
+      <c r="S161" s="16">
+        <f t="shared" si="106"/>
+        <v>0.68924302788844627</v>
+      </c>
+      <c r="T161" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="U161" s="16">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="V161" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="W161" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="X161" s="16">
+        <f t="shared" si="106"/>
+        <v>0.89270386266094426</v>
+      </c>
+      <c r="Y161" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B162" s="47"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="54">
+        <v>8.0884499999999999</v>
+      </c>
+      <c r="E162" s="54">
+        <v>32.7744</v>
+      </c>
+      <c r="F162" s="9"/>
+      <c r="G162" s="54">
+        <v>0.99968100000000004</v>
+      </c>
+      <c r="H162" s="9"/>
+      <c r="I162" s="59"/>
+      <c r="J162" s="54">
+        <v>1.1249100000000001</v>
+      </c>
+      <c r="K162" s="59"/>
+      <c r="N162" s="4"/>
+      <c r="P162" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="Q162" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="R162" s="16">
+        <f t="shared" si="106"/>
+        <v>0.69072164948453607</v>
+      </c>
+      <c r="S162" s="16">
+        <f t="shared" si="106"/>
+        <v>0.78778135048231512</v>
+      </c>
+      <c r="T162" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="U162" s="16">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="V162" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="W162" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="X162" s="16">
+        <f t="shared" si="106"/>
+        <v>0.93670886075949367</v>
+      </c>
+      <c r="Y162" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="N163" s="4"/>
+      <c r="P163" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="Q163" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="R163" s="16">
+        <f t="shared" si="106"/>
+        <v>0.76724137931034486</v>
+      </c>
+      <c r="S163" s="16">
+        <f t="shared" si="106"/>
+        <v>0.92515592515592515</v>
+      </c>
+      <c r="T163" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="U163" s="16">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="V163" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="W163" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="X163" s="16">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="Y163" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="N164" s="4"/>
+      <c r="P164" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="Q164" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="R164" s="16">
+        <f t="shared" si="106"/>
+        <v>0.94495412844036697</v>
+      </c>
+      <c r="S164" s="16">
+        <f t="shared" si="106"/>
+        <v>0.51580698835274541</v>
+      </c>
+      <c r="T164" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="U164" s="16">
+        <f t="shared" si="106"/>
+        <v>0.82572614107883813</v>
+      </c>
+      <c r="V164" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="W164" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="X164" s="16">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="Y164" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B165" s="16">
+        <f>IF(B153&lt;&gt;0,IF(B153&lt;=1,1,1-LOG(B153)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C165" s="16">
+        <f t="shared" ref="C165:K165" si="107">IF(C153&lt;&gt;0,IF(C153&lt;=1,1,1-LOG(C153)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D165" s="16">
+        <f t="shared" si="107"/>
+        <v>0.39361494331609936</v>
+      </c>
+      <c r="E165" s="16">
+        <f t="shared" si="107"/>
+        <v>0.45644584318238812</v>
+      </c>
+      <c r="F165" s="16">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="G165" s="16">
+        <f t="shared" si="107"/>
+        <v>0.96042310704866429</v>
+      </c>
+      <c r="H165" s="16">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="I165" s="16">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="J165" s="16">
+        <f t="shared" si="107"/>
+        <v>0.98254269862201304</v>
+      </c>
+      <c r="K165" s="16">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="N165" s="4"/>
+      <c r="P165" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="Q165" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="R165" s="16">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="S165" s="16">
+        <f t="shared" si="106"/>
+        <v>0.96341463414634143</v>
+      </c>
+      <c r="T165" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="U165" s="16">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="V165" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="W165" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="X165" s="16">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="Y165" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B166" s="16">
+        <f t="shared" ref="B166:K174" si="108">IF(B154&lt;&gt;0,IF(B154&lt;=1,1,1-LOG(B154)/LOG(900)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C166" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="D166" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="E166" s="16">
+        <f t="shared" si="108"/>
+        <v>0.41030690718959606</v>
+      </c>
+      <c r="F166" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="G166" s="16">
+        <f t="shared" si="108"/>
+        <v>0.97754766137724525</v>
+      </c>
+      <c r="H166" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="I166" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="J166" s="16">
+        <f t="shared" si="108"/>
+        <v>0.96957701900300342</v>
+      </c>
+      <c r="K166" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="N166" s="4"/>
+      <c r="P166" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="Q166" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="R166" s="16">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="S166" s="16">
+        <f t="shared" si="106"/>
+        <v>0.82381729200652531</v>
+      </c>
+      <c r="T166" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="U166" s="16">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="V166" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="W166" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="X166" s="16">
+        <f t="shared" si="106"/>
+        <v>0.84662576687116564</v>
+      </c>
+      <c r="Y166" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B167" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="C167" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="D167" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="E167" s="16">
+        <f t="shared" si="108"/>
+        <v>0.45891542851810108</v>
+      </c>
+      <c r="F167" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="G167" s="16">
+        <f t="shared" si="108"/>
+        <v>0.95336371108358309</v>
+      </c>
+      <c r="H167" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="I167" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="J167" s="16">
+        <f t="shared" si="108"/>
+        <v>0.96185754277023117</v>
+      </c>
+      <c r="K167" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="N167" s="4"/>
+      <c r="P167" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="Q167" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="R167" s="16">
+        <f t="shared" si="106"/>
+        <v>0.76258992805755399</v>
+      </c>
+      <c r="S167" s="16">
+        <f t="shared" si="106"/>
+        <v>0.97345132743362828</v>
+      </c>
+      <c r="T167" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="U167" s="16">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="V167" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="W167" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="X167" s="16">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="Y167" s="16">
+        <f t="shared" si="106"/>
+        <v>0.93617021276595747</v>
+      </c>
+    </row>
+    <row r="168" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="C168" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="D168" s="16">
+        <f t="shared" si="108"/>
+        <v>4.0867127730007557E-2</v>
+      </c>
+      <c r="E168" s="16">
+        <f t="shared" si="108"/>
+        <v>0.45305254193295619</v>
+      </c>
+      <c r="F168" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="G168" s="16">
+        <f t="shared" si="108"/>
+        <v>0.95844078398160626</v>
+      </c>
+      <c r="H168" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="I168" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="J168" s="16">
+        <f t="shared" si="108"/>
+        <v>0.98521032214766679</v>
+      </c>
+      <c r="K168" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="N168" s="4"/>
+      <c r="P168" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="Q168" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="R168" s="16">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="S168" s="16">
+        <f t="shared" si="106"/>
+        <v>0.7810810810810811</v>
+      </c>
+      <c r="T168" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="U168" s="16">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="V168" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="W168" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="X168" s="16">
+        <f t="shared" si="106"/>
+        <v>0.94490358126721763</v>
+      </c>
+      <c r="Y168" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="C169" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="D169" s="16">
+        <f t="shared" si="108"/>
+        <v>0.4283846784826657</v>
+      </c>
+      <c r="E169" s="16">
+        <f t="shared" si="108"/>
+        <v>0.43885113108524498</v>
+      </c>
+      <c r="F169" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="G169" s="16">
+        <f t="shared" si="108"/>
+        <v>0.88132034282886751</v>
+      </c>
+      <c r="H169" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="I169" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="J169" s="16">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="K169" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="N169" s="4"/>
+      <c r="P169" s="33">
+        <f>SUM(P159:P168)</f>
+        <v>0</v>
+      </c>
+      <c r="Q169" s="33">
+        <f t="shared" ref="Q169" si="109">SUM(Q159:Q168)</f>
+        <v>0</v>
+      </c>
+      <c r="R169" s="33">
+        <f t="shared" ref="R169" si="110">SUM(R159:R168)</f>
+        <v>7.8363037472505708</v>
+      </c>
+      <c r="S169" s="33">
+        <f t="shared" ref="S169" si="111">SUM(S159:S168)</f>
+        <v>8.0798005557200252</v>
+      </c>
+      <c r="T169" s="33">
+        <f t="shared" ref="T169" si="112">SUM(T159:T168)</f>
+        <v>0</v>
+      </c>
+      <c r="U169" s="33">
+        <f t="shared" ref="U169" si="113">SUM(U159:U168)</f>
+        <v>9.8257261410788388</v>
+      </c>
+      <c r="V169" s="33">
+        <f t="shared" ref="V169" si="114">SUM(V159:V168)</f>
+        <v>0</v>
+      </c>
+      <c r="W169" s="33">
+        <f t="shared" ref="W169" si="115">SUM(W159:W168)</f>
+        <v>0</v>
+      </c>
+      <c r="X169" s="33">
+        <f t="shared" ref="X169" si="116">SUM(X159:X168)</f>
+        <v>9.5892965019385681</v>
+      </c>
+      <c r="Y169" s="33">
+        <f t="shared" ref="Y169" si="117">SUM(Y159:Y168)</f>
+        <v>0.93617021276595747</v>
+      </c>
+      <c r="Z169" s="63">
+        <f>SUM(P169:Y169)</f>
+        <v>36.267297158753962</v>
+      </c>
+    </row>
+    <row r="170" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B170" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="C170" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="D170" s="16">
+        <f t="shared" si="108"/>
+        <v>0.6613201096743464</v>
+      </c>
+      <c r="E170" s="16">
+        <f t="shared" si="108"/>
+        <v>0.44855901900008333</v>
+      </c>
+      <c r="F170" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="G170" s="16">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="H170" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="I170" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="J170" s="16">
+        <f t="shared" si="108"/>
+        <v>0.96059729070064948</v>
+      </c>
+      <c r="K170" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B171" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="C171" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="D171" s="16">
+        <f t="shared" si="108"/>
+        <v>0.72041935253690603</v>
+      </c>
+      <c r="E171" s="16">
+        <f t="shared" si="108"/>
+        <v>0.37960989689106672</v>
+      </c>
+      <c r="F171" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="G171" s="16">
+        <f t="shared" si="108"/>
+        <v>0.97530239407692609</v>
+      </c>
+      <c r="H171" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="I171" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="J171" s="16">
+        <f t="shared" si="108"/>
+        <v>0.97515706696957505</v>
+      </c>
+      <c r="K171" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B172" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="C172" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="D172" s="16">
+        <f t="shared" si="108"/>
+        <v>0.76718259152600154</v>
+      </c>
+      <c r="E172" s="16">
+        <f t="shared" si="108"/>
+        <v>0.4612682310223325</v>
+      </c>
+      <c r="F172" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="G172" s="16">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="H172" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="I172" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="J172" s="16">
+        <f t="shared" si="108"/>
+        <v>0.97214886852840776</v>
+      </c>
+      <c r="K172" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B173" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="C173" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="D173" s="16">
+        <f t="shared" si="108"/>
+        <v>0.75197099096279763</v>
+      </c>
+      <c r="E173" s="16">
+        <f t="shared" si="108"/>
+        <v>0.47821543374635422</v>
+      </c>
+      <c r="F173" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="G173" s="16">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="H173" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="I173" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="J173" s="16">
+        <f t="shared" si="108"/>
+        <v>0.96137746385930789</v>
+      </c>
+      <c r="K173" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="C174" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="D174" s="16">
+        <f t="shared" si="108"/>
+        <v>0.69269100208306045</v>
+      </c>
+      <c r="E174" s="16">
+        <f t="shared" si="108"/>
+        <v>0.48699717610322002</v>
+      </c>
+      <c r="F174" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="G174" s="16">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="H174" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="I174" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="J174" s="16">
+        <f t="shared" si="108"/>
+        <v>0.98269682419920423</v>
+      </c>
+      <c r="K174" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="33">
+        <f>SUM(B165:B174)</f>
+        <v>0</v>
+      </c>
+      <c r="C175" s="33">
+        <f t="shared" ref="C175:K175" si="118">SUM(C165:C174)</f>
+        <v>0</v>
+      </c>
+      <c r="D175" s="33">
+        <f t="shared" si="118"/>
+        <v>4.4564507963118851</v>
+      </c>
+      <c r="E175" s="33">
+        <f t="shared" si="118"/>
+        <v>4.4722216086713429</v>
+      </c>
+      <c r="F175" s="33">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="G175" s="33">
+        <f t="shared" si="118"/>
+        <v>9.7063980003968915</v>
+      </c>
+      <c r="H175" s="33">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="I175" s="33">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="J175" s="33">
+        <f t="shared" si="118"/>
+        <v>9.7511650968000581</v>
+      </c>
+      <c r="K175" s="33">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="L175" s="63">
+        <f>SUM(B175:K175)</f>
+        <v>28.386235502180178</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4C5DDF-79F3-40D2-9A6A-307C97BD20AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6669C0-2705-40EF-9A2F-6566117DB85D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v0" sheetId="1" r:id="rId1"/>
@@ -3230,8 +3230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236E5864-7DE8-4BC8-BF4A-4C02356587BF}">
   <dimension ref="A1:Z104"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90:K99"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83:K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4253,43 +4253,43 @@
       <c r="A29" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="33">
         <f t="shared" ref="B29:K29" si="1">_xlfn.STDEV.P(B18:B27)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="21" t="e">
+      <c r="C29" s="33" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="33">
         <f t="shared" si="1"/>
         <v>126.46918004003969</v>
       </c>
-      <c r="E29" s="21" t="e">
+      <c r="E29" s="33" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="21" t="e">
+      <c r="F29" s="33" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="33">
         <f t="shared" si="1"/>
         <v>237.16398792554915</v>
       </c>
-      <c r="H29" s="21" t="e">
+      <c r="H29" s="33" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="33">
         <f t="shared" si="1"/>
         <v>258.58669019735362</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="33">
         <f t="shared" si="1"/>
         <v>231.23772194432291</v>
       </c>
@@ -4957,43 +4957,43 @@
       <c r="A47" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="21" t="e">
+      <c r="B47" s="33" t="e">
         <f t="shared" ref="B47:K47" si="3">_xlfn.STDEV.P(B36:B45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C47" s="21" t="e">
+      <c r="C47" s="33" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="33">
         <f t="shared" si="3"/>
         <v>123.86685861614376</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="33">
         <f t="shared" si="3"/>
         <v>0.12216899854222542</v>
       </c>
-      <c r="F47" s="21" t="e">
+      <c r="F47" s="33" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="33">
         <f t="shared" si="3"/>
         <v>2.7456084754329136E-2</v>
       </c>
-      <c r="H47" s="21" t="e">
+      <c r="H47" s="33" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I47" s="21" t="e">
+      <c r="I47" s="33" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J47" s="21">
+      <c r="J47" s="33">
         <f t="shared" si="3"/>
         <v>1.8323443898197844E-2</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5893,43 +5893,43 @@
       <c r="A65" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B65" s="33">
         <f t="shared" ref="B65:J65" si="5">_xlfn.STDEV.P(B54:B63)</f>
         <v>210.55084371985251</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="33">
         <f t="shared" si="5"/>
         <v>13.842170139334407</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="33">
         <f t="shared" si="5"/>
         <v>3.5680929058188222</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="33">
         <f t="shared" si="5"/>
         <v>10.197231670703582</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F65" s="33">
         <f t="shared" si="5"/>
         <v>65.612416276339289</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G65" s="33">
         <f t="shared" si="5"/>
         <v>0.10697375139018937</v>
       </c>
-      <c r="H65" s="21">
+      <c r="H65" s="33">
         <f t="shared" si="5"/>
         <v>4.6249010564309394</v>
       </c>
-      <c r="I65" s="21">
+      <c r="I65" s="33">
         <f t="shared" si="5"/>
         <v>98.905895952484926</v>
       </c>
-      <c r="J65" s="21">
+      <c r="J65" s="33">
         <f t="shared" si="5"/>
         <v>0.57538831567365101</v>
       </c>
-      <c r="K65" s="21">
+      <c r="K65" s="33">
         <f>_xlfn.STDEV.P(K54:K63)</f>
         <v>0.28360918163998916</v>
       </c>
@@ -6597,43 +6597,43 @@
       <c r="A83" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="21" t="e">
+      <c r="B83" s="33" t="e">
         <f t="shared" ref="B83:K83" si="7">_xlfn.STDEV.P(B72:B81)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C83" s="21" t="e">
+      <c r="C83" s="33" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D83" s="33">
         <f t="shared" si="7"/>
         <v>0.55558893358461547</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E83" s="33">
         <f t="shared" si="7"/>
         <v>0.8881203324347432</v>
       </c>
-      <c r="F83" s="21" t="e">
+      <c r="F83" s="33" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G83" s="21">
+      <c r="G83" s="33">
         <f t="shared" si="7"/>
         <v>3.6720232443094705E-2</v>
       </c>
-      <c r="H83" s="21" t="e">
+      <c r="H83" s="33" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I83" s="21" t="e">
+      <c r="I83" s="33" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J83" s="21">
+      <c r="J83" s="33">
         <f t="shared" si="7"/>
         <v>2.5496417839392639E-2</v>
       </c>
-      <c r="K83" s="21">
+      <c r="K83" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7295,43 +7295,43 @@
       <c r="A101" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="21" t="e">
+      <c r="B101" s="33" t="e">
         <f t="shared" ref="B101:K101" si="9">_xlfn.STDEV.P(B90:B99)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C101" s="21" t="e">
+      <c r="C101" s="33" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D101" s="21">
+      <c r="D101" s="33">
         <f t="shared" si="9"/>
         <v>219.50302936757691</v>
       </c>
-      <c r="E101" s="21">
+      <c r="E101" s="33">
         <f t="shared" si="9"/>
         <v>9.914265890725364</v>
       </c>
-      <c r="F101" s="21" t="e">
+      <c r="F101" s="33" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G101" s="21">
+      <c r="G101" s="33">
         <f t="shared" si="9"/>
         <v>0.39301759637437328</v>
       </c>
-      <c r="H101" s="21" t="e">
+      <c r="H101" s="33" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I101" s="21" t="e">
+      <c r="I101" s="33" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J101" s="21">
+      <c r="J101" s="33">
         <f t="shared" si="9"/>
         <v>0.11623998861360062</v>
       </c>
-      <c r="K101" s="21" t="e">
+      <c r="K101" s="33" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -7418,8 +7418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E386126B-65E8-4C6E-8E3D-C2C060000E4B}">
   <dimension ref="A1:Z175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J120" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z135" sqref="Z135"/>
+    <sheetView topLeftCell="J120" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M121" sqref="M121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
